--- a/results.xlsx
+++ b/results.xlsx
@@ -46257,13 +46257,13 @@
         <v>-0.8749623999615133</v>
       </c>
       <c r="D2" t="n">
-        <v>1.507253408432007</v>
+        <v>1.593068599700928</v>
       </c>
       <c r="E2" t="n">
-        <v>2.926795959472656</v>
+        <v>2.940075635910034</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2200675010681152</v>
+        <v>0.2089254856109619</v>
       </c>
       <c r="G2" t="n">
         <v>11</v>
@@ -46282,13 +46282,13 @@
         <v>-0.8749623999615133</v>
       </c>
       <c r="D3" t="n">
-        <v>1.507253408432007</v>
+        <v>1.593068599700928</v>
       </c>
       <c r="E3" t="n">
-        <v>2.926795959472656</v>
+        <v>2.940075635910034</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01799941062927246</v>
+        <v>0.01565241813659668</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -46307,13 +46307,13 @@
         <v>-0.9254300371735228</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02802658081054688</v>
+        <v>0.02604365348815918</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02051234245300293</v>
+        <v>0.01877117156982422</v>
       </c>
       <c r="F4" t="n">
-        <v>6.984654188156128</v>
+        <v>6.891972064971924</v>
       </c>
       <c r="G4" t="n">
         <v>9</v>
@@ -46332,13 +46332,13 @@
         <v>-0.9462526235421622</v>
       </c>
       <c r="D5" t="n">
-        <v>1.510744094848633</v>
+        <v>1.464049577713013</v>
       </c>
       <c r="E5" t="n">
-        <v>2.319118022918701</v>
+        <v>2.321043968200684</v>
       </c>
       <c r="F5" t="n">
-        <v>3.673258543014526</v>
+        <v>3.70089054107666</v>
       </c>
       <c r="G5" t="n">
         <v>6</v>
@@ -46351,19 +46351,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.020518390863535</v>
+        <v>-0.9760395097720848</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.020518390863535</v>
+        <v>-0.9760395097720848</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05403542518615723</v>
+        <v>0.04520034790039062</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02400016784667969</v>
+        <v>0.02474379539489746</v>
       </c>
       <c r="F6" t="n">
-        <v>7.300011396408081</v>
+        <v>7.382910013198853</v>
       </c>
       <c r="G6" t="n">
         <v>10</v>
@@ -46372,76 +46372,76 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SeasonalNaive</t>
+          <t>TemporalFusionTransformer</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.026231612016501</v>
+        <v>-0.9940544855850568</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.026231612016501</v>
+        <v>-0.9940544855850568</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03300762176513672</v>
+        <v>0.06185436248779297</v>
       </c>
       <c r="E7" t="n">
-        <v>2.105457782745361</v>
+        <v>0.02327919006347656</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0182957649230957</v>
+        <v>8.247781276702881</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RecursiveTabular</t>
+          <t>SeasonalNaive</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.038270301032334</v>
+        <v>-1.026231612016501</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.038270301032334</v>
+        <v>-1.026231612016501</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2272286415100098</v>
+        <v>0.02740287780761719</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2285916805267334</v>
+        <v>2.373043775558472</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9812469482421875</v>
+        <v>0.02104449272155762</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TemporalFusionTransformer</t>
+          <t>RecursiveTabular</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.041328710003554</v>
+        <v>-1.032759537080203</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.041328710003554</v>
+        <v>-1.032759537080203</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05846238136291504</v>
+        <v>0.1986632347106934</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02500009536743164</v>
+        <v>0.204704761505127</v>
       </c>
       <c r="F9" t="n">
-        <v>8.224204301834106</v>
+        <v>0.9213738441467285</v>
       </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -46451,19 +46451,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.121685097535085</v>
+        <v>-1.096884564031416</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.135756649574562</v>
+        <v>-1.082590318999051</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07304048538208008</v>
+        <v>0.06209921836853027</v>
       </c>
       <c r="E10" t="n">
-        <v>0.06305265426635742</v>
+        <v>0.05810904502868652</v>
       </c>
       <c r="F10" t="n">
-        <v>6.833924055099487</v>
+        <v>6.769786834716797</v>
       </c>
       <c r="G10" t="n">
         <v>8</v>
@@ -46476,19 +46476,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.386606072713866</v>
+        <v>-1.348311788268324</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.386606072713866</v>
+        <v>-1.348311788268324</v>
       </c>
       <c r="D11" t="n">
-        <v>0.09310698509216309</v>
+        <v>0.09424710273742676</v>
       </c>
       <c r="E11" t="n">
-        <v>0.09203457832336426</v>
+        <v>0.09162354469299316</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9741177558898926</v>
+        <v>0.972632884979248</v>
       </c>
       <c r="G11" t="n">
         <v>3</v>
@@ -46501,19 +46501,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2.240841118761095</v>
+        <v>-2.186490680666358</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.164115665615979</v>
+        <v>-2.195947409229569</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1401908397674561</v>
+        <v>0.1475949287414551</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1210391521453857</v>
+        <v>0.1278235912322998</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0200042724609375</v>
+        <v>0.01992607116699219</v>
       </c>
       <c r="G12" t="n">
         <v>4</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -11,6 +11,8 @@
     <sheet name="ForecastData" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Leaderboard" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Predictions" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="StaticTrainFeatures" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="StaticForeFeatures" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -46257,13 +46259,13 @@
         <v>-0.8749623999615133</v>
       </c>
       <c r="D2" t="n">
-        <v>1.593068599700928</v>
+        <v>1.557731151580811</v>
       </c>
       <c r="E2" t="n">
-        <v>2.940075635910034</v>
+        <v>2.565057039260864</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2089254856109619</v>
+        <v>0.2060327529907227</v>
       </c>
       <c r="G2" t="n">
         <v>11</v>
@@ -46282,13 +46284,13 @@
         <v>-0.8749623999615133</v>
       </c>
       <c r="D3" t="n">
-        <v>1.593068599700928</v>
+        <v>1.557731151580811</v>
       </c>
       <c r="E3" t="n">
-        <v>2.940075635910034</v>
+        <v>2.565057039260864</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01565241813659668</v>
+        <v>0.01600003242492676</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -46307,13 +46309,13 @@
         <v>-0.9254300371735228</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02604365348815918</v>
+        <v>0.02400040626525879</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01877117156982422</v>
+        <v>0.01700401306152344</v>
       </c>
       <c r="F4" t="n">
-        <v>6.891972064971924</v>
+        <v>8.023149728775024</v>
       </c>
       <c r="G4" t="n">
         <v>9</v>
@@ -46332,13 +46334,13 @@
         <v>-0.9462526235421622</v>
       </c>
       <c r="D5" t="n">
-        <v>1.464049577713013</v>
+        <v>1.401210784912109</v>
       </c>
       <c r="E5" t="n">
-        <v>2.321043968200684</v>
+        <v>1.726825475692749</v>
       </c>
       <c r="F5" t="n">
-        <v>3.70089054107666</v>
+        <v>0.01750850677490234</v>
       </c>
       <c r="G5" t="n">
         <v>6</v>
@@ -46357,13 +46359,13 @@
         <v>-0.9760395097720848</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04520034790039062</v>
+        <v>0.03901338577270508</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02474379539489746</v>
+        <v>0.02401399612426758</v>
       </c>
       <c r="F6" t="n">
-        <v>7.382910013198853</v>
+        <v>8.410145998001099</v>
       </c>
       <c r="G6" t="n">
         <v>10</v>
@@ -46376,19 +46378,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.9940544855850568</v>
+        <v>-0.9823534954576205</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.9940544855850568</v>
+        <v>-0.9823534954576205</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06185436248779297</v>
+        <v>0.06002140045166016</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02327919006347656</v>
+        <v>0.02700638771057129</v>
       </c>
       <c r="F7" t="n">
-        <v>8.247781276702881</v>
+        <v>7.857292890548706</v>
       </c>
       <c r="G7" t="n">
         <v>7</v>
@@ -46407,13 +46409,13 @@
         <v>-1.026231612016501</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02740287780761719</v>
+        <v>0.02222657203674316</v>
       </c>
       <c r="E8" t="n">
-        <v>2.373043775558472</v>
+        <v>2.151099681854248</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02104449272155762</v>
+        <v>0.02050948143005371</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -46432,13 +46434,13 @@
         <v>-1.032759537080203</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1986632347106934</v>
+        <v>0.1925680637359619</v>
       </c>
       <c r="E9" t="n">
-        <v>0.204704761505127</v>
+        <v>0.1935701370239258</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9213738441467285</v>
+        <v>0.7812874317169189</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -46451,19 +46453,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.096884564031416</v>
+        <v>-1.135372029121023</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.082590318999051</v>
+        <v>-1.122407525475</v>
       </c>
       <c r="D10" t="n">
-        <v>0.06209921836853027</v>
+        <v>0.0600135326385498</v>
       </c>
       <c r="E10" t="n">
-        <v>0.05810904502868652</v>
+        <v>0.0585024356842041</v>
       </c>
       <c r="F10" t="n">
-        <v>6.769786834716797</v>
+        <v>7.849940538406372</v>
       </c>
       <c r="G10" t="n">
         <v>8</v>
@@ -46482,13 +46484,13 @@
         <v>-1.348311788268324</v>
       </c>
       <c r="D11" t="n">
-        <v>0.09424710273742676</v>
+        <v>0.09303402900695801</v>
       </c>
       <c r="E11" t="n">
-        <v>0.09162354469299316</v>
+        <v>0.08751511573791504</v>
       </c>
       <c r="F11" t="n">
-        <v>0.972632884979248</v>
+        <v>1.062474250793457</v>
       </c>
       <c r="G11" t="n">
         <v>3</v>
@@ -46501,19 +46503,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2.186490680666358</v>
+        <v>-2.207140056960381</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.195947409229569</v>
+        <v>-2.197545560789885</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1475949287414551</v>
+        <v>0.1458468437194824</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1278235912322998</v>
+        <v>0.1210486888885498</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01992607116699219</v>
+        <v>0.0200037956237793</v>
       </c>
       <c r="G12" t="n">
         <v>4</v>
@@ -51803,4 +51805,518 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>item_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Shop F</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Shop H</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Shop L</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Manchester</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Shop I</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Montreal</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Shop A</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Shop E</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Shop G</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Shop K</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Shop D</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Shop M</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Edinburgh</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Shop B</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Shop J</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Shop C</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>item_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Shop I</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Montreal</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Shop E</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Shop H</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Shop C</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Shop K</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Shop F</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Shop L</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Manchester</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Shop A</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Shop M</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Edinburgh</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Shop B</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Shop G</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Shop J</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Shop D</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -46259,13 +46259,13 @@
         <v>-0.8749623999615133</v>
       </c>
       <c r="D2" t="n">
-        <v>1.557731151580811</v>
+        <v>1.730032682418823</v>
       </c>
       <c r="E2" t="n">
-        <v>2.565057039260864</v>
+        <v>2.52886962890625</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2060327529907227</v>
+        <v>0.1001071929931641</v>
       </c>
       <c r="G2" t="n">
         <v>11</v>
@@ -46284,13 +46284,13 @@
         <v>-0.8749623999615133</v>
       </c>
       <c r="D3" t="n">
-        <v>1.557731151580811</v>
+        <v>1.72903299331665</v>
       </c>
       <c r="E3" t="n">
-        <v>2.565057039260864</v>
+        <v>2.52886962890625</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01600003242492676</v>
+        <v>0.01400041580200195</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -46309,13 +46309,13 @@
         <v>-0.9254300371735228</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02400040626525879</v>
+        <v>0.02300596237182617</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01700401306152344</v>
+        <v>0.0150001049041748</v>
       </c>
       <c r="F4" t="n">
-        <v>8.023149728775024</v>
+        <v>8.05616283416748</v>
       </c>
       <c r="G4" t="n">
         <v>9</v>
@@ -46334,13 +46334,13 @@
         <v>-0.9462526235421622</v>
       </c>
       <c r="D5" t="n">
-        <v>1.401210784912109</v>
+        <v>1.48720121383667</v>
       </c>
       <c r="E5" t="n">
-        <v>1.726825475692749</v>
+        <v>1.756059169769287</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01750850677490234</v>
+        <v>0.01651310920715332</v>
       </c>
       <c r="G5" t="n">
         <v>6</v>
@@ -46349,51 +46349,51 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TiDE</t>
+          <t>TemporalFusionTransformer</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.9760395097720848</v>
+        <v>-0.9532668546433734</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.9760395097720848</v>
+        <v>-0.9532668546433734</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03901338577270508</v>
+        <v>0.06002378463745117</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02401399612426758</v>
+        <v>0.02802395820617676</v>
       </c>
       <c r="F6" t="n">
-        <v>8.410145998001099</v>
+        <v>7.85674786567688</v>
       </c>
       <c r="G6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TemporalFusionTransformer</t>
+          <t>TiDE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.9823534954576205</v>
+        <v>-0.9760395097720848</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.9823534954576205</v>
+        <v>-0.9760395097720848</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06002140045166016</v>
+        <v>0.0408167839050293</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02700638771057129</v>
+        <v>0.02100658416748047</v>
       </c>
       <c r="F7" t="n">
-        <v>7.857292890548706</v>
+        <v>8.455305337905884</v>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -46409,13 +46409,13 @@
         <v>-1.026231612016501</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02222657203674316</v>
+        <v>0.03327322006225586</v>
       </c>
       <c r="E8" t="n">
-        <v>2.151099681854248</v>
+        <v>2.292104244232178</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02050948143005371</v>
+        <v>0.0160062313079834</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -46434,13 +46434,13 @@
         <v>-1.032759537080203</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1925680637359619</v>
+        <v>0.1935708522796631</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1935701370239258</v>
+        <v>0.2015843391418457</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7812874317169189</v>
+        <v>0.8270697593688965</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -46453,19 +46453,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.135372029121023</v>
+        <v>-1.156075317161092</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.122407525475</v>
+        <v>-1.159560106335753</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0600135326385498</v>
+        <v>0.05914974212646484</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0585024356842041</v>
+        <v>0.05103588104248047</v>
       </c>
       <c r="F10" t="n">
-        <v>7.849940538406372</v>
+        <v>7.881332159042358</v>
       </c>
       <c r="G10" t="n">
         <v>8</v>
@@ -46484,13 +46484,13 @@
         <v>-1.348311788268324</v>
       </c>
       <c r="D11" t="n">
-        <v>0.09303402900695801</v>
+        <v>0.09102416038513184</v>
       </c>
       <c r="E11" t="n">
-        <v>0.08751511573791504</v>
+        <v>0.0890345573425293</v>
       </c>
       <c r="F11" t="n">
-        <v>1.062474250793457</v>
+        <v>1.075281858444214</v>
       </c>
       <c r="G11" t="n">
         <v>3</v>
@@ -46503,19 +46503,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2.207140056960381</v>
+        <v>-2.18223019905877</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.197545560789885</v>
+        <v>-2.182348171665386</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1458468437194824</v>
+        <v>0.1325507164001465</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1210486888885498</v>
+        <v>0.1260783672332764</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0200037956237793</v>
+        <v>0.01500248908996582</v>
       </c>
       <c r="G12" t="n">
         <v>4</v>
@@ -46532,7 +46532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L131"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46558,47 +46558,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
           <t>0.5</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>0.9</t>
         </is>
       </c>
     </row>
@@ -46615,31 +46575,7 @@
         <v>256.466953725876</v>
       </c>
       <c r="D2" t="n">
-        <v>190.4458309929664</v>
-      </c>
-      <c r="E2" t="n">
-        <v>213.1095264867094</v>
-      </c>
-      <c r="F2" t="n">
-        <v>229.4516454530593</v>
-      </c>
-      <c r="G2" t="n">
-        <v>243.4153835512121</v>
-      </c>
-      <c r="H2" t="n">
         <v>256.466953725876</v>
-      </c>
-      <c r="I2" t="n">
-        <v>269.5185239005399</v>
-      </c>
-      <c r="J2" t="n">
-        <v>283.4822619986927</v>
-      </c>
-      <c r="K2" t="n">
-        <v>299.8243809650427</v>
-      </c>
-      <c r="L2" t="n">
-        <v>322.4880764587856</v>
       </c>
     </row>
     <row r="3">
@@ -46655,31 +46591,7 @@
         <v>256.466953725876</v>
       </c>
       <c r="D3" t="n">
-        <v>169.1226506998149</v>
-      </c>
-      <c r="E3" t="n">
-        <v>199.1061560531571</v>
-      </c>
-      <c r="F3" t="n">
-        <v>220.7263729170745</v>
-      </c>
-      <c r="G3" t="n">
-        <v>239.2000510572624</v>
-      </c>
-      <c r="H3" t="n">
         <v>256.466953725876</v>
-      </c>
-      <c r="I3" t="n">
-        <v>273.7338563944896</v>
-      </c>
-      <c r="J3" t="n">
-        <v>292.2075345346776</v>
-      </c>
-      <c r="K3" t="n">
-        <v>313.8277513985949</v>
-      </c>
-      <c r="L3" t="n">
-        <v>343.8112567519371</v>
       </c>
     </row>
     <row r="4">
@@ -46695,31 +46607,7 @@
         <v>256.466953725876</v>
       </c>
       <c r="D4" t="n">
-        <v>152.0674044198428</v>
-      </c>
-      <c r="E4" t="n">
-        <v>187.905625540801</v>
-      </c>
-      <c r="F4" t="n">
-        <v>213.7475043845558</v>
-      </c>
-      <c r="G4" t="n">
-        <v>235.8284370274653</v>
-      </c>
-      <c r="H4" t="n">
         <v>256.466953725876</v>
-      </c>
-      <c r="I4" t="n">
-        <v>277.1054704242867</v>
-      </c>
-      <c r="J4" t="n">
-        <v>299.1864030671962</v>
-      </c>
-      <c r="K4" t="n">
-        <v>325.028281910951</v>
-      </c>
-      <c r="L4" t="n">
-        <v>360.8665030319092</v>
       </c>
     </row>
     <row r="5">
@@ -46735,31 +46623,7 @@
         <v>256.466953725876</v>
       </c>
       <c r="D5" t="n">
-        <v>137.4312258140539</v>
-      </c>
-      <c r="E5" t="n">
-        <v>178.2937464528434</v>
-      </c>
-      <c r="F5" t="n">
-        <v>207.758498736</v>
-      </c>
-      <c r="G5" t="n">
-        <v>232.9350431520663</v>
-      </c>
-      <c r="H5" t="n">
         <v>256.466953725876</v>
-      </c>
-      <c r="I5" t="n">
-        <v>279.9988642996857</v>
-      </c>
-      <c r="J5" t="n">
-        <v>305.175408715752</v>
-      </c>
-      <c r="K5" t="n">
-        <v>334.6401609989086</v>
-      </c>
-      <c r="L5" t="n">
-        <v>375.5026816376981</v>
       </c>
     </row>
     <row r="6">
@@ -46775,31 +46639,7 @@
         <v>256.466953725876</v>
       </c>
       <c r="D6" t="n">
-        <v>124.4073340698592</v>
-      </c>
-      <c r="E6" t="n">
-        <v>169.7406892600091</v>
-      </c>
-      <c r="F6" t="n">
-        <v>202.4292278024442</v>
-      </c>
-      <c r="G6" t="n">
-        <v>230.3603787111986</v>
-      </c>
-      <c r="H6" t="n">
         <v>256.466953725876</v>
-      </c>
-      <c r="I6" t="n">
-        <v>282.5735287405534</v>
-      </c>
-      <c r="J6" t="n">
-        <v>310.5046796493078</v>
-      </c>
-      <c r="K6" t="n">
-        <v>343.1932181917429</v>
-      </c>
-      <c r="L6" t="n">
-        <v>388.5265733818928</v>
       </c>
     </row>
     <row r="7">
@@ -46815,31 +46655,7 @@
         <v>256.466953725876</v>
       </c>
       <c r="D7" t="n">
-        <v>112.5573231659781</v>
-      </c>
-      <c r="E7" t="n">
-        <v>161.9585437241495</v>
-      </c>
-      <c r="F7" t="n">
-        <v>197.580299393582</v>
-      </c>
-      <c r="G7" t="n">
-        <v>228.0177761852127</v>
-      </c>
-      <c r="H7" t="n">
         <v>256.466953725876</v>
-      </c>
-      <c r="I7" t="n">
-        <v>284.9161312665393</v>
-      </c>
-      <c r="J7" t="n">
-        <v>315.3536080581701</v>
-      </c>
-      <c r="K7" t="n">
-        <v>350.9753637276026</v>
-      </c>
-      <c r="L7" t="n">
-        <v>400.3765842857739</v>
       </c>
     </row>
     <row r="8">
@@ -46855,31 +46671,7 @@
         <v>256.466953725876</v>
       </c>
       <c r="D8" t="n">
-        <v>101.6114714461686</v>
-      </c>
-      <c r="E8" t="n">
-        <v>154.7701780940723</v>
-      </c>
-      <c r="F8" t="n">
-        <v>193.1013455939703</v>
-      </c>
-      <c r="G8" t="n">
-        <v>225.85391489463</v>
-      </c>
-      <c r="H8" t="n">
         <v>256.466953725876</v>
-      </c>
-      <c r="I8" t="n">
-        <v>287.0799925571221</v>
-      </c>
-      <c r="J8" t="n">
-        <v>319.8325618577818</v>
-      </c>
-      <c r="K8" t="n">
-        <v>358.1637293576797</v>
-      </c>
-      <c r="L8" t="n">
-        <v>411.3224360055834</v>
       </c>
     </row>
     <row r="9">
@@ -46895,31 +46687,7 @@
         <v>256.466953725876</v>
       </c>
       <c r="D9" t="n">
-        <v>91.38982321932988</v>
-      </c>
-      <c r="E9" t="n">
-        <v>148.0574117715057</v>
-      </c>
-      <c r="F9" t="n">
-        <v>188.9187299934832</v>
-      </c>
-      <c r="G9" t="n">
-        <v>223.8332197956838</v>
-      </c>
-      <c r="H9" t="n">
         <v>256.466953725876</v>
-      </c>
-      <c r="I9" t="n">
-        <v>289.1006876560683</v>
-      </c>
-      <c r="J9" t="n">
-        <v>324.0151774582688</v>
-      </c>
-      <c r="K9" t="n">
-        <v>364.8764956802463</v>
-      </c>
-      <c r="L9" t="n">
-        <v>421.5440842324222</v>
       </c>
     </row>
     <row r="10">
@@ -46935,31 +46703,7 @@
         <v>256.466953725876</v>
       </c>
       <c r="D10" t="n">
-        <v>81.76521463759519</v>
-      </c>
-      <c r="E10" t="n">
-        <v>141.7367336458668</v>
-      </c>
-      <c r="F10" t="n">
-        <v>184.9804181763297</v>
-      </c>
-      <c r="G10" t="n">
-        <v>221.9305521476892</v>
-      </c>
-      <c r="H10" t="n">
         <v>256.466953725876</v>
-      </c>
-      <c r="I10" t="n">
-        <v>291.0033553040628</v>
-      </c>
-      <c r="J10" t="n">
-        <v>327.9534892754223</v>
-      </c>
-      <c r="K10" t="n">
-        <v>371.1971738058852</v>
-      </c>
-      <c r="L10" t="n">
-        <v>431.1686928141568</v>
       </c>
     </row>
     <row r="11">
@@ -46975,31 +46719,7 @@
         <v>256.466953725876</v>
       </c>
       <c r="D11" t="n">
-        <v>72.64384238058238</v>
-      </c>
-      <c r="E11" t="n">
-        <v>135.7465411501301</v>
-      </c>
-      <c r="F11" t="n">
-        <v>181.2480265841539</v>
-      </c>
-      <c r="G11" t="n">
-        <v>220.127368179079</v>
-      </c>
-      <c r="H11" t="n">
         <v>256.466953725876</v>
-      </c>
-      <c r="I11" t="n">
-        <v>292.8065392726731</v>
-      </c>
-      <c r="J11" t="n">
-        <v>331.6858808675981</v>
-      </c>
-      <c r="K11" t="n">
-        <v>377.1873663016219</v>
-      </c>
-      <c r="L11" t="n">
-        <v>440.2900650711696</v>
       </c>
     </row>
     <row r="12">
@@ -47015,31 +46735,7 @@
         <v>139.0186</v>
       </c>
       <c r="D12" t="n">
-        <v>78.15302990919193</v>
-      </c>
-      <c r="E12" t="n">
-        <v>99.04693006553585</v>
-      </c>
-      <c r="F12" t="n">
-        <v>114.1129020788061</v>
-      </c>
-      <c r="G12" t="n">
-        <v>126.9862196590167</v>
-      </c>
-      <c r="H12" t="n">
         <v>139.0186</v>
-      </c>
-      <c r="I12" t="n">
-        <v>151.0509803409833</v>
-      </c>
-      <c r="J12" t="n">
-        <v>163.9242979211939</v>
-      </c>
-      <c r="K12" t="n">
-        <v>178.9902699344642</v>
-      </c>
-      <c r="L12" t="n">
-        <v>199.8841700908081</v>
       </c>
     </row>
     <row r="13">
@@ -47055,31 +46751,7 @@
         <v>139.0186</v>
       </c>
       <c r="D13" t="n">
-        <v>52.9459890341427</v>
-      </c>
-      <c r="E13" t="n">
-        <v>82.49294862120239</v>
-      </c>
-      <c r="F13" t="n">
-        <v>103.7983852742395</v>
-      </c>
-      <c r="G13" t="n">
-        <v>122.0030953306518</v>
-      </c>
-      <c r="H13" t="n">
         <v>139.0186</v>
-      </c>
-      <c r="I13" t="n">
-        <v>156.0341046693482</v>
-      </c>
-      <c r="J13" t="n">
-        <v>174.2388147257604</v>
-      </c>
-      <c r="K13" t="n">
-        <v>195.5442513787976</v>
-      </c>
-      <c r="L13" t="n">
-        <v>225.0912109658573</v>
       </c>
     </row>
     <row r="14">
@@ -47095,31 +46767,7 @@
         <v>139.0186</v>
       </c>
       <c r="D14" t="n">
-        <v>33.60336820458741</v>
-      </c>
-      <c r="E14" t="n">
-        <v>69.79025226408345</v>
-      </c>
-      <c r="F14" t="n">
-        <v>95.88354161687521</v>
-      </c>
-      <c r="G14" t="n">
-        <v>118.1792952698719</v>
-      </c>
-      <c r="H14" t="n">
         <v>139.0186</v>
-      </c>
-      <c r="I14" t="n">
-        <v>159.8579047301281</v>
-      </c>
-      <c r="J14" t="n">
-        <v>182.1536583831248</v>
-      </c>
-      <c r="K14" t="n">
-        <v>208.2469477359165</v>
-      </c>
-      <c r="L14" t="n">
-        <v>244.4338317954126</v>
       </c>
     </row>
     <row r="15">
@@ -47135,31 +46783,7 @@
         <v>139.0186</v>
       </c>
       <c r="D15" t="n">
-        <v>17.29658953976599</v>
-      </c>
-      <c r="E15" t="n">
-        <v>59.08125580660938</v>
-      </c>
-      <c r="F15" t="n">
-        <v>89.2109399655987</v>
-      </c>
-      <c r="G15" t="n">
-        <v>114.9556441525222</v>
-      </c>
-      <c r="H15" t="n">
         <v>139.0186</v>
-      </c>
-      <c r="I15" t="n">
-        <v>163.0815558474778</v>
-      </c>
-      <c r="J15" t="n">
-        <v>188.8262600344013</v>
-      </c>
-      <c r="K15" t="n">
-        <v>218.9559441933906</v>
-      </c>
-      <c r="L15" t="n">
-        <v>260.740610460234</v>
       </c>
     </row>
     <row r="16">
@@ -47175,31 +46799,7 @@
         <v>139.0186</v>
       </c>
       <c r="D16" t="n">
-        <v>2.929935642963756</v>
-      </c>
-      <c r="E16" t="n">
-        <v>49.6463791305362</v>
-      </c>
-      <c r="F16" t="n">
-        <v>83.33222164326533</v>
-      </c>
-      <c r="G16" t="n">
-        <v>112.1155320225333</v>
-      </c>
-      <c r="H16" t="n">
         <v>139.0186</v>
-      </c>
-      <c r="I16" t="n">
-        <v>165.9216679774667</v>
-      </c>
-      <c r="J16" t="n">
-        <v>194.7049783567347</v>
-      </c>
-      <c r="K16" t="n">
-        <v>228.3908208694638</v>
-      </c>
-      <c r="L16" t="n">
-        <v>275.1072643570362</v>
       </c>
     </row>
     <row r="17">
@@ -47215,31 +46815,7 @@
         <v>139.0186</v>
       </c>
       <c r="D17" t="n">
-        <v>-10.05856559715917</v>
-      </c>
-      <c r="E17" t="n">
-        <v>41.11656360857533</v>
-      </c>
-      <c r="F17" t="n">
-        <v>78.01743221710981</v>
-      </c>
-      <c r="G17" t="n">
-        <v>109.5478638523785</v>
-      </c>
-      <c r="H17" t="n">
         <v>139.0186</v>
-      </c>
-      <c r="I17" t="n">
-        <v>168.4893361476215</v>
-      </c>
-      <c r="J17" t="n">
-        <v>200.0197677828902</v>
-      </c>
-      <c r="K17" t="n">
-        <v>236.9206363914246</v>
-      </c>
-      <c r="L17" t="n">
-        <v>288.0957655971591</v>
       </c>
     </row>
     <row r="18">
@@ -47255,31 +46831,7 @@
         <v>139.0186</v>
       </c>
       <c r="D18" t="n">
-        <v>-22.0027589511763</v>
-      </c>
-      <c r="E18" t="n">
-        <v>33.27256652339408</v>
-      </c>
-      <c r="F18" t="n">
-        <v>73.12996511306953</v>
-      </c>
-      <c r="G18" t="n">
-        <v>107.1866426055002</v>
-      </c>
-      <c r="H18" t="n">
         <v>139.0186</v>
-      </c>
-      <c r="I18" t="n">
-        <v>170.8505573944998</v>
-      </c>
-      <c r="J18" t="n">
-        <v>204.9072348869304</v>
-      </c>
-      <c r="K18" t="n">
-        <v>244.7646334766059</v>
-      </c>
-      <c r="L18" t="n">
-        <v>300.0399589511763</v>
       </c>
     </row>
     <row r="19">
@@ -47295,31 +46847,7 @@
         <v>139.0186</v>
       </c>
       <c r="D19" t="n">
-        <v>-33.12016604206363</v>
-      </c>
-      <c r="E19" t="n">
-        <v>25.9715369577295</v>
-      </c>
-      <c r="F19" t="n">
-        <v>68.58081224619455</v>
-      </c>
-      <c r="G19" t="n">
-        <v>104.9888669118933</v>
-      </c>
-      <c r="H19" t="n">
         <v>139.0186</v>
-      </c>
-      <c r="I19" t="n">
-        <v>173.0483330881067</v>
-      </c>
-      <c r="J19" t="n">
-        <v>209.4563877538054</v>
-      </c>
-      <c r="K19" t="n">
-        <v>252.0656630422705</v>
-      </c>
-      <c r="L19" t="n">
-        <v>311.1573660420636</v>
       </c>
     </row>
     <row r="20">
@@ -47335,31 +46863,7 @@
         <v>139.0186</v>
       </c>
       <c r="D20" t="n">
-        <v>-43.56187954391251</v>
-      </c>
-      <c r="E20" t="n">
-        <v>19.11424924936755</v>
-      </c>
-      <c r="F20" t="n">
-        <v>64.30814771896335</v>
-      </c>
-      <c r="G20" t="n">
-        <v>102.9246675939804</v>
-      </c>
-      <c r="H20" t="n">
         <v>139.0186</v>
-      </c>
-      <c r="I20" t="n">
-        <v>175.1125324060196</v>
-      </c>
-      <c r="J20" t="n">
-        <v>213.7290522810366</v>
-      </c>
-      <c r="K20" t="n">
-        <v>258.9229507506324</v>
-      </c>
-      <c r="L20" t="n">
-        <v>321.5990795439125</v>
       </c>
     </row>
     <row r="21">
@@ -47375,31 +46879,7 @@
         <v>139.0186</v>
       </c>
       <c r="D21" t="n">
-        <v>-53.4379100132646</v>
-      </c>
-      <c r="E21" t="n">
-        <v>12.62845720643276</v>
-      </c>
-      <c r="F21" t="n">
-        <v>60.26695610335511</v>
-      </c>
-      <c r="G21" t="n">
-        <v>100.972296907415</v>
-      </c>
-      <c r="H21" t="n">
         <v>139.0186</v>
-      </c>
-      <c r="I21" t="n">
-        <v>177.064903092585</v>
-      </c>
-      <c r="J21" t="n">
-        <v>217.7702438966449</v>
-      </c>
-      <c r="K21" t="n">
-        <v>265.4087427935672</v>
-      </c>
-      <c r="L21" t="n">
-        <v>331.4751100132646</v>
       </c>
     </row>
     <row r="22">
@@ -47415,31 +46895,7 @@
         <v>329.0037</v>
       </c>
       <c r="D22" t="n">
-        <v>285.9390239695864</v>
-      </c>
-      <c r="E22" t="n">
-        <v>300.7222427893941</v>
-      </c>
-      <c r="F22" t="n">
-        <v>311.381983639053</v>
-      </c>
-      <c r="G22" t="n">
-        <v>320.4903391543514</v>
-      </c>
-      <c r="H22" t="n">
         <v>329.0037</v>
-      </c>
-      <c r="I22" t="n">
-        <v>337.5170608456485</v>
-      </c>
-      <c r="J22" t="n">
-        <v>346.625416360947</v>
-      </c>
-      <c r="K22" t="n">
-        <v>357.2851572106059</v>
-      </c>
-      <c r="L22" t="n">
-        <v>372.0683760304136</v>
       </c>
     </row>
     <row r="23">
@@ -47455,31 +46911,7 @@
         <v>329.0037</v>
       </c>
       <c r="D23" t="n">
-        <v>268.1040961548985</v>
-      </c>
-      <c r="E23" t="n">
-        <v>289.0096794001068</v>
-      </c>
-      <c r="F23" t="n">
-        <v>304.0840757424177</v>
-      </c>
-      <c r="G23" t="n">
-        <v>316.9645916011758</v>
-      </c>
-      <c r="H23" t="n">
         <v>329.0037</v>
-      </c>
-      <c r="I23" t="n">
-        <v>341.0428083988241</v>
-      </c>
-      <c r="J23" t="n">
-        <v>353.9233242575823</v>
-      </c>
-      <c r="K23" t="n">
-        <v>368.9977205998932</v>
-      </c>
-      <c r="L23" t="n">
-        <v>389.9033038451015</v>
       </c>
     </row>
     <row r="24">
@@ -47495,31 +46927,7 @@
         <v>329.0037</v>
       </c>
       <c r="D24" t="n">
-        <v>254.4184657014062</v>
-      </c>
-      <c r="E24" t="n">
-        <v>280.0220448061008</v>
-      </c>
-      <c r="F24" t="n">
-        <v>298.4840266928936</v>
-      </c>
-      <c r="G24" t="n">
-        <v>314.2591094940193</v>
-      </c>
-      <c r="H24" t="n">
         <v>329.0037</v>
-      </c>
-      <c r="I24" t="n">
-        <v>343.7482905059807</v>
-      </c>
-      <c r="J24" t="n">
-        <v>359.5233733071063</v>
-      </c>
-      <c r="K24" t="n">
-        <v>377.9853551938992</v>
-      </c>
-      <c r="L24" t="n">
-        <v>403.5889342985937</v>
       </c>
     </row>
     <row r="25">
@@ -47535,31 +46943,7 @@
         <v>329.0037</v>
       </c>
       <c r="D25" t="n">
-        <v>242.880807559825</v>
-      </c>
-      <c r="E25" t="n">
-        <v>272.4450277443381</v>
-      </c>
-      <c r="F25" t="n">
-        <v>293.7629105025169</v>
-      </c>
-      <c r="G25" t="n">
-        <v>311.978255296866</v>
-      </c>
-      <c r="H25" t="n">
         <v>329.0037</v>
-      </c>
-      <c r="I25" t="n">
-        <v>346.029144703134</v>
-      </c>
-      <c r="J25" t="n">
-        <v>364.2444894974831</v>
-      </c>
-      <c r="K25" t="n">
-        <v>385.5623722556619</v>
-      </c>
-      <c r="L25" t="n">
-        <v>415.1265924401749</v>
       </c>
     </row>
     <row r="26">
@@ -47575,31 +46959,7 @@
         <v>329.0037</v>
       </c>
       <c r="D26" t="n">
-        <v>232.7158605333894</v>
-      </c>
-      <c r="E26" t="n">
-        <v>265.7694982646042</v>
-      </c>
-      <c r="F26" t="n">
-        <v>289.6034965736301</v>
-      </c>
-      <c r="G26" t="n">
-        <v>309.9687693331998</v>
-      </c>
-      <c r="H26" t="n">
         <v>329.0037</v>
-      </c>
-      <c r="I26" t="n">
-        <v>348.0386306668002</v>
-      </c>
-      <c r="J26" t="n">
-        <v>368.4039034263699</v>
-      </c>
-      <c r="K26" t="n">
-        <v>392.2379017353958</v>
-      </c>
-      <c r="L26" t="n">
-        <v>425.2915394666106</v>
       </c>
     </row>
     <row r="27">
@@ -47615,31 +46975,7 @@
         <v>329.0037</v>
       </c>
       <c r="D27" t="n">
-        <v>223.526008254145</v>
-      </c>
-      <c r="E27" t="n">
-        <v>259.7343335318268</v>
-      </c>
-      <c r="F27" t="n">
-        <v>285.8430835114378</v>
-      </c>
-      <c r="G27" t="n">
-        <v>308.1520476999949</v>
-      </c>
-      <c r="H27" t="n">
         <v>329.0037</v>
-      </c>
-      <c r="I27" t="n">
-        <v>349.8553523000051</v>
-      </c>
-      <c r="J27" t="n">
-        <v>372.1643164885622</v>
-      </c>
-      <c r="K27" t="n">
-        <v>398.2730664681732</v>
-      </c>
-      <c r="L27" t="n">
-        <v>434.4813917458549</v>
       </c>
     </row>
     <row r="28">
@@ -47655,31 +46991,7 @@
         <v>329.0037</v>
       </c>
       <c r="D28" t="n">
-        <v>215.0750430127458</v>
-      </c>
-      <c r="E28" t="n">
-        <v>254.1844110920491</v>
-      </c>
-      <c r="F28" t="n">
-        <v>282.3850170359118</v>
-      </c>
-      <c r="G28" t="n">
-        <v>306.4813950160352</v>
-      </c>
-      <c r="H28" t="n">
         <v>329.0037</v>
-      </c>
-      <c r="I28" t="n">
-        <v>351.5260049839648</v>
-      </c>
-      <c r="J28" t="n">
-        <v>375.6223829640882</v>
-      </c>
-      <c r="K28" t="n">
-        <v>403.8229889079509</v>
-      </c>
-      <c r="L28" t="n">
-        <v>442.9323569872541</v>
       </c>
     </row>
     <row r="29">
@@ -47695,31 +47007,7 @@
         <v>329.0037</v>
       </c>
       <c r="D29" t="n">
-        <v>207.2090600941107</v>
-      </c>
-      <c r="E29" t="n">
-        <v>249.0186585579855</v>
-      </c>
-      <c r="F29" t="n">
-        <v>279.1663205851513</v>
-      </c>
-      <c r="G29" t="n">
-        <v>304.9263861975605</v>
-      </c>
-      <c r="H29" t="n">
         <v>329.0037</v>
-      </c>
-      <c r="I29" t="n">
-        <v>353.0810138024394</v>
-      </c>
-      <c r="J29" t="n">
-        <v>378.8410794148487</v>
-      </c>
-      <c r="K29" t="n">
-        <v>408.9887414420145</v>
-      </c>
-      <c r="L29" t="n">
-        <v>450.7983399058893</v>
       </c>
     </row>
     <row r="30">
@@ -47735,31 +47023,7 @@
         <v>329.0037</v>
       </c>
       <c r="D30" t="n">
-        <v>199.8211557585621</v>
-      </c>
-      <c r="E30" t="n">
-        <v>244.166870048203</v>
-      </c>
-      <c r="F30" t="n">
-        <v>276.1432500154132</v>
-      </c>
-      <c r="G30" t="n">
-        <v>303.4658876799997</v>
-      </c>
-      <c r="H30" t="n">
         <v>329.0037</v>
-      </c>
-      <c r="I30" t="n">
-        <v>354.5415123200003</v>
-      </c>
-      <c r="J30" t="n">
-        <v>381.8641499845867</v>
-      </c>
-      <c r="K30" t="n">
-        <v>413.840529951797</v>
-      </c>
-      <c r="L30" t="n">
-        <v>458.1862442414379</v>
       </c>
     </row>
     <row r="31">
@@ -47775,31 +47039,7 @@
         <v>329.0037</v>
       </c>
       <c r="D31" t="n">
-        <v>192.8334934070125</v>
-      </c>
-      <c r="E31" t="n">
-        <v>239.5779286694743</v>
-      </c>
-      <c r="F31" t="n">
-        <v>273.2839552212735</v>
-      </c>
-      <c r="G31" t="n">
-        <v>302.0845121177109</v>
-      </c>
-      <c r="H31" t="n">
         <v>329.0037</v>
-      </c>
-      <c r="I31" t="n">
-        <v>355.922887882289</v>
-      </c>
-      <c r="J31" t="n">
-        <v>384.7234447787264</v>
-      </c>
-      <c r="K31" t="n">
-        <v>418.4294713305257</v>
-      </c>
-      <c r="L31" t="n">
-        <v>465.1739065929875</v>
       </c>
     </row>
     <row r="32">
@@ -47815,31 +47055,7 @@
         <v>467.9825</v>
       </c>
       <c r="D32" t="n">
-        <v>429.0192577776508</v>
-      </c>
-      <c r="E32" t="n">
-        <v>442.3945386063135</v>
-      </c>
-      <c r="F32" t="n">
-        <v>452.039057108192</v>
-      </c>
-      <c r="G32" t="n">
-        <v>460.2799425600925</v>
-      </c>
-      <c r="H32" t="n">
         <v>467.9825</v>
-      </c>
-      <c r="I32" t="n">
-        <v>475.6850574399075</v>
-      </c>
-      <c r="J32" t="n">
-        <v>483.9259428918081</v>
-      </c>
-      <c r="K32" t="n">
-        <v>493.5704613936866</v>
-      </c>
-      <c r="L32" t="n">
-        <v>506.9457422223492</v>
       </c>
     </row>
     <row r="33">
@@ -47855,31 +47071,7 @@
         <v>467.9825</v>
       </c>
       <c r="D33" t="n">
-        <v>412.8829094635236</v>
-      </c>
-      <c r="E33" t="n">
-        <v>431.7974672604353</v>
-      </c>
-      <c r="F33" t="n">
-        <v>445.4361941749569</v>
-      </c>
-      <c r="G33" t="n">
-        <v>457.0899834429679</v>
-      </c>
-      <c r="H33" t="n">
         <v>467.9825</v>
-      </c>
-      <c r="I33" t="n">
-        <v>478.8750165570322</v>
-      </c>
-      <c r="J33" t="n">
-        <v>490.5288058250431</v>
-      </c>
-      <c r="K33" t="n">
-        <v>504.1675327395647</v>
-      </c>
-      <c r="L33" t="n">
-        <v>523.0820905364764</v>
       </c>
     </row>
     <row r="34">
@@ -47895,31 +47087,7 @@
         <v>467.9825</v>
       </c>
       <c r="D34" t="n">
-        <v>400.5006838559656</v>
-      </c>
-      <c r="E34" t="n">
-        <v>423.6658053980564</v>
-      </c>
-      <c r="F34" t="n">
-        <v>440.3694878233395</v>
-      </c>
-      <c r="G34" t="n">
-        <v>454.6421685657603</v>
-      </c>
-      <c r="H34" t="n">
         <v>467.9825</v>
-      </c>
-      <c r="I34" t="n">
-        <v>481.3228314342397</v>
-      </c>
-      <c r="J34" t="n">
-        <v>495.5955121766605</v>
-      </c>
-      <c r="K34" t="n">
-        <v>512.2991946019437</v>
-      </c>
-      <c r="L34" t="n">
-        <v>535.4643161440345</v>
       </c>
     </row>
     <row r="35">
@@ -47935,31 +47103,7 @@
         <v>467.9825</v>
       </c>
       <c r="D35" t="n">
-        <v>390.0618599685734</v>
-      </c>
-      <c r="E35" t="n">
-        <v>416.8104153588549</v>
-      </c>
-      <c r="F35" t="n">
-        <v>436.0980057029216</v>
-      </c>
-      <c r="G35" t="n">
-        <v>452.5785404893576</v>
-      </c>
-      <c r="H35" t="n">
         <v>467.9825</v>
-      </c>
-      <c r="I35" t="n">
-        <v>483.3864595106424</v>
-      </c>
-      <c r="J35" t="n">
-        <v>499.8669942970785</v>
-      </c>
-      <c r="K35" t="n">
-        <v>519.1545846411451</v>
-      </c>
-      <c r="L35" t="n">
-        <v>545.9031400314266</v>
       </c>
     </row>
     <row r="36">
@@ -47975,31 +47119,7 @@
         <v>467.9825</v>
       </c>
       <c r="D36" t="n">
-        <v>380.8650116539907</v>
-      </c>
-      <c r="E36" t="n">
-        <v>410.7706561859864</v>
-      </c>
-      <c r="F36" t="n">
-        <v>432.3347299197768</v>
-      </c>
-      <c r="G36" t="n">
-        <v>450.7604358253532</v>
-      </c>
-      <c r="H36" t="n">
         <v>467.9825</v>
-      </c>
-      <c r="I36" t="n">
-        <v>485.2045641746469</v>
-      </c>
-      <c r="J36" t="n">
-        <v>503.6302700802232</v>
-      </c>
-      <c r="K36" t="n">
-        <v>525.1943438140137</v>
-      </c>
-      <c r="L36" t="n">
-        <v>555.0999883460092</v>
       </c>
     </row>
     <row r="37">
@@ -48015,31 +47135,7 @@
         <v>467.9825</v>
       </c>
       <c r="D37" t="n">
-        <v>372.5503911030099</v>
-      </c>
-      <c r="E37" t="n">
-        <v>405.3102741046509</v>
-      </c>
-      <c r="F37" t="n">
-        <v>428.9324545863967</v>
-      </c>
-      <c r="G37" t="n">
-        <v>449.1167368225985</v>
-      </c>
-      <c r="H37" t="n">
         <v>467.9825</v>
-      </c>
-      <c r="I37" t="n">
-        <v>486.8482631774016</v>
-      </c>
-      <c r="J37" t="n">
-        <v>507.0325454136034</v>
-      </c>
-      <c r="K37" t="n">
-        <v>530.6547258953491</v>
-      </c>
-      <c r="L37" t="n">
-        <v>563.4146088969901</v>
       </c>
     </row>
     <row r="38">
@@ -48055,31 +47151,7 @@
         <v>467.9825</v>
       </c>
       <c r="D38" t="n">
-        <v>364.9042867765605</v>
-      </c>
-      <c r="E38" t="n">
-        <v>400.2889203579377</v>
-      </c>
-      <c r="F38" t="n">
-        <v>425.8037306732817</v>
-      </c>
-      <c r="G38" t="n">
-        <v>447.6051953181746</v>
-      </c>
-      <c r="H38" t="n">
         <v>467.9825</v>
-      </c>
-      <c r="I38" t="n">
-        <v>488.3598046818254</v>
-      </c>
-      <c r="J38" t="n">
-        <v>510.1612693267184</v>
-      </c>
-      <c r="K38" t="n">
-        <v>535.6760796420624</v>
-      </c>
-      <c r="L38" t="n">
-        <v>571.0607132234396</v>
       </c>
     </row>
     <row r="39">
@@ -48095,31 +47167,7 @@
         <v>467.9825</v>
       </c>
       <c r="D39" t="n">
-        <v>357.7874516804554</v>
-      </c>
-      <c r="E39" t="n">
-        <v>395.6151485849122</v>
-      </c>
-      <c r="F39" t="n">
-        <v>422.8915794391095</v>
-      </c>
-      <c r="G39" t="n">
-        <v>446.1982838808441</v>
-      </c>
-      <c r="H39" t="n">
         <v>467.9825</v>
-      </c>
-      <c r="I39" t="n">
-        <v>489.7667161191559</v>
-      </c>
-      <c r="J39" t="n">
-        <v>513.0734205608906</v>
-      </c>
-      <c r="K39" t="n">
-        <v>540.3498514150879</v>
-      </c>
-      <c r="L39" t="n">
-        <v>578.1775483195446</v>
       </c>
     </row>
     <row r="40">
@@ -48135,31 +47183,7 @@
         <v>467.9825</v>
       </c>
       <c r="D40" t="n">
-        <v>351.1031634731499</v>
-      </c>
-      <c r="E40" t="n">
-        <v>391.2254392374006</v>
-      </c>
-      <c r="F40" t="n">
-        <v>420.1564228857251</v>
-      </c>
-      <c r="G40" t="n">
-        <v>444.8768816841826</v>
-      </c>
-      <c r="H40" t="n">
         <v>467.9825</v>
-      </c>
-      <c r="I40" t="n">
-        <v>491.0881183158174</v>
-      </c>
-      <c r="J40" t="n">
-        <v>515.808577114275</v>
-      </c>
-      <c r="K40" t="n">
-        <v>544.7395607625995</v>
-      </c>
-      <c r="L40" t="n">
-        <v>584.8618365268501</v>
       </c>
     </row>
     <row r="41">
@@ -48175,31 +47199,7 @@
         <v>467.9825</v>
       </c>
       <c r="D41" t="n">
-        <v>344.7809986302254</v>
-      </c>
-      <c r="E41" t="n">
-        <v>387.0735437405601</v>
-      </c>
-      <c r="F41" t="n">
-        <v>417.5694442777707</v>
-      </c>
-      <c r="G41" t="n">
-        <v>443.6270668569335</v>
-      </c>
-      <c r="H41" t="n">
         <v>467.9825</v>
-      </c>
-      <c r="I41" t="n">
-        <v>492.3379331430665</v>
-      </c>
-      <c r="J41" t="n">
-        <v>518.3955557222293</v>
-      </c>
-      <c r="K41" t="n">
-        <v>548.8914562594399</v>
-      </c>
-      <c r="L41" t="n">
-        <v>591.1840013697746</v>
       </c>
     </row>
     <row r="42">
@@ -48215,31 +47215,7 @@
         <v>33.0444</v>
       </c>
       <c r="D42" t="n">
-        <v>-66.46106465691005</v>
-      </c>
-      <c r="E42" t="n">
-        <v>-32.30288228138562</v>
-      </c>
-      <c r="F42" t="n">
-        <v>-7.672429573034819</v>
-      </c>
-      <c r="G42" t="n">
-        <v>13.3733841042822</v>
-      </c>
-      <c r="H42" t="n">
         <v>33.0444</v>
-      </c>
-      <c r="I42" t="n">
-        <v>52.7154158957178</v>
-      </c>
-      <c r="J42" t="n">
-        <v>73.76122957303481</v>
-      </c>
-      <c r="K42" t="n">
-        <v>98.39168228138561</v>
-      </c>
-      <c r="L42" t="n">
-        <v>132.54986465691</v>
       </c>
     </row>
     <row r="43">
@@ -48255,31 +47231,7 @@
         <v>33.0444</v>
       </c>
       <c r="D43" t="n">
-        <v>-107.6705417250677</v>
-      </c>
-      <c r="E43" t="n">
-        <v>-59.3659922314398</v>
-      </c>
-      <c r="F43" t="n">
-        <v>-24.53501355637127</v>
-      </c>
-      <c r="G43" t="n">
-        <v>5.226773450716905</v>
-      </c>
-      <c r="H43" t="n">
         <v>33.0444</v>
-      </c>
-      <c r="I43" t="n">
-        <v>60.86202654928309</v>
-      </c>
-      <c r="J43" t="n">
-        <v>90.62381355637126</v>
-      </c>
-      <c r="K43" t="n">
-        <v>125.4547922314398</v>
-      </c>
-      <c r="L43" t="n">
-        <v>173.7593417250677</v>
       </c>
     </row>
     <row r="44">
@@ -48295,31 +47247,7 @@
         <v>33.0444</v>
       </c>
       <c r="D44" t="n">
-        <v>-139.2926307066674</v>
-      </c>
-      <c r="E44" t="n">
-        <v>-80.13286751947143</v>
-      </c>
-      <c r="F44" t="n">
-        <v>-37.47451604748119</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-1.02452759247312</v>
-      </c>
-      <c r="H44" t="n">
         <v>33.0444</v>
-      </c>
-      <c r="I44" t="n">
-        <v>67.11332759247311</v>
-      </c>
-      <c r="J44" t="n">
-        <v>103.5633160474812</v>
-      </c>
-      <c r="K44" t="n">
-        <v>146.2216675194714</v>
-      </c>
-      <c r="L44" t="n">
-        <v>205.3814307066674</v>
       </c>
     </row>
     <row r="45">
@@ -48335,31 +47263,7 @@
         <v>33.0444</v>
       </c>
       <c r="D45" t="n">
-        <v>-165.9516036807083</v>
-      </c>
-      <c r="E45" t="n">
-        <v>-97.64036259296438</v>
-      </c>
-      <c r="F45" t="n">
-        <v>-48.38315169798346</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-6.294681175937171</v>
-      </c>
-      <c r="H45" t="n">
         <v>33.0444</v>
-      </c>
-      <c r="I45" t="n">
-        <v>72.38348117593716</v>
-      </c>
-      <c r="J45" t="n">
-        <v>114.4719516979835</v>
-      </c>
-      <c r="K45" t="n">
-        <v>163.7291625929644</v>
-      </c>
-      <c r="L45" t="n">
-        <v>232.0404036807083</v>
       </c>
     </row>
     <row r="46">
@@ -48375,31 +47279,7 @@
         <v>33.0444</v>
       </c>
       <c r="D46" t="n">
-        <v>-189.4387832049202</v>
-      </c>
-      <c r="E46" t="n">
-        <v>-113.0648757657258</v>
-      </c>
-      <c r="F46" t="n">
-        <v>-57.9939151785216</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-10.93780990619697</v>
-      </c>
-      <c r="H46" t="n">
         <v>33.0444</v>
-      </c>
-      <c r="I46" t="n">
-        <v>77.02660990619697</v>
-      </c>
-      <c r="J46" t="n">
-        <v>124.0827151785216</v>
-      </c>
-      <c r="K46" t="n">
-        <v>179.1536757657258</v>
-      </c>
-      <c r="L46" t="n">
-        <v>255.5275832049202</v>
       </c>
     </row>
     <row r="47">
@@ -48415,31 +47295,7 @@
         <v>33.0444</v>
       </c>
       <c r="D47" t="n">
-        <v>-210.6729037293326</v>
-      </c>
-      <c r="E47" t="n">
-        <v>-127.0097588200393</v>
-      </c>
-      <c r="F47" t="n">
-        <v>-66.68274517903292</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-15.13553637084392</v>
-      </c>
-      <c r="H47" t="n">
         <v>33.0444</v>
-      </c>
-      <c r="I47" t="n">
-        <v>81.2243363708439</v>
-      </c>
-      <c r="J47" t="n">
-        <v>132.7715451790329</v>
-      </c>
-      <c r="K47" t="n">
-        <v>193.0985588200393</v>
-      </c>
-      <c r="L47" t="n">
-        <v>276.7617037293326</v>
       </c>
     </row>
     <row r="48">
@@ -48455,31 +47311,7 @@
         <v>33.0444</v>
       </c>
       <c r="D48" t="n">
-        <v>-230.1997480170023</v>
-      </c>
-      <c r="E48" t="n">
-        <v>-139.8334385056796</v>
-      </c>
-      <c r="F48" t="n">
-        <v>-74.67297158219179</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-18.99575516084061</v>
-      </c>
-      <c r="H48" t="n">
         <v>33.0444</v>
-      </c>
-      <c r="I48" t="n">
-        <v>85.08455516084061</v>
-      </c>
-      <c r="J48" t="n">
-        <v>140.7617715821918</v>
-      </c>
-      <c r="K48" t="n">
-        <v>205.9222385056796</v>
-      </c>
-      <c r="L48" t="n">
-        <v>296.2885480170023</v>
       </c>
     </row>
     <row r="49">
@@ -48495,31 +47327,7 @@
         <v>33.0444</v>
       </c>
       <c r="D49" t="n">
-        <v>-248.3749291039175</v>
-      </c>
-      <c r="E49" t="n">
-        <v>-151.7694532069533</v>
-      </c>
-      <c r="F49" t="n">
-        <v>-82.11010835982083</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-22.58876663313497</v>
-      </c>
-      <c r="H49" t="n">
         <v>33.0444</v>
-      </c>
-      <c r="I49" t="n">
-        <v>88.67756663313497</v>
-      </c>
-      <c r="J49" t="n">
-        <v>148.1989083598208</v>
-      </c>
-      <c r="K49" t="n">
-        <v>217.8582532069533</v>
-      </c>
-      <c r="L49" t="n">
-        <v>314.4637291039174</v>
       </c>
     </row>
     <row r="50">
@@ -48535,31 +47343,7 @@
         <v>33.0444</v>
       </c>
       <c r="D50" t="n">
-        <v>-265.4454593275836</v>
-      </c>
-      <c r="E50" t="n">
-        <v>-162.9800209990345</v>
-      </c>
-      <c r="F50" t="n">
-        <v>-89.09523095821156</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-25.96340211205938</v>
-      </c>
-      <c r="H50" t="n">
         <v>33.0444</v>
-      </c>
-      <c r="I50" t="n">
-        <v>92.05220211205938</v>
-      </c>
-      <c r="J50" t="n">
-        <v>155.1840309582116</v>
-      </c>
-      <c r="K50" t="n">
-        <v>229.0688209990345</v>
-      </c>
-      <c r="L50" t="n">
-        <v>331.5342593275836</v>
       </c>
     </row>
     <row r="51">
@@ -48575,31 +47359,7 @@
         <v>33.0444</v>
       </c>
       <c r="D51" t="n">
-        <v>-281.591188339117</v>
-      </c>
-      <c r="E51" t="n">
-        <v>-173.5832528415599</v>
-      </c>
-      <c r="F51" t="n">
-        <v>-95.70193239678784</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-29.15521567856956</v>
-      </c>
-      <c r="H51" t="n">
         <v>33.0444</v>
-      </c>
-      <c r="I51" t="n">
-        <v>95.24401567856955</v>
-      </c>
-      <c r="J51" t="n">
-        <v>161.7907323967878</v>
-      </c>
-      <c r="K51" t="n">
-        <v>239.6720528415599</v>
-      </c>
-      <c r="L51" t="n">
-        <v>347.679988339117</v>
       </c>
     </row>
     <row r="52">
@@ -48615,31 +47375,7 @@
         <v>71.02840000000003</v>
       </c>
       <c r="D52" t="n">
-        <v>-6.803102260139951</v>
-      </c>
-      <c r="E52" t="n">
-        <v>19.9148539639686</v>
-      </c>
-      <c r="F52" t="n">
-        <v>39.18038015640522</v>
-      </c>
-      <c r="G52" t="n">
-        <v>55.64206193881206</v>
-      </c>
-      <c r="H52" t="n">
         <v>71.02840000000003</v>
-      </c>
-      <c r="I52" t="n">
-        <v>86.414738061188</v>
-      </c>
-      <c r="J52" t="n">
-        <v>102.8764198435948</v>
-      </c>
-      <c r="K52" t="n">
-        <v>122.1419460360315</v>
-      </c>
-      <c r="L52" t="n">
-        <v>148.85990226014</v>
       </c>
     </row>
     <row r="53">
@@ -48655,31 +47391,7 @@
         <v>71.02840000000003</v>
       </c>
       <c r="D53" t="n">
-        <v>-39.03646269545317</v>
-      </c>
-      <c r="E53" t="n">
-        <v>-1.253455841997265</v>
-      </c>
-      <c r="F53" t="n">
-        <v>25.99075034123797</v>
-      </c>
-      <c r="G53" t="n">
-        <v>49.2699199898079</v>
-      </c>
-      <c r="H53" t="n">
         <v>71.02840000000003</v>
-      </c>
-      <c r="I53" t="n">
-        <v>92.78688001019216</v>
-      </c>
-      <c r="J53" t="n">
-        <v>116.0660496587621</v>
-      </c>
-      <c r="K53" t="n">
-        <v>143.3102558419973</v>
-      </c>
-      <c r="L53" t="n">
-        <v>181.0932626954532</v>
       </c>
     </row>
     <row r="54">
@@ -48695,31 +47407,7 @@
         <v>71.02840000000003</v>
       </c>
       <c r="D54" t="n">
-        <v>-63.77072928601484</v>
-      </c>
-      <c r="E54" t="n">
-        <v>-17.49695670387919</v>
-      </c>
-      <c r="F54" t="n">
-        <v>15.86968894170235</v>
-      </c>
-      <c r="G54" t="n">
-        <v>44.38025736726296</v>
-      </c>
-      <c r="H54" t="n">
         <v>71.02840000000003</v>
-      </c>
-      <c r="I54" t="n">
-        <v>97.67654263273711</v>
-      </c>
-      <c r="J54" t="n">
-        <v>126.1871110582977</v>
-      </c>
-      <c r="K54" t="n">
-        <v>159.5537567038793</v>
-      </c>
-      <c r="L54" t="n">
-        <v>205.8275292860149</v>
       </c>
     </row>
     <row r="55">
@@ -48735,31 +47423,7 @@
         <v>71.02840000000003</v>
       </c>
       <c r="D55" t="n">
-        <v>-84.62292994088591</v>
-      </c>
-      <c r="E55" t="n">
-        <v>-31.19102513600251</v>
-      </c>
-      <c r="F55" t="n">
-        <v>7.337137456067431</v>
-      </c>
-      <c r="G55" t="n">
-        <v>40.25803179948173</v>
-      </c>
-      <c r="H55" t="n">
         <v>71.02840000000003</v>
-      </c>
-      <c r="I55" t="n">
-        <v>101.7987682005183</v>
-      </c>
-      <c r="J55" t="n">
-        <v>134.7196625439326</v>
-      </c>
-      <c r="K55" t="n">
-        <v>173.2478251360026</v>
-      </c>
-      <c r="L55" t="n">
-        <v>226.679729940886</v>
       </c>
     </row>
     <row r="56">
@@ -48775,31 +47439,7 @@
         <v>71.02840000000003</v>
       </c>
       <c r="D56" t="n">
-        <v>-102.9942070614543</v>
-      </c>
-      <c r="E56" t="n">
-        <v>-43.25582012999254</v>
-      </c>
-      <c r="F56" t="n">
-        <v>-0.1802402290306873</v>
-      </c>
-      <c r="G56" t="n">
-        <v>36.62625453469167</v>
-      </c>
-      <c r="H56" t="n">
         <v>71.02840000000003</v>
-      </c>
-      <c r="I56" t="n">
-        <v>105.4305454653084</v>
-      </c>
-      <c r="J56" t="n">
-        <v>142.2370402290308</v>
-      </c>
-      <c r="K56" t="n">
-        <v>185.3126201299926</v>
-      </c>
-      <c r="L56" t="n">
-        <v>245.0510070614543</v>
       </c>
     </row>
     <row r="57">
@@ -48815,31 +47455,7 @@
         <v>71.02840000000003</v>
       </c>
       <c r="D57" t="n">
-        <v>-119.6031792951527</v>
-      </c>
-      <c r="E57" t="n">
-        <v>-54.1632733105935</v>
-      </c>
-      <c r="F57" t="n">
-        <v>-6.97649703919177</v>
-      </c>
-      <c r="G57" t="n">
-        <v>33.3428634370558</v>
-      </c>
-      <c r="H57" t="n">
         <v>71.02840000000003</v>
-      </c>
-      <c r="I57" t="n">
-        <v>108.7139365629443</v>
-      </c>
-      <c r="J57" t="n">
-        <v>149.0332970391918</v>
-      </c>
-      <c r="K57" t="n">
-        <v>196.2200733105936</v>
-      </c>
-      <c r="L57" t="n">
-        <v>261.6599792951528</v>
       </c>
     </row>
     <row r="58">
@@ -48855,31 +47471,7 @@
         <v>71.02840000000003</v>
       </c>
       <c r="D58" t="n">
-        <v>-134.8767487473368</v>
-      </c>
-      <c r="E58" t="n">
-        <v>-64.193740058099</v>
-      </c>
-      <c r="F58" t="n">
-        <v>-13.22631785557347</v>
-      </c>
-      <c r="G58" t="n">
-        <v>30.3234651706974</v>
-      </c>
-      <c r="H58" t="n">
         <v>71.02840000000003</v>
-      </c>
-      <c r="I58" t="n">
-        <v>111.7333348293027</v>
-      </c>
-      <c r="J58" t="n">
-        <v>155.2831178555736</v>
-      </c>
-      <c r="K58" t="n">
-        <v>206.2505400580991</v>
-      </c>
-      <c r="L58" t="n">
-        <v>276.9335487473369</v>
       </c>
     </row>
     <row r="59">
@@ -48895,31 +47487,7 @@
         <v>71.02840000000003</v>
       </c>
       <c r="D59" t="n">
-        <v>-149.0930699586609</v>
-      </c>
-      <c r="E59" t="n">
-        <v>-73.5298901720891</v>
-      </c>
-      <c r="F59" t="n">
-        <v>-19.04352126156559</v>
-      </c>
-      <c r="G59" t="n">
-        <v>27.51307197781291</v>
-      </c>
-      <c r="H59" t="n">
         <v>71.02840000000003</v>
-      </c>
-      <c r="I59" t="n">
-        <v>114.5437280221872</v>
-      </c>
-      <c r="J59" t="n">
-        <v>161.1003212615657</v>
-      </c>
-      <c r="K59" t="n">
-        <v>215.5866901720892</v>
-      </c>
-      <c r="L59" t="n">
-        <v>291.149869958661</v>
       </c>
     </row>
     <row r="60">
@@ -48935,31 +47503,7 @@
         <v>71.02840000000003</v>
       </c>
       <c r="D60" t="n">
-        <v>-162.4453518284667</v>
-      </c>
-      <c r="E60" t="n">
-        <v>-82.29860790488181</v>
-      </c>
-      <c r="F60" t="n">
-        <v>-24.50716677267923</v>
-      </c>
-      <c r="G60" t="n">
-        <v>24.87348881712251</v>
-      </c>
-      <c r="H60" t="n">
         <v>71.02840000000003</v>
-      </c>
-      <c r="I60" t="n">
-        <v>117.1833111828776</v>
-      </c>
-      <c r="J60" t="n">
-        <v>166.5639667726793</v>
-      </c>
-      <c r="K60" t="n">
-        <v>224.3554079048819</v>
-      </c>
-      <c r="L60" t="n">
-        <v>304.5021518284668</v>
       </c>
     </row>
     <row r="61">
@@ -48975,31 +47519,7 @@
         <v>71.02840000000003</v>
       </c>
       <c r="D61" t="n">
-        <v>-175.0742697314746</v>
-      </c>
-      <c r="E61" t="n">
-        <v>-90.59227766424402</v>
-      </c>
-      <c r="F61" t="n">
-        <v>-29.67481761197322</v>
-      </c>
-      <c r="G61" t="n">
-        <v>22.37690588399079</v>
-      </c>
-      <c r="H61" t="n">
         <v>71.02840000000003</v>
-      </c>
-      <c r="I61" t="n">
-        <v>119.6798941160093</v>
-      </c>
-      <c r="J61" t="n">
-        <v>171.7316176119733</v>
-      </c>
-      <c r="K61" t="n">
-        <v>232.6490776642441</v>
-      </c>
-      <c r="L61" t="n">
-        <v>317.1310697314747</v>
       </c>
     </row>
     <row r="62">
@@ -49015,31 +47535,7 @@
         <v>14.00600000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>-34.26013937460687</v>
-      </c>
-      <c r="E62" t="n">
-        <v>-17.69136501628511</v>
-      </c>
-      <c r="F62" t="n">
-        <v>-5.744112999725971</v>
-      </c>
-      <c r="G62" t="n">
-        <v>4.4643733352087</v>
-      </c>
-      <c r="H62" t="n">
         <v>14.00600000000001</v>
-      </c>
-      <c r="I62" t="n">
-        <v>23.54762666479133</v>
-      </c>
-      <c r="J62" t="n">
-        <v>33.756112999726</v>
-      </c>
-      <c r="K62" t="n">
-        <v>45.70336501628515</v>
-      </c>
-      <c r="L62" t="n">
-        <v>62.27213937460689</v>
       </c>
     </row>
     <row r="63">
@@ -49055,31 +47551,7 @@
         <v>14.00600000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-54.24921606084129</v>
-      </c>
-      <c r="E63" t="n">
-        <v>-30.81860221138237</v>
-      </c>
-      <c r="F63" t="n">
-        <v>-13.92348115364585</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.5127768415749845</v>
-      </c>
-      <c r="H63" t="n">
         <v>14.00600000000001</v>
-      </c>
-      <c r="I63" t="n">
-        <v>27.49922315842505</v>
-      </c>
-      <c r="J63" t="n">
-        <v>41.93548115364588</v>
-      </c>
-      <c r="K63" t="n">
-        <v>58.8306022113824</v>
-      </c>
-      <c r="L63" t="n">
-        <v>82.26121606084132</v>
       </c>
     </row>
     <row r="64">
@@ -49095,31 +47567,7 @@
         <v>14.00600000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>-69.5878324812021</v>
-      </c>
-      <c r="E64" t="n">
-        <v>-40.89178663882284</v>
-      </c>
-      <c r="F64" t="n">
-        <v>-20.19991866215221</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-2.519480416491923</v>
-      </c>
-      <c r="H64" t="n">
         <v>14.00600000000001</v>
-      </c>
-      <c r="I64" t="n">
-        <v>30.53148041649195</v>
-      </c>
-      <c r="J64" t="n">
-        <v>48.21191866215224</v>
-      </c>
-      <c r="K64" t="n">
-        <v>68.90378663882288</v>
-      </c>
-      <c r="L64" t="n">
-        <v>97.59983248120213</v>
       </c>
     </row>
     <row r="65">
@@ -49135,31 +47583,7 @@
         <v>14.00600000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>-82.51903891881335</v>
-      </c>
-      <c r="E65" t="n">
-        <v>-49.38397548725482</v>
-      </c>
-      <c r="F65" t="n">
-        <v>-25.49126351953623</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-5.075822103474788</v>
-      </c>
-      <c r="H65" t="n">
         <v>14.00600000000001</v>
-      </c>
-      <c r="I65" t="n">
-        <v>33.08782210347482</v>
-      </c>
-      <c r="J65" t="n">
-        <v>53.50326351953626</v>
-      </c>
-      <c r="K65" t="n">
-        <v>77.39597548725484</v>
-      </c>
-      <c r="L65" t="n">
-        <v>110.5310389188134</v>
       </c>
     </row>
     <row r="66">
@@ -49175,31 +47599,7 @@
         <v>14.00600000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>-93.9117346299559</v>
-      </c>
-      <c r="E66" t="n">
-        <v>-56.86579274371303</v>
-      </c>
-      <c r="F66" t="n">
-        <v>-30.15306225840401</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-7.328018997400836</v>
-      </c>
-      <c r="H66" t="n">
         <v>14.00600000000001</v>
-      </c>
-      <c r="I66" t="n">
-        <v>35.34001899740086</v>
-      </c>
-      <c r="J66" t="n">
-        <v>58.16506225840404</v>
-      </c>
-      <c r="K66" t="n">
-        <v>84.87779274371306</v>
-      </c>
-      <c r="L66" t="n">
-        <v>121.9237346299559</v>
       </c>
     </row>
     <row r="67">
@@ -49215,31 +47615,7 @@
         <v>14.00600000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>-104.2115611195085</v>
-      </c>
-      <c r="E67" t="n">
-        <v>-63.62990033702749</v>
-      </c>
-      <c r="F67" t="n">
-        <v>-34.3676677703016</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-9.36416898471769</v>
-      </c>
-      <c r="H67" t="n">
         <v>14.00600000000001</v>
-      </c>
-      <c r="I67" t="n">
-        <v>37.37616898471772</v>
-      </c>
-      <c r="J67" t="n">
-        <v>62.37966777030163</v>
-      </c>
-      <c r="K67" t="n">
-        <v>91.64190033702752</v>
-      </c>
-      <c r="L67" t="n">
-        <v>132.2235611195086</v>
       </c>
     </row>
     <row r="68">
@@ -49255,31 +47631,7 @@
         <v>14.00600000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>-113.6832558770231</v>
-      </c>
-      <c r="E68" t="n">
-        <v>-69.85015681376007</v>
-      </c>
-      <c r="F68" t="n">
-        <v>-38.24340849006265</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-11.23660743598137</v>
-      </c>
-      <c r="H68" t="n">
         <v>14.00600000000001</v>
-      </c>
-      <c r="I68" t="n">
-        <v>39.2486074359814</v>
-      </c>
-      <c r="J68" t="n">
-        <v>66.25540849006268</v>
-      </c>
-      <c r="K68" t="n">
-        <v>97.86215681376009</v>
-      </c>
-      <c r="L68" t="n">
-        <v>141.6952558770232</v>
       </c>
     </row>
     <row r="69">
@@ -49295,31 +47647,7 @@
         <v>14.00600000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>-122.4993126285239</v>
-      </c>
-      <c r="E69" t="n">
-        <v>-75.63984234646338</v>
-      </c>
-      <c r="F69" t="n">
-        <v>-41.85086745218841</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-12.97943425553612</v>
-      </c>
-      <c r="H69" t="n">
         <v>14.00600000000001</v>
-      </c>
-      <c r="I69" t="n">
-        <v>40.99143425553615</v>
-      </c>
-      <c r="J69" t="n">
-        <v>69.86286745218844</v>
-      </c>
-      <c r="K69" t="n">
-        <v>103.6518423464634</v>
-      </c>
-      <c r="L69" t="n">
-        <v>150.5113126285239</v>
       </c>
     </row>
     <row r="70">
@@ -49335,31 +47663,7 @@
         <v>14.00600000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>-130.7795472248325</v>
-      </c>
-      <c r="E70" t="n">
-        <v>-81.07764246514758</v>
-      </c>
-      <c r="F70" t="n">
-        <v>-45.23907233164002</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-14.61633557473365</v>
-      </c>
-      <c r="H70" t="n">
         <v>14.00600000000001</v>
-      </c>
-      <c r="I70" t="n">
-        <v>42.62833557473368</v>
-      </c>
-      <c r="J70" t="n">
-        <v>73.25107233164005</v>
-      </c>
-      <c r="K70" t="n">
-        <v>109.0896424651476</v>
-      </c>
-      <c r="L70" t="n">
-        <v>158.7915472248325</v>
       </c>
     </row>
     <row r="71">
@@ -49375,31 +47679,7 @@
         <v>14.00600000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>-138.611197571497</v>
-      </c>
-      <c r="E71" t="n">
-        <v>-86.22084809407642</v>
-      </c>
-      <c r="F71" t="n">
-        <v>-48.44372017224076</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-16.16455726275974</v>
-      </c>
-      <c r="H71" t="n">
         <v>14.00600000000001</v>
-      </c>
-      <c r="I71" t="n">
-        <v>44.17655726275977</v>
-      </c>
-      <c r="J71" t="n">
-        <v>76.45572017224079</v>
-      </c>
-      <c r="K71" t="n">
-        <v>114.2328480940764</v>
-      </c>
-      <c r="L71" t="n">
-        <v>166.623197571497</v>
       </c>
     </row>
     <row r="72">
@@ -49415,31 +47695,7 @@
         <v>42.89624510519388</v>
       </c>
       <c r="D72" t="n">
-        <v>-53.10328301253507</v>
-      </c>
-      <c r="E72" t="n">
-        <v>-20.14861664605876</v>
-      </c>
-      <c r="F72" t="n">
-        <v>3.614016345811962</v>
-      </c>
-      <c r="G72" t="n">
-        <v>23.91831007321958</v>
-      </c>
-      <c r="H72" t="n">
         <v>42.89624510519388</v>
-      </c>
-      <c r="I72" t="n">
-        <v>61.87418013716818</v>
-      </c>
-      <c r="J72" t="n">
-        <v>82.17847386457581</v>
-      </c>
-      <c r="K72" t="n">
-        <v>105.9411068564465</v>
-      </c>
-      <c r="L72" t="n">
-        <v>138.8957732229229</v>
       </c>
     </row>
     <row r="73">
@@ -49455,31 +47711,7 @@
         <v>42.89624510519388</v>
       </c>
       <c r="D73" t="n">
-        <v>-87.12961562062114</v>
-      </c>
-      <c r="E73" t="n">
-        <v>-42.49440810191028</v>
-      </c>
-      <c r="F73" t="n">
-        <v>-10.30928314910304</v>
-      </c>
-      <c r="G73" t="n">
-        <v>17.19171940893328</v>
-      </c>
-      <c r="H73" t="n">
         <v>42.89624510519388</v>
-      </c>
-      <c r="I73" t="n">
-        <v>68.60077080145449</v>
-      </c>
-      <c r="J73" t="n">
-        <v>96.10177335949081</v>
-      </c>
-      <c r="K73" t="n">
-        <v>128.286898312298</v>
-      </c>
-      <c r="L73" t="n">
-        <v>172.9221058310089</v>
       </c>
     </row>
     <row r="74">
@@ -49495,31 +47727,7 @@
         <v>42.89624510519388</v>
       </c>
       <c r="D74" t="n">
-        <v>-113.939782376222</v>
-      </c>
-      <c r="E74" t="n">
-        <v>-60.10119523696849</v>
-      </c>
-      <c r="F74" t="n">
-        <v>-21.27978606948349</v>
-      </c>
-      <c r="G74" t="n">
-        <v>11.89167666017911</v>
-      </c>
-      <c r="H74" t="n">
         <v>42.89624510519388</v>
-      </c>
-      <c r="I74" t="n">
-        <v>73.90081355020865</v>
-      </c>
-      <c r="J74" t="n">
-        <v>107.0722762798713</v>
-      </c>
-      <c r="K74" t="n">
-        <v>145.8936854473563</v>
-      </c>
-      <c r="L74" t="n">
-        <v>199.7322725866098</v>
       </c>
     </row>
     <row r="75">
@@ -49535,31 +47743,7 @@
         <v>42.89624510519388</v>
       </c>
       <c r="D75" t="n">
-        <v>-136.79336109064</v>
-      </c>
-      <c r="E75" t="n">
-        <v>-75.1096097450578</v>
-      </c>
-      <c r="F75" t="n">
-        <v>-30.63128523445195</v>
-      </c>
-      <c r="G75" t="n">
-        <v>7.373803076900131</v>
-      </c>
-      <c r="H75" t="n">
         <v>42.89624510519388</v>
-      </c>
-      <c r="I75" t="n">
-        <v>78.41868713348764</v>
-      </c>
-      <c r="J75" t="n">
-        <v>116.4237754448397</v>
-      </c>
-      <c r="K75" t="n">
-        <v>160.9020999554456</v>
-      </c>
-      <c r="L75" t="n">
-        <v>222.5858513010278</v>
       </c>
     </row>
     <row r="76">
@@ -49575,31 +47759,7 @@
         <v>42.89624510519388</v>
       </c>
       <c r="D76" t="n">
-        <v>-157.0516721969783</v>
-      </c>
-      <c r="E76" t="n">
-        <v>-88.41365871336825</v>
-      </c>
-      <c r="F76" t="n">
-        <v>-38.92082193073642</v>
-      </c>
-      <c r="G76" t="n">
-        <v>3.368982224425444</v>
-      </c>
-      <c r="H76" t="n">
         <v>42.89624510519388</v>
-      </c>
-      <c r="I76" t="n">
-        <v>82.42350798596232</v>
-      </c>
-      <c r="J76" t="n">
-        <v>124.7133121411242</v>
-      </c>
-      <c r="K76" t="n">
-        <v>174.206148923756</v>
-      </c>
-      <c r="L76" t="n">
-        <v>242.844162407366</v>
       </c>
     </row>
     <row r="77">
@@ -49615,31 +47775,7 @@
         <v>42.89624510519388</v>
       </c>
       <c r="D77" t="n">
-        <v>-175.4383254330942</v>
-      </c>
-      <c r="E77" t="n">
-        <v>-100.4885515182327</v>
-      </c>
-      <c r="F77" t="n">
-        <v>-46.44449139768194</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-0.2658347107424532</v>
-      </c>
-      <c r="H77" t="n">
         <v>42.89624510519388</v>
-      </c>
-      <c r="I77" t="n">
-        <v>86.05832492113022</v>
-      </c>
-      <c r="J77" t="n">
-        <v>132.2369816080697</v>
-      </c>
-      <c r="K77" t="n">
-        <v>186.2810417286205</v>
-      </c>
-      <c r="L77" t="n">
-        <v>261.2308156434819</v>
       </c>
     </row>
     <row r="78">
@@ -49655,31 +47791,7 @@
         <v>42.89624510519388</v>
       </c>
       <c r="D78" t="n">
-        <v>-192.3925131277508</v>
-      </c>
-      <c r="E78" t="n">
-        <v>-111.6227147820729</v>
-      </c>
-      <c r="F78" t="n">
-        <v>-53.38200757624328</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-3.617470691645472</v>
-      </c>
-      <c r="H78" t="n">
         <v>42.89624510519388</v>
-      </c>
-      <c r="I78" t="n">
-        <v>89.40996090203325</v>
-      </c>
-      <c r="J78" t="n">
-        <v>139.174497786631</v>
-      </c>
-      <c r="K78" t="n">
-        <v>197.4152049924607</v>
-      </c>
-      <c r="L78" t="n">
-        <v>278.1850033381386</v>
       </c>
     </row>
     <row r="79">
@@ -49695,31 +47807,7 @@
         <v>42.89624510519388</v>
       </c>
       <c r="D79" t="n">
-        <v>-208.2045609657216</v>
-      </c>
-      <c r="E79" t="n">
-        <v>-122.0068113447826</v>
-      </c>
-      <c r="F79" t="n">
-        <v>-59.85216938332773</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-6.743319562730306</v>
-      </c>
-      <c r="H79" t="n">
         <v>42.89624510519388</v>
-      </c>
-      <c r="I79" t="n">
-        <v>92.53580977311807</v>
-      </c>
-      <c r="J79" t="n">
-        <v>145.6446595937155</v>
-      </c>
-      <c r="K79" t="n">
-        <v>207.7993015551704</v>
-      </c>
-      <c r="L79" t="n">
-        <v>293.9970511761094</v>
       </c>
     </row>
     <row r="80">
@@ -49735,31 +47823,7 @@
         <v>42.89624510519388</v>
       </c>
       <c r="D80" t="n">
-        <v>-223.0782459049892</v>
-      </c>
-      <c r="E80" t="n">
-        <v>-131.7746657198359</v>
-      </c>
-      <c r="F80" t="n">
-        <v>-65.93836069838045</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-9.683665541486675</v>
-      </c>
-      <c r="H80" t="n">
         <v>42.89624510519388</v>
-      </c>
-      <c r="I80" t="n">
-        <v>95.47615575187444</v>
-      </c>
-      <c r="J80" t="n">
-        <v>151.7308509087682</v>
-      </c>
-      <c r="K80" t="n">
-        <v>217.5671559302237</v>
-      </c>
-      <c r="L80" t="n">
-        <v>308.8707361153769</v>
       </c>
     </row>
     <row r="81">
@@ -49775,31 +47839,7 @@
         <v>42.89624510519388</v>
       </c>
       <c r="D81" t="n">
-        <v>-237.1631145434141</v>
-      </c>
-      <c r="E81" t="n">
-        <v>-141.0244882294329</v>
-      </c>
-      <c r="F81" t="n">
-        <v>-71.70177477706146</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-12.46807216509128</v>
-      </c>
-      <c r="H81" t="n">
         <v>42.89624510519388</v>
-      </c>
-      <c r="I81" t="n">
-        <v>98.26056237547905</v>
-      </c>
-      <c r="J81" t="n">
-        <v>157.4942649874492</v>
-      </c>
-      <c r="K81" t="n">
-        <v>226.8169784398206</v>
-      </c>
-      <c r="L81" t="n">
-        <v>322.9556047538018</v>
       </c>
     </row>
     <row r="82">
@@ -49815,31 +47855,7 @@
         <v>376.00399881</v>
       </c>
       <c r="D82" t="n">
-        <v>297.0629661435526</v>
-      </c>
-      <c r="E82" t="n">
-        <v>324.1618013686337</v>
-      </c>
-      <c r="F82" t="n">
-        <v>343.7019681176997</v>
-      </c>
-      <c r="G82" t="n">
-        <v>360.3983201293344</v>
-      </c>
-      <c r="H82" t="n">
         <v>376.00399881</v>
-      </c>
-      <c r="I82" t="n">
-        <v>391.6096774906655</v>
-      </c>
-      <c r="J82" t="n">
-        <v>408.3060295023003</v>
-      </c>
-      <c r="K82" t="n">
-        <v>427.8461962513662</v>
-      </c>
-      <c r="L82" t="n">
-        <v>454.9450314764474</v>
       </c>
     </row>
     <row r="83">
@@ -49855,31 +47871,7 @@
         <v>376.00399881</v>
       </c>
       <c r="D83" t="n">
-        <v>264.3701016197675</v>
-      </c>
-      <c r="E83" t="n">
-        <v>302.6917257904828</v>
-      </c>
-      <c r="F83" t="n">
-        <v>330.3243129541465</v>
-      </c>
-      <c r="G83" t="n">
-        <v>353.9353398302995</v>
-      </c>
-      <c r="H83" t="n">
         <v>376.00399881</v>
-      </c>
-      <c r="I83" t="n">
-        <v>398.0726577897005</v>
-      </c>
-      <c r="J83" t="n">
-        <v>421.6836846658535</v>
-      </c>
-      <c r="K83" t="n">
-        <v>449.3162718295171</v>
-      </c>
-      <c r="L83" t="n">
-        <v>487.6378960002324</v>
       </c>
     </row>
     <row r="84">
@@ -49895,31 +47887,7 @@
         <v>376.00399881</v>
       </c>
       <c r="D84" t="n">
-        <v>239.2832346031186</v>
-      </c>
-      <c r="E84" t="n">
-        <v>286.2166649870891</v>
-      </c>
-      <c r="F84" t="n">
-        <v>320.0589703183403</v>
-      </c>
-      <c r="G84" t="n">
-        <v>348.975972407015</v>
-      </c>
-      <c r="H84" t="n">
         <v>376.00399881</v>
-      </c>
-      <c r="I84" t="n">
-        <v>403.0320252129849</v>
-      </c>
-      <c r="J84" t="n">
-        <v>431.9490273016597</v>
-      </c>
-      <c r="K84" t="n">
-        <v>465.7913326329109</v>
-      </c>
-      <c r="L84" t="n">
-        <v>512.7247630168814</v>
       </c>
     </row>
     <row r="85">
@@ -49935,31 +47903,7 @@
         <v>376.00399881</v>
       </c>
       <c r="D85" t="n">
-        <v>218.1337744839797</v>
-      </c>
-      <c r="E85" t="n">
-        <v>272.3273801596724</v>
-      </c>
-      <c r="F85" t="n">
-        <v>311.4047826694324</v>
-      </c>
-      <c r="G85" t="n">
-        <v>344.7949822712081</v>
-      </c>
-      <c r="H85" t="n">
         <v>376.00399881</v>
-      </c>
-      <c r="I85" t="n">
-        <v>407.2130153487919</v>
-      </c>
-      <c r="J85" t="n">
-        <v>440.6032149505676</v>
-      </c>
-      <c r="K85" t="n">
-        <v>479.6806174603276</v>
-      </c>
-      <c r="L85" t="n">
-        <v>533.8742231360202</v>
       </c>
     </row>
     <row r="86">
@@ -49975,31 +47919,7 @@
         <v>376.00399881</v>
       </c>
       <c r="D86" t="n">
-        <v>199.5006048137874</v>
-      </c>
-      <c r="E86" t="n">
-        <v>260.0905949496005</v>
-      </c>
-      <c r="F86" t="n">
-        <v>303.7802406758589</v>
-      </c>
-      <c r="G86" t="n">
-        <v>341.1114320457632</v>
-      </c>
-      <c r="H86" t="n">
         <v>376.00399881</v>
-      </c>
-      <c r="I86" t="n">
-        <v>410.8965655742368</v>
-      </c>
-      <c r="J86" t="n">
-        <v>448.2277569441411</v>
-      </c>
-      <c r="K86" t="n">
-        <v>491.9174026703995</v>
-      </c>
-      <c r="L86" t="n">
-        <v>552.5073928062125</v>
       </c>
     </row>
     <row r="87">
@@ -50015,31 +47935,7 @@
         <v>376.00399881</v>
       </c>
       <c r="D87" t="n">
-        <v>182.6548626453496</v>
-      </c>
-      <c r="E87" t="n">
-        <v>249.0276500900801</v>
-      </c>
-      <c r="F87" t="n">
-        <v>296.8870995275959</v>
-      </c>
-      <c r="G87" t="n">
-        <v>337.781234421813</v>
-      </c>
-      <c r="H87" t="n">
         <v>376.00399881</v>
-      </c>
-      <c r="I87" t="n">
-        <v>414.226763198187</v>
-      </c>
-      <c r="J87" t="n">
-        <v>455.120898092404</v>
-      </c>
-      <c r="K87" t="n">
-        <v>502.9803475299199</v>
-      </c>
-      <c r="L87" t="n">
-        <v>569.3531349746504</v>
       </c>
     </row>
     <row r="88">
@@ -50055,31 +47951,7 @@
         <v>376.00399881</v>
       </c>
       <c r="D88" t="n">
-        <v>167.1635601515572</v>
-      </c>
-      <c r="E88" t="n">
-        <v>238.8541935823537</v>
-      </c>
-      <c r="F88" t="n">
-        <v>290.5481841154736</v>
-      </c>
-      <c r="G88" t="n">
-        <v>334.7187929905664</v>
-      </c>
-      <c r="H88" t="n">
         <v>376.00399881</v>
-      </c>
-      <c r="I88" t="n">
-        <v>417.2892046294336</v>
-      </c>
-      <c r="J88" t="n">
-        <v>461.4598135045263</v>
-      </c>
-      <c r="K88" t="n">
-        <v>513.1538040376463</v>
-      </c>
-      <c r="L88" t="n">
-        <v>584.8444374684427</v>
       </c>
     </row>
     <row r="89">
@@ -50095,31 +47967,7 @@
         <v>376.00399881</v>
       </c>
       <c r="D89" t="n">
-        <v>152.7445775474582</v>
-      </c>
-      <c r="E89" t="n">
-        <v>229.3849515694728</v>
-      </c>
-      <c r="F89" t="n">
-        <v>284.6480533102769</v>
-      </c>
-      <c r="G89" t="n">
-        <v>331.8683361138183</v>
-      </c>
-      <c r="H89" t="n">
         <v>376.00399881</v>
-      </c>
-      <c r="I89" t="n">
-        <v>420.1396615061817</v>
-      </c>
-      <c r="J89" t="n">
-        <v>467.3599443097231</v>
-      </c>
-      <c r="K89" t="n">
-        <v>522.6230460505271</v>
-      </c>
-      <c r="L89" t="n">
-        <v>599.2634200725417</v>
       </c>
     </row>
     <row r="90">
@@ -50135,31 +47983,7 @@
         <v>376.00399881</v>
       </c>
       <c r="D90" t="n">
-        <v>139.2019516357423</v>
-      </c>
-      <c r="E90" t="n">
-        <v>220.4912309950757</v>
-      </c>
-      <c r="F90" t="n">
-        <v>279.1065205600913</v>
-      </c>
-      <c r="G90" t="n">
-        <v>329.1911242591965</v>
-      </c>
-      <c r="H90" t="n">
         <v>376.00399881</v>
-      </c>
-      <c r="I90" t="n">
-        <v>422.8168733608035</v>
-      </c>
-      <c r="J90" t="n">
-        <v>472.9014770599087</v>
-      </c>
-      <c r="K90" t="n">
-        <v>531.5167666249243</v>
-      </c>
-      <c r="L90" t="n">
-        <v>612.8060459842577</v>
       </c>
     </row>
     <row r="91">
@@ -50175,31 +47999,7 @@
         <v>376.00399881</v>
       </c>
       <c r="D91" t="n">
-        <v>126.3930016376926</v>
-      </c>
-      <c r="E91" t="n">
-        <v>212.079330461404</v>
-      </c>
-      <c r="F91" t="n">
-        <v>273.865202046798</v>
-      </c>
-      <c r="G91" t="n">
-        <v>326.6589511781717</v>
-      </c>
-      <c r="H91" t="n">
         <v>376.00399881</v>
-      </c>
-      <c r="I91" t="n">
-        <v>425.3490464418282</v>
-      </c>
-      <c r="J91" t="n">
-        <v>478.142795573202</v>
-      </c>
-      <c r="K91" t="n">
-        <v>539.928667158596</v>
-      </c>
-      <c r="L91" t="n">
-        <v>625.6149959823074</v>
       </c>
     </row>
     <row r="92">
@@ -50215,31 +48015,7 @@
         <v>477.7351935800963</v>
       </c>
       <c r="D92" t="n">
-        <v>410.4719176319381</v>
-      </c>
-      <c r="E92" t="n">
-        <v>433.5620188131586</v>
-      </c>
-      <c r="F92" t="n">
-        <v>450.2116062801602</v>
-      </c>
-      <c r="G92" t="n">
-        <v>464.4380648752921</v>
-      </c>
-      <c r="H92" t="n">
         <v>477.7351935800963</v>
-      </c>
-      <c r="I92" t="n">
-        <v>491.0323222849004</v>
-      </c>
-      <c r="J92" t="n">
-        <v>505.2587808800324</v>
-      </c>
-      <c r="K92" t="n">
-        <v>521.908368347034</v>
-      </c>
-      <c r="L92" t="n">
-        <v>544.9984695282544</v>
       </c>
     </row>
     <row r="93">
@@ -50255,31 +48031,7 @@
         <v>477.7351935800963</v>
       </c>
       <c r="D93" t="n">
-        <v>385.2410413368301</v>
-      </c>
-      <c r="E93" t="n">
-        <v>416.9923841589412</v>
-      </c>
-      <c r="F93" t="n">
-        <v>439.8873362149091</v>
-      </c>
-      <c r="G93" t="n">
-        <v>459.4502285752936</v>
-      </c>
-      <c r="H93" t="n">
         <v>477.7351935800963</v>
-      </c>
-      <c r="I93" t="n">
-        <v>496.020158584899</v>
-      </c>
-      <c r="J93" t="n">
-        <v>515.5830509452835</v>
-      </c>
-      <c r="K93" t="n">
-        <v>538.4780030012514</v>
-      </c>
-      <c r="L93" t="n">
-        <v>570.2293458233625</v>
       </c>
     </row>
     <row r="94">
@@ -50295,31 +48047,7 @@
         <v>477.7351935800963</v>
       </c>
       <c r="D94" t="n">
-        <v>365.5479032699951</v>
-      </c>
-      <c r="E94" t="n">
-        <v>404.0594959331848</v>
-      </c>
-      <c r="F94" t="n">
-        <v>431.8290637452485</v>
-      </c>
-      <c r="G94" t="n">
-        <v>455.5571355347761</v>
-      </c>
-      <c r="H94" t="n">
         <v>477.7351935800963</v>
-      </c>
-      <c r="I94" t="n">
-        <v>499.9132516254165</v>
-      </c>
-      <c r="J94" t="n">
-        <v>523.6413234149441</v>
-      </c>
-      <c r="K94" t="n">
-        <v>551.4108912270077</v>
-      </c>
-      <c r="L94" t="n">
-        <v>589.9224838901974</v>
       </c>
     </row>
     <row r="95">
@@ -50335,31 +48063,7 @@
         <v>477.7351935800963</v>
       </c>
       <c r="D95" t="n">
-        <v>348.8289950672034</v>
-      </c>
-      <c r="E95" t="n">
-        <v>393.0798455438177</v>
-      </c>
-      <c r="F95" t="n">
-        <v>424.9878220276459</v>
-      </c>
-      <c r="G95" t="n">
-        <v>452.252011437822</v>
-      </c>
-      <c r="H95" t="n">
         <v>477.7351935800963</v>
-      </c>
-      <c r="I95" t="n">
-        <v>503.2183757223705</v>
-      </c>
-      <c r="J95" t="n">
-        <v>530.4825651325466</v>
-      </c>
-      <c r="K95" t="n">
-        <v>562.3905416163749</v>
-      </c>
-      <c r="L95" t="n">
-        <v>606.6413920929891</v>
       </c>
     </row>
     <row r="96">
@@ -50375,31 +48079,7 @@
         <v>477.7351935800963</v>
       </c>
       <c r="D96" t="n">
-        <v>334.0423686967091</v>
-      </c>
-      <c r="E96" t="n">
-        <v>383.3691643188848</v>
-      </c>
-      <c r="F96" t="n">
-        <v>418.9372543732618</v>
-      </c>
-      <c r="G96" t="n">
-        <v>449.3288758755599</v>
-      </c>
-      <c r="H96" t="n">
         <v>477.7351935800963</v>
-      </c>
-      <c r="I96" t="n">
-        <v>506.1415112846327</v>
-      </c>
-      <c r="J96" t="n">
-        <v>536.5331327869308</v>
-      </c>
-      <c r="K96" t="n">
-        <v>572.1012228413077</v>
-      </c>
-      <c r="L96" t="n">
-        <v>621.4280184634835</v>
       </c>
     </row>
     <row r="97">
@@ -50415,31 +48095,7 @@
         <v>477.7351935800963</v>
       </c>
       <c r="D97" t="n">
-        <v>320.6414386727474</v>
-      </c>
-      <c r="E97" t="n">
-        <v>374.5684983441232</v>
-      </c>
-      <c r="F97" t="n">
-        <v>413.4537024317964</v>
-      </c>
-      <c r="G97" t="n">
-        <v>446.679675568545</v>
-      </c>
-      <c r="H97" t="n">
         <v>477.7351935800963</v>
-      </c>
-      <c r="I97" t="n">
-        <v>508.7907115916476</v>
-      </c>
-      <c r="J97" t="n">
-        <v>542.0166847283961</v>
-      </c>
-      <c r="K97" t="n">
-        <v>580.9018888160695</v>
-      </c>
-      <c r="L97" t="n">
-        <v>634.8289484874451</v>
       </c>
     </row>
     <row r="98">
@@ -50455,31 +48111,7 @@
         <v>477.7351935800963</v>
       </c>
       <c r="D98" t="n">
-        <v>308.2970994607023</v>
-      </c>
-      <c r="E98" t="n">
-        <v>366.4617172557875</v>
-      </c>
-      <c r="F98" t="n">
-        <v>408.402498886126</v>
-      </c>
-      <c r="G98" t="n">
-        <v>444.2393503693257</v>
-      </c>
-      <c r="H98" t="n">
         <v>477.7351935800963</v>
-      </c>
-      <c r="I98" t="n">
-        <v>511.2310367908668</v>
-      </c>
-      <c r="J98" t="n">
-        <v>547.0678882740666</v>
-      </c>
-      <c r="K98" t="n">
-        <v>589.0086699044051</v>
-      </c>
-      <c r="L98" t="n">
-        <v>647.1732876994903</v>
       </c>
     </row>
     <row r="99">
@@ -50495,31 +48127,7 @@
         <v>477.7351935800963</v>
       </c>
       <c r="D99" t="n">
-        <v>296.7929717336322</v>
-      </c>
-      <c r="E99" t="n">
-        <v>358.9067203058812</v>
-      </c>
-      <c r="F99" t="n">
-        <v>403.6951030695786</v>
-      </c>
-      <c r="G99" t="n">
-        <v>441.9651247258817</v>
-      </c>
-      <c r="H99" t="n">
         <v>477.7351935800963</v>
-      </c>
-      <c r="I99" t="n">
-        <v>513.5052624343109</v>
-      </c>
-      <c r="J99" t="n">
-        <v>551.7752840906139</v>
-      </c>
-      <c r="K99" t="n">
-        <v>596.5636668543114</v>
-      </c>
-      <c r="L99" t="n">
-        <v>658.6774154265604</v>
       </c>
     </row>
     <row r="100">
@@ -50535,31 +48143,7 @@
         <v>477.7351935800963</v>
       </c>
       <c r="D100" t="n">
-        <v>285.9777750673892</v>
-      </c>
-      <c r="E100" t="n">
-        <v>351.8041585328721</v>
-      </c>
-      <c r="F100" t="n">
-        <v>399.2696122588316</v>
-      </c>
-      <c r="G100" t="n">
-        <v>439.8270923447404</v>
-      </c>
-      <c r="H100" t="n">
         <v>477.7351935800963</v>
-      </c>
-      <c r="I100" t="n">
-        <v>515.6432948154521</v>
-      </c>
-      <c r="J100" t="n">
-        <v>556.200774901361</v>
-      </c>
-      <c r="K100" t="n">
-        <v>603.6662286273205</v>
-      </c>
-      <c r="L100" t="n">
-        <v>669.4926120928033</v>
       </c>
     </row>
     <row r="101">
@@ -50575,31 +48159,7 @@
         <v>477.7351935800963</v>
       </c>
       <c r="D101" t="n">
-        <v>275.7408187510434</v>
-      </c>
-      <c r="E101" t="n">
-        <v>345.0813390735289</v>
-      </c>
-      <c r="F101" t="n">
-        <v>395.0807327122015</v>
-      </c>
-      <c r="G101" t="n">
-        <v>437.8033710233344</v>
-      </c>
-      <c r="H101" t="n">
         <v>477.7351935800963</v>
-      </c>
-      <c r="I101" t="n">
-        <v>517.6670161368583</v>
-      </c>
-      <c r="J101" t="n">
-        <v>560.389654447991</v>
-      </c>
-      <c r="K101" t="n">
-        <v>610.3890480866637</v>
-      </c>
-      <c r="L101" t="n">
-        <v>679.7295684091491</v>
       </c>
     </row>
     <row r="102">
@@ -50615,31 +48175,7 @@
         <v>298.7870730378873</v>
       </c>
       <c r="D102" t="n">
-        <v>238.7588930246509</v>
-      </c>
-      <c r="E102" t="n">
-        <v>259.3653343656647</v>
-      </c>
-      <c r="F102" t="n">
-        <v>274.2240283487766</v>
-      </c>
-      <c r="G102" t="n">
-        <v>286.9202344948708</v>
-      </c>
-      <c r="H102" t="n">
         <v>298.7870730378873</v>
-      </c>
-      <c r="I102" t="n">
-        <v>310.6539115809038</v>
-      </c>
-      <c r="J102" t="n">
-        <v>323.350117726998</v>
-      </c>
-      <c r="K102" t="n">
-        <v>338.2088117101099</v>
-      </c>
-      <c r="L102" t="n">
-        <v>358.8152530511237</v>
       </c>
     </row>
     <row r="103">
@@ -50655,31 +48191,7 @@
         <v>298.7870730378873</v>
       </c>
       <c r="D103" t="n">
-        <v>217.8484265815807</v>
-      </c>
-      <c r="E103" t="n">
-        <v>245.6330015937695</v>
-      </c>
-      <c r="F103" t="n">
-        <v>265.6676349748975</v>
-      </c>
-      <c r="G103" t="n">
-        <v>282.7864904918982</v>
-      </c>
-      <c r="H103" t="n">
         <v>298.7870730378873</v>
-      </c>
-      <c r="I103" t="n">
-        <v>314.7876555838764</v>
-      </c>
-      <c r="J103" t="n">
-        <v>331.9065111008771</v>
-      </c>
-      <c r="K103" t="n">
-        <v>351.9411444820051</v>
-      </c>
-      <c r="L103" t="n">
-        <v>379.7257194941939</v>
       </c>
     </row>
     <row r="104">
@@ -50695,31 +48207,7 @@
         <v>298.7870730378873</v>
       </c>
       <c r="D104" t="n">
-        <v>201.3255596869421</v>
-      </c>
-      <c r="E104" t="n">
-        <v>234.7820955577588</v>
-      </c>
-      <c r="F104" t="n">
-        <v>258.9066117715329</v>
-      </c>
-      <c r="G104" t="n">
-        <v>279.5201213688764</v>
-      </c>
-      <c r="H104" t="n">
         <v>298.7870730378873</v>
-      </c>
-      <c r="I104" t="n">
-        <v>318.0540247068982</v>
-      </c>
-      <c r="J104" t="n">
-        <v>338.6675343042417</v>
-      </c>
-      <c r="K104" t="n">
-        <v>362.7920505180158</v>
-      </c>
-      <c r="L104" t="n">
-        <v>396.2485863888325</v>
       </c>
     </row>
     <row r="105">
@@ -50735,31 +48223,7 @@
         <v>298.7870730378873</v>
       </c>
       <c r="D105" t="n">
-        <v>187.2235096350722</v>
-      </c>
-      <c r="E105" t="n">
-        <v>225.520989661081</v>
-      </c>
-      <c r="F105" t="n">
-        <v>253.1361671977382</v>
-      </c>
-      <c r="G105" t="n">
-        <v>276.7323181895334</v>
-      </c>
-      <c r="H105" t="n">
         <v>298.7870730378873</v>
-      </c>
-      <c r="I105" t="n">
-        <v>320.8418278862412</v>
-      </c>
-      <c r="J105" t="n">
-        <v>344.4379788780364</v>
-      </c>
-      <c r="K105" t="n">
-        <v>372.0531564146935</v>
-      </c>
-      <c r="L105" t="n">
-        <v>410.3506364407024</v>
       </c>
     </row>
     <row r="106">
@@ -50775,31 +48239,7 @@
         <v>298.7870730378873</v>
       </c>
       <c r="D106" t="n">
-        <v>174.7140672162686</v>
-      </c>
-      <c r="E106" t="n">
-        <v>217.3057819059808</v>
-      </c>
-      <c r="F106" t="n">
-        <v>248.0174047581444</v>
-      </c>
-      <c r="G106" t="n">
-        <v>274.2593541014273</v>
-      </c>
-      <c r="H106" t="n">
         <v>298.7870730378873</v>
-      </c>
-      <c r="I106" t="n">
-        <v>323.3147919743473</v>
-      </c>
-      <c r="J106" t="n">
-        <v>349.5567413176302</v>
-      </c>
-      <c r="K106" t="n">
-        <v>380.2683641697938</v>
-      </c>
-      <c r="L106" t="n">
-        <v>422.860078859506</v>
       </c>
     </row>
     <row r="107">
@@ -50815,31 +48255,7 @@
         <v>298.7870730378873</v>
       </c>
       <c r="D107" t="n">
-        <v>163.3551976610437</v>
-      </c>
-      <c r="E107" t="n">
-        <v>209.8461789808346</v>
-      </c>
-      <c r="F107" t="n">
-        <v>243.3694474080924</v>
-      </c>
-      <c r="G107" t="n">
-        <v>272.013844225677</v>
-      </c>
-      <c r="H107" t="n">
         <v>298.7870730378873</v>
-      </c>
-      <c r="I107" t="n">
-        <v>325.5603018500976</v>
-      </c>
-      <c r="J107" t="n">
-        <v>354.2046986676822</v>
-      </c>
-      <c r="K107" t="n">
-        <v>387.72796709494</v>
-      </c>
-      <c r="L107" t="n">
-        <v>434.2189484147309</v>
       </c>
     </row>
     <row r="108">
@@ -50855,31 +48271,7 @@
         <v>298.7870730378873</v>
       </c>
       <c r="D108" t="n">
-        <v>152.8779404842107</v>
-      </c>
-      <c r="E108" t="n">
-        <v>202.9655490111153</v>
-      </c>
-      <c r="F108" t="n">
-        <v>239.0822386971651</v>
-      </c>
-      <c r="G108" t="n">
-        <v>269.9426183570312</v>
-      </c>
-      <c r="H108" t="n">
         <v>298.7870730378873</v>
-      </c>
-      <c r="I108" t="n">
-        <v>327.6315277187434</v>
-      </c>
-      <c r="J108" t="n">
-        <v>358.4919073786094</v>
-      </c>
-      <c r="K108" t="n">
-        <v>394.6085970646593</v>
-      </c>
-      <c r="L108" t="n">
-        <v>444.696205591564</v>
       </c>
     </row>
     <row r="109">
@@ -50895,31 +48287,7 @@
         <v>298.7870730378873</v>
       </c>
       <c r="D109" t="n">
-        <v>143.1041996797563</v>
-      </c>
-      <c r="E109" t="n">
-        <v>196.5469326919419</v>
-      </c>
-      <c r="F109" t="n">
-        <v>235.0829031833005</v>
-      </c>
-      <c r="G109" t="n">
-        <v>268.0104690887679</v>
-      </c>
-      <c r="H109" t="n">
         <v>298.7870730378873</v>
-      </c>
-      <c r="I109" t="n">
-        <v>329.5636769870067</v>
-      </c>
-      <c r="J109" t="n">
-        <v>362.4912428924741</v>
-      </c>
-      <c r="K109" t="n">
-        <v>401.0272133838327</v>
-      </c>
-      <c r="L109" t="n">
-        <v>454.4699463960183</v>
       </c>
     </row>
     <row r="110">
@@ -50935,31 +48303,7 @@
         <v>298.7870730378873</v>
       </c>
       <c r="D110" t="n">
-        <v>133.9088174930116</v>
-      </c>
-      <c r="E110" t="n">
-        <v>190.5081363553359</v>
-      </c>
-      <c r="F110" t="n">
-        <v>231.320227327783</v>
-      </c>
-      <c r="G110" t="n">
-        <v>266.1926542603429</v>
-      </c>
-      <c r="H110" t="n">
         <v>298.7870730378873</v>
-      </c>
-      <c r="I110" t="n">
-        <v>331.3814918154317</v>
-      </c>
-      <c r="J110" t="n">
-        <v>366.2539187479916</v>
-      </c>
-      <c r="K110" t="n">
-        <v>407.0660097204387</v>
-      </c>
-      <c r="L110" t="n">
-        <v>463.665328582763</v>
       </c>
     </row>
     <row r="111">
@@ -50975,31 +48319,7 @@
         <v>298.7870730378873</v>
       </c>
       <c r="D111" t="n">
-        <v>125.199857938391</v>
-      </c>
-      <c r="E111" t="n">
-        <v>184.7887837513837</v>
-      </c>
-      <c r="F111" t="n">
-        <v>227.7565916705195</v>
-      </c>
-      <c r="G111" t="n">
-        <v>264.4709992494871</v>
-      </c>
-      <c r="H111" t="n">
         <v>298.7870730378873</v>
-      </c>
-      <c r="I111" t="n">
-        <v>333.1031468262875</v>
-      </c>
-      <c r="J111" t="n">
-        <v>369.8175544052551</v>
-      </c>
-      <c r="K111" t="n">
-        <v>412.7853623243909</v>
-      </c>
-      <c r="L111" t="n">
-        <v>472.3742881373836</v>
       </c>
     </row>
     <row r="112">
@@ -51015,31 +48335,7 @@
         <v>303.016</v>
       </c>
       <c r="D112" t="n">
-        <v>218.7855075388185</v>
-      </c>
-      <c r="E112" t="n">
-        <v>247.700105676615</v>
-      </c>
-      <c r="F112" t="n">
-        <v>268.549565234635</v>
-      </c>
-      <c r="G112" t="n">
-        <v>286.3646596759188</v>
-      </c>
-      <c r="H112" t="n">
         <v>303.016</v>
-      </c>
-      <c r="I112" t="n">
-        <v>319.6673403240811</v>
-      </c>
-      <c r="J112" t="n">
-        <v>337.4824347653649</v>
-      </c>
-      <c r="K112" t="n">
-        <v>358.3318943233849</v>
-      </c>
-      <c r="L112" t="n">
-        <v>387.2464924611814</v>
       </c>
     </row>
     <row r="113">
@@ -51055,31 +48351,7 @@
         <v>303.016</v>
       </c>
       <c r="D113" t="n">
-        <v>183.9020510423652</v>
-      </c>
-      <c r="E113" t="n">
-        <v>224.79142335968</v>
-      </c>
-      <c r="F113" t="n">
-        <v>254.2755375922162</v>
-      </c>
-      <c r="G113" t="n">
-        <v>279.4686260801231</v>
-      </c>
-      <c r="H113" t="n">
         <v>303.016</v>
-      </c>
-      <c r="I113" t="n">
-        <v>326.5633739198768</v>
-      </c>
-      <c r="J113" t="n">
-        <v>351.7564624077837</v>
-      </c>
-      <c r="K113" t="n">
-        <v>381.24057664032</v>
-      </c>
-      <c r="L113" t="n">
-        <v>422.1299489576347</v>
       </c>
     </row>
     <row r="114">
@@ -51095,31 +48367,7 @@
         <v>303.016</v>
       </c>
       <c r="D114" t="n">
-        <v>157.1342334480732</v>
-      </c>
-      <c r="E114" t="n">
-        <v>207.2124477886194</v>
-      </c>
-      <c r="F114" t="n">
-        <v>243.3223636053724</v>
-      </c>
-      <c r="G114" t="n">
-        <v>274.176955243687</v>
-      </c>
-      <c r="H114" t="n">
         <v>303.016</v>
-      </c>
-      <c r="I114" t="n">
-        <v>331.8550447563129</v>
-      </c>
-      <c r="J114" t="n">
-        <v>362.7096363946275</v>
-      </c>
-      <c r="K114" t="n">
-        <v>398.8195522113805</v>
-      </c>
-      <c r="L114" t="n">
-        <v>448.8977665519268</v>
       </c>
     </row>
     <row r="115">
@@ -51135,31 +48383,7 @@
         <v>303.016</v>
       </c>
       <c r="D115" t="n">
-        <v>134.5676494935622</v>
-      </c>
-      <c r="E115" t="n">
-        <v>192.3925086336536</v>
-      </c>
-      <c r="F115" t="n">
-        <v>234.0883003698554</v>
-      </c>
-      <c r="G115" t="n">
-        <v>269.7158170216626</v>
-      </c>
-      <c r="H115" t="n">
         <v>303.016</v>
-      </c>
-      <c r="I115" t="n">
-        <v>336.3161829783373</v>
-      </c>
-      <c r="J115" t="n">
-        <v>371.9436996301445</v>
-      </c>
-      <c r="K115" t="n">
-        <v>413.6394913663464</v>
-      </c>
-      <c r="L115" t="n">
-        <v>471.4643505064378</v>
       </c>
     </row>
     <row r="116">
@@ -51175,31 +48399,7 @@
         <v>303.016</v>
       </c>
       <c r="D116" t="n">
-        <v>114.6859605363802</v>
-      </c>
-      <c r="E116" t="n">
-        <v>179.335795165752</v>
-      </c>
-      <c r="F116" t="n">
-        <v>225.9528744042077</v>
-      </c>
-      <c r="G116" t="n">
-        <v>265.7854497713924</v>
-      </c>
-      <c r="H116" t="n">
         <v>303.016</v>
-      </c>
-      <c r="I116" t="n">
-        <v>340.2465502286075</v>
-      </c>
-      <c r="J116" t="n">
-        <v>380.0791255957922</v>
-      </c>
-      <c r="K116" t="n">
-        <v>426.6962048342479</v>
-      </c>
-      <c r="L116" t="n">
-        <v>491.3460394636197</v>
       </c>
     </row>
     <row r="117">
@@ -51215,31 +48415,7 @@
         <v>303.016</v>
       </c>
       <c r="D117" t="n">
-        <v>96.71146602074529</v>
-      </c>
-      <c r="E117" t="n">
-        <v>167.5315754575348</v>
-      </c>
-      <c r="F117" t="n">
-        <v>218.5978569448351</v>
-      </c>
-      <c r="G117" t="n">
-        <v>262.232111584855</v>
-      </c>
-      <c r="H117" t="n">
         <v>303.016</v>
-      </c>
-      <c r="I117" t="n">
-        <v>343.7998884151449</v>
-      </c>
-      <c r="J117" t="n">
-        <v>387.4341430551648</v>
-      </c>
-      <c r="K117" t="n">
-        <v>438.5004245424651</v>
-      </c>
-      <c r="L117" t="n">
-        <v>509.3205339792546</v>
       </c>
     </row>
     <row r="118">
@@ -51255,31 +48431,7 @@
         <v>303.016</v>
       </c>
       <c r="D118" t="n">
-        <v>80.18216568297728</v>
-      </c>
-      <c r="E118" t="n">
-        <v>156.6764444472911</v>
-      </c>
-      <c r="F118" t="n">
-        <v>211.8342012286898</v>
-      </c>
-      <c r="G118" t="n">
-        <v>258.9644706486469</v>
-      </c>
-      <c r="H118" t="n">
         <v>303.016</v>
-      </c>
-      <c r="I118" t="n">
-        <v>347.0675293513531</v>
-      </c>
-      <c r="J118" t="n">
-        <v>394.1977987713101</v>
-      </c>
-      <c r="K118" t="n">
-        <v>449.3555555527088</v>
-      </c>
-      <c r="L118" t="n">
-        <v>525.8498343170227</v>
       </c>
     </row>
     <row r="119">
@@ -51295,31 +48447,7 @@
         <v>303.016</v>
       </c>
       <c r="D119" t="n">
-        <v>64.79703624510665</v>
-      </c>
-      <c r="E119" t="n">
-        <v>146.5727139659685</v>
-      </c>
-      <c r="F119" t="n">
-        <v>205.5387309704404</v>
-      </c>
-      <c r="G119" t="n">
-        <v>255.9230183347109</v>
-      </c>
-      <c r="H119" t="n">
         <v>303.016</v>
-      </c>
-      <c r="I119" t="n">
-        <v>350.108981665289</v>
-      </c>
-      <c r="J119" t="n">
-        <v>400.4932690295595</v>
-      </c>
-      <c r="K119" t="n">
-        <v>459.4592860340314</v>
-      </c>
-      <c r="L119" t="n">
-        <v>541.2349637548932</v>
       </c>
     </row>
     <row r="120">
@@ -51335,31 +48463,7 @@
         <v>303.016</v>
       </c>
       <c r="D120" t="n">
-        <v>50.34698395631477</v>
-      </c>
-      <c r="E120" t="n">
-        <v>137.0830678530413</v>
-      </c>
-      <c r="F120" t="n">
-        <v>199.6258867021099</v>
-      </c>
-      <c r="G120" t="n">
-        <v>253.0664193605054</v>
-      </c>
-      <c r="H120" t="n">
         <v>303.016</v>
-      </c>
-      <c r="I120" t="n">
-        <v>352.9655806394945</v>
-      </c>
-      <c r="J120" t="n">
-        <v>406.40611329789</v>
-      </c>
-      <c r="K120" t="n">
-        <v>468.9489321469586</v>
-      </c>
-      <c r="L120" t="n">
-        <v>555.6850160436852</v>
       </c>
     </row>
     <row r="121">
@@ -51375,31 +48479,7 @@
         <v>303.016</v>
       </c>
       <c r="D121" t="n">
-        <v>36.67976768356709</v>
-      </c>
-      <c r="E121" t="n">
-        <v>128.1075262297203</v>
-      </c>
-      <c r="F121" t="n">
-        <v>194.0333725860861</v>
-      </c>
-      <c r="G121" t="n">
-        <v>250.3645775121365</v>
-      </c>
-      <c r="H121" t="n">
         <v>303.016</v>
-      </c>
-      <c r="I121" t="n">
-        <v>355.6674224878635</v>
-      </c>
-      <c r="J121" t="n">
-        <v>411.9986274139138</v>
-      </c>
-      <c r="K121" t="n">
-        <v>477.9244737702796</v>
-      </c>
-      <c r="L121" t="n">
-        <v>569.3522323164328</v>
       </c>
     </row>
     <row r="122">
@@ -51415,31 +48495,7 @@
         <v>141.0151</v>
       </c>
       <c r="D122" t="n">
-        <v>44.46568836082309</v>
-      </c>
-      <c r="E122" t="n">
-        <v>77.609118446716</v>
-      </c>
-      <c r="F122" t="n">
-        <v>101.5078633608497</v>
-      </c>
-      <c r="G122" t="n">
-        <v>121.928459707179</v>
-      </c>
-      <c r="H122" t="n">
         <v>141.0151</v>
-      </c>
-      <c r="I122" t="n">
-        <v>160.1017402928209</v>
-      </c>
-      <c r="J122" t="n">
-        <v>180.5223366391503</v>
-      </c>
-      <c r="K122" t="n">
-        <v>204.421081553284</v>
-      </c>
-      <c r="L122" t="n">
-        <v>237.5645116391769</v>
       </c>
     </row>
     <row r="123">
@@ -51455,31 +48511,7 @@
         <v>141.0151</v>
       </c>
       <c r="D123" t="n">
-        <v>4.480439524416823</v>
-      </c>
-      <c r="E123" t="n">
-        <v>51.3499843196273</v>
-      </c>
-      <c r="F123" t="n">
-        <v>85.14622364668068</v>
-      </c>
-      <c r="G123" t="n">
-        <v>114.0238640332915</v>
-      </c>
-      <c r="H123" t="n">
         <v>141.0151</v>
-      </c>
-      <c r="I123" t="n">
-        <v>168.0063359667085</v>
-      </c>
-      <c r="J123" t="n">
-        <v>196.8839763533193</v>
-      </c>
-      <c r="K123" t="n">
-        <v>230.6802156803727</v>
-      </c>
-      <c r="L123" t="n">
-        <v>277.5497604755832</v>
       </c>
     </row>
     <row r="124">
@@ -51495,31 +48527,7 @@
         <v>141.0151</v>
       </c>
       <c r="D124" t="n">
-        <v>-26.20223801999816</v>
-      </c>
-      <c r="E124" t="n">
-        <v>31.2000398160077</v>
-      </c>
-      <c r="F124" t="n">
-        <v>72.59112070104993</v>
-      </c>
-      <c r="G124" t="n">
-        <v>107.9582731656903</v>
-      </c>
-      <c r="H124" t="n">
         <v>141.0151</v>
-      </c>
-      <c r="I124" t="n">
-        <v>174.0719268343097</v>
-      </c>
-      <c r="J124" t="n">
-        <v>209.43907929895</v>
-      </c>
-      <c r="K124" t="n">
-        <v>250.8301601839923</v>
-      </c>
-      <c r="L124" t="n">
-        <v>308.2324380199981</v>
       </c>
     </row>
     <row r="125">
@@ -51535,31 +48543,7 @@
         <v>141.0151</v>
       </c>
       <c r="D125" t="n">
-        <v>-52.06924104765167</v>
-      </c>
-      <c r="E125" t="n">
-        <v>14.21264767176986</v>
-      </c>
-      <c r="F125" t="n">
-        <v>62.00655273311368</v>
-      </c>
-      <c r="G125" t="n">
-        <v>102.8446823746119</v>
-      </c>
-      <c r="H125" t="n">
         <v>141.0151</v>
-      </c>
-      <c r="I125" t="n">
-        <v>179.1855176253881</v>
-      </c>
-      <c r="J125" t="n">
-        <v>220.0236472668863</v>
-      </c>
-      <c r="K125" t="n">
-        <v>267.8175523282301</v>
-      </c>
-      <c r="L125" t="n">
-        <v>334.0994410476517</v>
       </c>
     </row>
     <row r="126">
@@ -51575,31 +48559,7 @@
         <v>141.0151</v>
       </c>
       <c r="D126" t="n">
-        <v>-74.85867650172659</v>
-      </c>
-      <c r="E126" t="n">
-        <v>-0.7536426398791889</v>
-      </c>
-      <c r="F126" t="n">
-        <v>52.68130047034956</v>
-      </c>
-      <c r="G126" t="n">
-        <v>98.33948913103245</v>
-      </c>
-      <c r="H126" t="n">
         <v>141.0151</v>
-      </c>
-      <c r="I126" t="n">
-        <v>183.6907108689675</v>
-      </c>
-      <c r="J126" t="n">
-        <v>229.3488995296504</v>
-      </c>
-      <c r="K126" t="n">
-        <v>282.7838426398791</v>
-      </c>
-      <c r="L126" t="n">
-        <v>356.8888765017266</v>
       </c>
     </row>
     <row r="127">
@@ -51615,31 +48575,7 @@
         <v>141.0151</v>
       </c>
       <c r="D127" t="n">
-        <v>-95.46198558003869</v>
-      </c>
-      <c r="E127" t="n">
-        <v>-14.28425886194614</v>
-      </c>
-      <c r="F127" t="n">
-        <v>44.25059340039429</v>
-      </c>
-      <c r="G127" t="n">
-        <v>94.26646639020835</v>
-      </c>
-      <c r="H127" t="n">
         <v>141.0151</v>
-      </c>
-      <c r="I127" t="n">
-        <v>187.7637336097916</v>
-      </c>
-      <c r="J127" t="n">
-        <v>237.7796065996057</v>
-      </c>
-      <c r="K127" t="n">
-        <v>296.3144588619462</v>
-      </c>
-      <c r="L127" t="n">
-        <v>377.4921855800387</v>
       </c>
     </row>
     <row r="128">
@@ -51655,31 +48591,7 @@
         <v>141.0151</v>
       </c>
       <c r="D128" t="n">
-        <v>-114.4087372347822</v>
-      </c>
-      <c r="E128" t="n">
-        <v>-26.7269798016132</v>
-      </c>
-      <c r="F128" t="n">
-        <v>36.49773620055372</v>
-      </c>
-      <c r="G128" t="n">
-        <v>90.52092483369449</v>
-      </c>
-      <c r="H128" t="n">
         <v>141.0151</v>
-      </c>
-      <c r="I128" t="n">
-        <v>191.5092751663055</v>
-      </c>
-      <c r="J128" t="n">
-        <v>245.5324637994462</v>
-      </c>
-      <c r="K128" t="n">
-        <v>308.7571798016132</v>
-      </c>
-      <c r="L128" t="n">
-        <v>396.4389372347822</v>
       </c>
     </row>
     <row r="129">
@@ -51695,31 +48607,7 @@
         <v>141.0151</v>
       </c>
       <c r="D129" t="n">
-        <v>-132.0439801475974</v>
-      </c>
-      <c r="E129" t="n">
-        <v>-38.30840601471627</v>
-      </c>
-      <c r="F129" t="n">
-        <v>29.28153774717256</v>
-      </c>
-      <c r="G129" t="n">
-        <v>87.03465254845933</v>
-      </c>
-      <c r="H129" t="n">
         <v>141.0151</v>
-      </c>
-      <c r="I129" t="n">
-        <v>194.9955474515406</v>
-      </c>
-      <c r="J129" t="n">
-        <v>252.7486622528274</v>
-      </c>
-      <c r="K129" t="n">
-        <v>320.3386060147162</v>
-      </c>
-      <c r="L129" t="n">
-        <v>414.0741801475974</v>
       </c>
     </row>
     <row r="130">
@@ -51735,31 +48623,7 @@
         <v>141.0151</v>
       </c>
       <c r="D130" t="n">
-        <v>-148.6073885508092</v>
-      </c>
-      <c r="E130" t="n">
-        <v>-49.1859364920476</v>
-      </c>
-      <c r="F130" t="n">
-        <v>22.50392528711848</v>
-      </c>
-      <c r="G130" t="n">
-        <v>83.76026886400288</v>
-      </c>
-      <c r="H130" t="n">
         <v>141.0151</v>
-      </c>
-      <c r="I130" t="n">
-        <v>198.2699311359971</v>
-      </c>
-      <c r="J130" t="n">
-        <v>259.5262747128815</v>
-      </c>
-      <c r="K130" t="n">
-        <v>331.2161364920476</v>
-      </c>
-      <c r="L130" t="n">
-        <v>430.6375885508091</v>
       </c>
     </row>
     <row r="131">
@@ -51775,31 +48639,7 @@
         <v>141.0151</v>
       </c>
       <c r="D131" t="n">
-        <v>-164.273469222097</v>
-      </c>
-      <c r="E131" t="n">
-        <v>-59.47417341852594</v>
-      </c>
-      <c r="F131" t="n">
-        <v>16.09349206147003</v>
-      </c>
-      <c r="G131" t="n">
-        <v>80.66327592023796</v>
-      </c>
-      <c r="H131" t="n">
         <v>141.0151</v>
-      </c>
-      <c r="I131" t="n">
-        <v>201.366924079762</v>
-      </c>
-      <c r="J131" t="n">
-        <v>265.9367079385299</v>
-      </c>
-      <c r="K131" t="n">
-        <v>341.5043734185259</v>
-      </c>
-      <c r="L131" t="n">
-        <v>446.303669222097</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -11,6 +11,8 @@
     <sheet name="ForecastData" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Leaderboard" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Predictions" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="StaticTrainFeatures" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="StaticForeFeatures" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -48088,19 +48090,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.172029810391302</v>
+        <v>-0.8749623999615133</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.172029810391302</v>
+        <v>-0.8749623999615133</v>
       </c>
       <c r="D2" t="n">
-        <v>1.432317972183228</v>
+        <v>1.487026691436768</v>
       </c>
       <c r="E2" t="n">
-        <v>2.549672842025757</v>
+        <v>2.735603094100952</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1955661773681641</v>
+        <v>0.2045183181762695</v>
       </c>
       <c r="G2" t="n">
         <v>11</v>
@@ -48113,19 +48115,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.172029810391302</v>
+        <v>-0.8749623999615133</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.172029810391302</v>
+        <v>-0.8749623999615133</v>
       </c>
       <c r="D3" t="n">
-        <v>1.432317972183228</v>
+        <v>1.48602819442749</v>
       </c>
       <c r="E3" t="n">
-        <v>2.549672842025757</v>
+        <v>2.735603094100952</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01391005516052246</v>
+        <v>0.02007508277893066</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -48134,26 +48136,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RecursiveTabular</t>
+          <t>PatchTST</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.188538900319776</v>
+        <v>-0.9254300371735228</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.188538900319776</v>
+        <v>-0.9254300371735228</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07042527198791504</v>
+        <v>0.0220029354095459</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07440757751464844</v>
+        <v>0.01500272750854492</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7704887390136719</v>
+        <v>7.933509826660156</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -48163,19 +48165,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.213364855807447</v>
+        <v>-0.9462526235421622</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.213364855807447</v>
+        <v>-0.9462526235421622</v>
       </c>
       <c r="D5" t="n">
-        <v>1.448801279067993</v>
+        <v>1.507088661193848</v>
       </c>
       <c r="E5" t="n">
-        <v>1.764728784561157</v>
+        <v>1.765743255615234</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01486587524414062</v>
+        <v>0.0193793773651123</v>
       </c>
       <c r="G5" t="n">
         <v>6</v>
@@ -48184,151 +48186,151 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PatchTST</t>
+          <t>TiDE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.213621897228156</v>
+        <v>-0.9760395097720848</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.213621897228156</v>
+        <v>-0.9760395097720848</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02283692359924316</v>
+        <v>0.04407238960266113</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01282906532287598</v>
+        <v>0.02701759338378906</v>
       </c>
       <c r="F6" t="n">
-        <v>8.080238342285156</v>
+        <v>8.328215599060059</v>
       </c>
       <c r="G6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DeepAR</t>
+          <t>TemporalFusionTransformer</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.247268613252186</v>
+        <v>-0.985695269258227</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.254678128548124</v>
+        <v>-0.985695269258227</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03077411651611328</v>
+        <v>0.06102490425109863</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02853631973266602</v>
+        <v>0.02599859237670898</v>
       </c>
       <c r="F7" t="n">
-        <v>7.885810375213623</v>
+        <v>7.813082695007324</v>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TemporalFusionTransformer</t>
+          <t>SeasonalNaive</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.256256766877077</v>
+        <v>-1.026231612016501</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.256256766877077</v>
+        <v>-1.026231612016501</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05809330940246582</v>
+        <v>0.01999950408935547</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02008247375488281</v>
+        <v>2.300961017608643</v>
       </c>
       <c r="F8" t="n">
-        <v>7.88484263420105</v>
+        <v>0.01728510856628418</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TiDE</t>
+          <t>RecursiveTabular</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.273159266743376</v>
+        <v>-1.032759537080203</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.273159266743376</v>
+        <v>-1.032759537080203</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0363609790802002</v>
+        <v>0.2102746963500977</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02002692222595215</v>
+        <v>0.202850341796875</v>
       </c>
       <c r="F9" t="n">
-        <v>8.466355800628662</v>
+        <v>0.8898618221282959</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DirectTabular</t>
+          <t>DeepAR</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.306608150616059</v>
+        <v>-1.151503902727677</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.306608150616059</v>
+        <v>-1.14770678772712</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08570742607116699</v>
+        <v>0.06625485420227051</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08419466018676758</v>
+        <v>0.05902457237243652</v>
       </c>
       <c r="F10" t="n">
-        <v>0.984818696975708</v>
+        <v>7.764278888702393</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SeasonalNaive</t>
+          <t>DirectTabular</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.540569800304447</v>
+        <v>-1.348311788268324</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.540569800304447</v>
+        <v>-1.348311788268324</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02271723747253418</v>
+        <v>0.09403491020202637</v>
       </c>
       <c r="E11" t="n">
-        <v>2.12247109413147</v>
+        <v>0.09365987777709961</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01421594619750977</v>
+        <v>1.144812345504761</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -48338,19 +48340,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2.273907674276966</v>
+        <v>-2.225465184814929</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.23260457941329</v>
+        <v>-2.177835962659605</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05217909812927246</v>
+        <v>0.1275568008422852</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05316591262817383</v>
+        <v>0.1252703666687012</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01602268218994141</v>
+        <v>0.02104854583740234</v>
       </c>
       <c r="G12" t="n">
         <v>4</v>
@@ -48367,7 +48369,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48560,1441 +48562,5639 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Shop B</t>
+          <t>Shop A</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45650</v>
+        <v>45619</v>
       </c>
       <c r="C5" t="n">
-        <v>139.0186</v>
+        <v>256.466953725876</v>
       </c>
       <c r="D5" t="n">
-        <v>78.15302990919193</v>
+        <v>137.4312258140539</v>
       </c>
       <c r="E5" t="n">
-        <v>99.04693006553585</v>
+        <v>178.2937464528434</v>
       </c>
       <c r="F5" t="n">
-        <v>114.1129020788061</v>
+        <v>207.758498736</v>
       </c>
       <c r="G5" t="n">
-        <v>126.9862196590167</v>
+        <v>232.9350431520663</v>
       </c>
       <c r="H5" t="n">
-        <v>139.0186</v>
+        <v>256.466953725876</v>
       </c>
       <c r="I5" t="n">
-        <v>151.0509803409833</v>
+        <v>279.9988642996857</v>
       </c>
       <c r="J5" t="n">
-        <v>163.9242979211939</v>
+        <v>305.175408715752</v>
       </c>
       <c r="K5" t="n">
-        <v>178.9902699344642</v>
+        <v>334.6401609989086</v>
       </c>
       <c r="L5" t="n">
-        <v>199.8841700908081</v>
+        <v>375.5026816376981</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Shop B</t>
+          <t>Shop A</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45651</v>
+        <v>45620</v>
       </c>
       <c r="C6" t="n">
-        <v>139.0186</v>
+        <v>256.466953725876</v>
       </c>
       <c r="D6" t="n">
-        <v>52.9459890341427</v>
+        <v>124.4073340698592</v>
       </c>
       <c r="E6" t="n">
-        <v>82.49294862120239</v>
+        <v>169.7406892600091</v>
       </c>
       <c r="F6" t="n">
-        <v>103.7983852742395</v>
+        <v>202.4292278024442</v>
       </c>
       <c r="G6" t="n">
-        <v>122.0030953306518</v>
+        <v>230.3603787111986</v>
       </c>
       <c r="H6" t="n">
-        <v>139.0186</v>
+        <v>256.466953725876</v>
       </c>
       <c r="I6" t="n">
-        <v>156.0341046693482</v>
+        <v>282.5735287405534</v>
       </c>
       <c r="J6" t="n">
-        <v>174.2388147257604</v>
+        <v>310.5046796493078</v>
       </c>
       <c r="K6" t="n">
-        <v>195.5442513787976</v>
+        <v>343.1932181917429</v>
       </c>
       <c r="L6" t="n">
-        <v>225.0912109658573</v>
+        <v>388.5265733818928</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Shop B</t>
+          <t>Shop A</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45652</v>
+        <v>45621</v>
       </c>
       <c r="C7" t="n">
-        <v>139.0186</v>
+        <v>256.466953725876</v>
       </c>
       <c r="D7" t="n">
-        <v>33.60336820458741</v>
+        <v>112.5573231659781</v>
       </c>
       <c r="E7" t="n">
-        <v>69.79025226408345</v>
+        <v>161.9585437241495</v>
       </c>
       <c r="F7" t="n">
-        <v>95.88354161687521</v>
+        <v>197.580299393582</v>
       </c>
       <c r="G7" t="n">
-        <v>118.1792952698719</v>
+        <v>228.0177761852127</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0186</v>
+        <v>256.466953725876</v>
       </c>
       <c r="I7" t="n">
-        <v>159.8579047301281</v>
+        <v>284.9161312665393</v>
       </c>
       <c r="J7" t="n">
-        <v>182.1536583831248</v>
+        <v>315.3536080581701</v>
       </c>
       <c r="K7" t="n">
-        <v>208.2469477359165</v>
+        <v>350.9753637276026</v>
       </c>
       <c r="L7" t="n">
-        <v>244.4338317954126</v>
+        <v>400.3765842857739</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Shop C</t>
+          <t>Shop A</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45633</v>
+        <v>45622</v>
       </c>
       <c r="C8" t="n">
-        <v>329.0037</v>
+        <v>256.466953725876</v>
       </c>
       <c r="D8" t="n">
-        <v>285.9390239695864</v>
+        <v>101.6114714461686</v>
       </c>
       <c r="E8" t="n">
-        <v>300.7222427893941</v>
+        <v>154.7701780940723</v>
       </c>
       <c r="F8" t="n">
-        <v>311.381983639053</v>
+        <v>193.1013455939703</v>
       </c>
       <c r="G8" t="n">
-        <v>320.4903391543514</v>
+        <v>225.85391489463</v>
       </c>
       <c r="H8" t="n">
-        <v>329.0037</v>
+        <v>256.466953725876</v>
       </c>
       <c r="I8" t="n">
-        <v>337.5170608456485</v>
+        <v>287.0799925571221</v>
       </c>
       <c r="J8" t="n">
-        <v>346.625416360947</v>
+        <v>319.8325618577818</v>
       </c>
       <c r="K8" t="n">
-        <v>357.2851572106059</v>
+        <v>358.1637293576797</v>
       </c>
       <c r="L8" t="n">
-        <v>372.0683760304136</v>
+        <v>411.3224360055834</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Shop C</t>
+          <t>Shop A</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45634</v>
+        <v>45623</v>
       </c>
       <c r="C9" t="n">
-        <v>329.0037</v>
+        <v>256.466953725876</v>
       </c>
       <c r="D9" t="n">
-        <v>268.1040961548985</v>
+        <v>91.38982321932988</v>
       </c>
       <c r="E9" t="n">
-        <v>289.0096794001068</v>
+        <v>148.0574117715057</v>
       </c>
       <c r="F9" t="n">
-        <v>304.0840757424177</v>
+        <v>188.9187299934832</v>
       </c>
       <c r="G9" t="n">
-        <v>316.9645916011758</v>
+        <v>223.8332197956838</v>
       </c>
       <c r="H9" t="n">
-        <v>329.0037</v>
+        <v>256.466953725876</v>
       </c>
       <c r="I9" t="n">
-        <v>341.0428083988241</v>
+        <v>289.1006876560683</v>
       </c>
       <c r="J9" t="n">
-        <v>353.9233242575823</v>
+        <v>324.0151774582688</v>
       </c>
       <c r="K9" t="n">
-        <v>368.9977205998932</v>
+        <v>364.8764956802463</v>
       </c>
       <c r="L9" t="n">
-        <v>389.9033038451015</v>
+        <v>421.5440842324222</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Shop C</t>
+          <t>Shop A</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45635</v>
+        <v>45624</v>
       </c>
       <c r="C10" t="n">
-        <v>329.0037</v>
+        <v>256.466953725876</v>
       </c>
       <c r="D10" t="n">
-        <v>254.4184657014062</v>
+        <v>81.76521463759519</v>
       </c>
       <c r="E10" t="n">
-        <v>280.0220448061008</v>
+        <v>141.7367336458668</v>
       </c>
       <c r="F10" t="n">
-        <v>298.4840266928936</v>
+        <v>184.9804181763297</v>
       </c>
       <c r="G10" t="n">
-        <v>314.2591094940193</v>
+        <v>221.9305521476892</v>
       </c>
       <c r="H10" t="n">
-        <v>329.0037</v>
+        <v>256.466953725876</v>
       </c>
       <c r="I10" t="n">
-        <v>343.7482905059807</v>
+        <v>291.0033553040628</v>
       </c>
       <c r="J10" t="n">
-        <v>359.5233733071063</v>
+        <v>327.9534892754223</v>
       </c>
       <c r="K10" t="n">
-        <v>377.9853551938992</v>
+        <v>371.1971738058852</v>
       </c>
       <c r="L10" t="n">
-        <v>403.5889342985937</v>
+        <v>431.1686928141568</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Shop D</t>
+          <t>Shop A</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45651</v>
+        <v>45625</v>
       </c>
       <c r="C11" t="n">
-        <v>467.9825</v>
+        <v>256.466953725876</v>
       </c>
       <c r="D11" t="n">
-        <v>429.0192577776508</v>
+        <v>72.64384238058238</v>
       </c>
       <c r="E11" t="n">
-        <v>442.3945386063135</v>
+        <v>135.7465411501301</v>
       </c>
       <c r="F11" t="n">
-        <v>452.039057108192</v>
+        <v>181.2480265841539</v>
       </c>
       <c r="G11" t="n">
-        <v>460.2799425600925</v>
+        <v>220.127368179079</v>
       </c>
       <c r="H11" t="n">
-        <v>467.9825</v>
+        <v>256.466953725876</v>
       </c>
       <c r="I11" t="n">
-        <v>475.6850574399075</v>
+        <v>292.8065392726731</v>
       </c>
       <c r="J11" t="n">
-        <v>483.9259428918081</v>
+        <v>331.6858808675981</v>
       </c>
       <c r="K11" t="n">
-        <v>493.5704613936866</v>
+        <v>377.1873663016219</v>
       </c>
       <c r="L11" t="n">
-        <v>506.9457422223492</v>
+        <v>440.2900650711696</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Shop D</t>
+          <t>Shop B</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45652</v>
+        <v>45650</v>
       </c>
       <c r="C12" t="n">
-        <v>467.9825</v>
+        <v>139.0186</v>
       </c>
       <c r="D12" t="n">
-        <v>412.8829094635236</v>
+        <v>78.15302990919193</v>
       </c>
       <c r="E12" t="n">
-        <v>431.7974672604353</v>
+        <v>99.04693006553585</v>
       </c>
       <c r="F12" t="n">
-        <v>445.4361941749569</v>
+        <v>114.1129020788061</v>
       </c>
       <c r="G12" t="n">
-        <v>457.0899834429679</v>
+        <v>126.9862196590167</v>
       </c>
       <c r="H12" t="n">
-        <v>467.9825</v>
+        <v>139.0186</v>
       </c>
       <c r="I12" t="n">
-        <v>478.8750165570322</v>
+        <v>151.0509803409833</v>
       </c>
       <c r="J12" t="n">
-        <v>490.5288058250431</v>
+        <v>163.9242979211939</v>
       </c>
       <c r="K12" t="n">
-        <v>504.1675327395647</v>
+        <v>178.9902699344642</v>
       </c>
       <c r="L12" t="n">
-        <v>523.0820905364764</v>
+        <v>199.8841700908081</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Shop D</t>
+          <t>Shop B</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45653</v>
+        <v>45651</v>
       </c>
       <c r="C13" t="n">
-        <v>467.9825</v>
+        <v>139.0186</v>
       </c>
       <c r="D13" t="n">
-        <v>400.5006838559656</v>
+        <v>52.9459890341427</v>
       </c>
       <c r="E13" t="n">
-        <v>423.6658053980564</v>
+        <v>82.49294862120239</v>
       </c>
       <c r="F13" t="n">
-        <v>440.3694878233395</v>
+        <v>103.7983852742395</v>
       </c>
       <c r="G13" t="n">
-        <v>454.6421685657603</v>
+        <v>122.0030953306518</v>
       </c>
       <c r="H13" t="n">
-        <v>467.9825</v>
+        <v>139.0186</v>
       </c>
       <c r="I13" t="n">
-        <v>481.3228314342397</v>
+        <v>156.0341046693482</v>
       </c>
       <c r="J13" t="n">
-        <v>495.5955121766605</v>
+        <v>174.2388147257604</v>
       </c>
       <c r="K13" t="n">
-        <v>512.2991946019437</v>
+        <v>195.5442513787976</v>
       </c>
       <c r="L13" t="n">
-        <v>535.4643161440345</v>
+        <v>225.0912109658573</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop B</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45655</v>
+        <v>45652</v>
       </c>
       <c r="C14" t="n">
-        <v>33.0444</v>
+        <v>139.0186</v>
       </c>
       <c r="D14" t="n">
-        <v>-66.46106465691005</v>
+        <v>33.60336820458741</v>
       </c>
       <c r="E14" t="n">
-        <v>-32.30288228138562</v>
+        <v>69.79025226408345</v>
       </c>
       <c r="F14" t="n">
-        <v>-7.672429573034819</v>
+        <v>95.88354161687521</v>
       </c>
       <c r="G14" t="n">
-        <v>13.3733841042822</v>
+        <v>118.1792952698719</v>
       </c>
       <c r="H14" t="n">
-        <v>33.0444</v>
+        <v>139.0186</v>
       </c>
       <c r="I14" t="n">
-        <v>52.7154158957178</v>
+        <v>159.8579047301281</v>
       </c>
       <c r="J14" t="n">
-        <v>73.76122957303481</v>
+        <v>182.1536583831248</v>
       </c>
       <c r="K14" t="n">
-        <v>98.39168228138561</v>
+        <v>208.2469477359165</v>
       </c>
       <c r="L14" t="n">
-        <v>132.54986465691</v>
+        <v>244.4338317954126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop B</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45656</v>
+        <v>45653</v>
       </c>
       <c r="C15" t="n">
-        <v>33.0444</v>
+        <v>139.0186</v>
       </c>
       <c r="D15" t="n">
-        <v>-107.6705417250677</v>
+        <v>17.29658953976599</v>
       </c>
       <c r="E15" t="n">
-        <v>-59.3659922314398</v>
+        <v>59.08125580660938</v>
       </c>
       <c r="F15" t="n">
-        <v>-24.53501355637127</v>
+        <v>89.2109399655987</v>
       </c>
       <c r="G15" t="n">
-        <v>5.226773450716905</v>
+        <v>114.9556441525222</v>
       </c>
       <c r="H15" t="n">
-        <v>33.0444</v>
+        <v>139.0186</v>
       </c>
       <c r="I15" t="n">
-        <v>60.86202654928309</v>
+        <v>163.0815558474778</v>
       </c>
       <c r="J15" t="n">
-        <v>90.62381355637126</v>
+        <v>188.8262600344013</v>
       </c>
       <c r="K15" t="n">
-        <v>125.4547922314398</v>
+        <v>218.9559441933906</v>
       </c>
       <c r="L15" t="n">
-        <v>173.7593417250677</v>
+        <v>260.740610460234</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop B</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45657</v>
+        <v>45654</v>
       </c>
       <c r="C16" t="n">
-        <v>33.0444</v>
+        <v>139.0186</v>
       </c>
       <c r="D16" t="n">
-        <v>-139.2926307066674</v>
+        <v>2.929935642963756</v>
       </c>
       <c r="E16" t="n">
-        <v>-80.13286751947143</v>
+        <v>49.6463791305362</v>
       </c>
       <c r="F16" t="n">
-        <v>-37.47451604748119</v>
+        <v>83.33222164326533</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.02452759247312</v>
+        <v>112.1155320225333</v>
       </c>
       <c r="H16" t="n">
-        <v>33.0444</v>
+        <v>139.0186</v>
       </c>
       <c r="I16" t="n">
-        <v>67.11332759247311</v>
+        <v>165.9216679774667</v>
       </c>
       <c r="J16" t="n">
-        <v>103.5633160474812</v>
+        <v>194.7049783567347</v>
       </c>
       <c r="K16" t="n">
-        <v>146.2216675194714</v>
+        <v>228.3908208694638</v>
       </c>
       <c r="L16" t="n">
-        <v>205.3814307066674</v>
+        <v>275.1072643570362</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Shop F</t>
+          <t>Shop B</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45636</v>
+        <v>45655</v>
       </c>
       <c r="C17" t="n">
-        <v>71.02840000000003</v>
+        <v>139.0186</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.803102260139951</v>
+        <v>-10.05856559715917</v>
       </c>
       <c r="E17" t="n">
-        <v>19.9148539639686</v>
+        <v>41.11656360857533</v>
       </c>
       <c r="F17" t="n">
-        <v>39.18038015640522</v>
+        <v>78.01743221710981</v>
       </c>
       <c r="G17" t="n">
-        <v>55.64206193881206</v>
+        <v>109.5478638523785</v>
       </c>
       <c r="H17" t="n">
-        <v>71.02840000000003</v>
+        <v>139.0186</v>
       </c>
       <c r="I17" t="n">
-        <v>86.414738061188</v>
+        <v>168.4893361476215</v>
       </c>
       <c r="J17" t="n">
-        <v>102.8764198435948</v>
+        <v>200.0197677828902</v>
       </c>
       <c r="K17" t="n">
-        <v>122.1419460360315</v>
+        <v>236.9206363914246</v>
       </c>
       <c r="L17" t="n">
-        <v>148.85990226014</v>
+        <v>288.0957655971591</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Shop F</t>
+          <t>Shop B</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45637</v>
+        <v>45656</v>
       </c>
       <c r="C18" t="n">
-        <v>71.02840000000003</v>
+        <v>139.0186</v>
       </c>
       <c r="D18" t="n">
-        <v>-39.03646269545317</v>
+        <v>-22.0027589511763</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.253455841997265</v>
+        <v>33.27256652339408</v>
       </c>
       <c r="F18" t="n">
-        <v>25.99075034123797</v>
+        <v>73.12996511306953</v>
       </c>
       <c r="G18" t="n">
-        <v>49.2699199898079</v>
+        <v>107.1866426055002</v>
       </c>
       <c r="H18" t="n">
-        <v>71.02840000000003</v>
+        <v>139.0186</v>
       </c>
       <c r="I18" t="n">
-        <v>92.78688001019216</v>
+        <v>170.8505573944998</v>
       </c>
       <c r="J18" t="n">
-        <v>116.0660496587621</v>
+        <v>204.9072348869304</v>
       </c>
       <c r="K18" t="n">
-        <v>143.3102558419973</v>
+        <v>244.7646334766059</v>
       </c>
       <c r="L18" t="n">
-        <v>181.0932626954532</v>
+        <v>300.0399589511763</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Shop F</t>
+          <t>Shop B</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45638</v>
+        <v>45657</v>
       </c>
       <c r="C19" t="n">
-        <v>71.02840000000003</v>
+        <v>139.0186</v>
       </c>
       <c r="D19" t="n">
-        <v>-63.77072928601484</v>
+        <v>-33.12016604206363</v>
       </c>
       <c r="E19" t="n">
-        <v>-17.49695670387919</v>
+        <v>25.9715369577295</v>
       </c>
       <c r="F19" t="n">
-        <v>15.86968894170235</v>
+        <v>68.58081224619455</v>
       </c>
       <c r="G19" t="n">
-        <v>44.38025736726296</v>
+        <v>104.9888669118933</v>
       </c>
       <c r="H19" t="n">
-        <v>71.02840000000003</v>
+        <v>139.0186</v>
       </c>
       <c r="I19" t="n">
-        <v>97.67654263273711</v>
+        <v>173.0483330881067</v>
       </c>
       <c r="J19" t="n">
-        <v>126.1871110582977</v>
+        <v>209.4563877538054</v>
       </c>
       <c r="K19" t="n">
-        <v>159.5537567038793</v>
+        <v>252.0656630422705</v>
       </c>
       <c r="L19" t="n">
-        <v>205.8275292860149</v>
+        <v>311.1573660420636</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Shop G</t>
+          <t>Shop B</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45606</v>
+        <v>45658</v>
       </c>
       <c r="C20" t="n">
-        <v>14.00600000000001</v>
+        <v>139.0186</v>
       </c>
       <c r="D20" t="n">
-        <v>-34.26013937460687</v>
+        <v>-43.56187954391251</v>
       </c>
       <c r="E20" t="n">
-        <v>-17.69136501628511</v>
+        <v>19.11424924936755</v>
       </c>
       <c r="F20" t="n">
-        <v>-5.744112999725971</v>
+        <v>64.30814771896335</v>
       </c>
       <c r="G20" t="n">
-        <v>4.4643733352087</v>
+        <v>102.9246675939804</v>
       </c>
       <c r="H20" t="n">
-        <v>14.00600000000001</v>
+        <v>139.0186</v>
       </c>
       <c r="I20" t="n">
-        <v>23.54762666479133</v>
+        <v>175.1125324060196</v>
       </c>
       <c r="J20" t="n">
-        <v>33.756112999726</v>
+        <v>213.7290522810366</v>
       </c>
       <c r="K20" t="n">
-        <v>45.70336501628515</v>
+        <v>258.9229507506324</v>
       </c>
       <c r="L20" t="n">
-        <v>62.27213937460689</v>
+        <v>321.5990795439125</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Shop G</t>
+          <t>Shop B</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45607</v>
+        <v>45659</v>
       </c>
       <c r="C21" t="n">
-        <v>14.00600000000001</v>
+        <v>139.0186</v>
       </c>
       <c r="D21" t="n">
-        <v>-54.24921606084129</v>
+        <v>-53.4379100132646</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.81860221138237</v>
+        <v>12.62845720643276</v>
       </c>
       <c r="F21" t="n">
-        <v>-13.92348115364585</v>
+        <v>60.26695610335511</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5127768415749845</v>
+        <v>100.972296907415</v>
       </c>
       <c r="H21" t="n">
-        <v>14.00600000000001</v>
+        <v>139.0186</v>
       </c>
       <c r="I21" t="n">
-        <v>27.49922315842505</v>
+        <v>177.064903092585</v>
       </c>
       <c r="J21" t="n">
-        <v>41.93548115364588</v>
+        <v>217.7702438966449</v>
       </c>
       <c r="K21" t="n">
-        <v>58.8306022113824</v>
+        <v>265.4087427935672</v>
       </c>
       <c r="L21" t="n">
-        <v>82.26121606084132</v>
+        <v>331.4751100132646</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Shop G</t>
+          <t>Shop C</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45608</v>
+        <v>45633</v>
       </c>
       <c r="C22" t="n">
-        <v>14.00600000000001</v>
+        <v>329.0037</v>
       </c>
       <c r="D22" t="n">
-        <v>-69.5878324812021</v>
+        <v>285.9390239695864</v>
       </c>
       <c r="E22" t="n">
-        <v>-40.89178663882284</v>
+        <v>300.7222427893941</v>
       </c>
       <c r="F22" t="n">
-        <v>-20.19991866215221</v>
+        <v>311.381983639053</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.519480416491923</v>
+        <v>320.4903391543514</v>
       </c>
       <c r="H22" t="n">
-        <v>14.00600000000001</v>
+        <v>329.0037</v>
       </c>
       <c r="I22" t="n">
-        <v>30.53148041649195</v>
+        <v>337.5170608456485</v>
       </c>
       <c r="J22" t="n">
-        <v>48.21191866215224</v>
+        <v>346.625416360947</v>
       </c>
       <c r="K22" t="n">
-        <v>68.90378663882288</v>
+        <v>357.2851572106059</v>
       </c>
       <c r="L22" t="n">
-        <v>97.59983248120213</v>
+        <v>372.0683760304136</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop C</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45657</v>
+        <v>45634</v>
       </c>
       <c r="C23" t="n">
-        <v>42.89624510519388</v>
+        <v>329.0037</v>
       </c>
       <c r="D23" t="n">
-        <v>-53.10328301253507</v>
+        <v>268.1040961548985</v>
       </c>
       <c r="E23" t="n">
-        <v>-20.14861664605876</v>
+        <v>289.0096794001068</v>
       </c>
       <c r="F23" t="n">
-        <v>3.614016345811962</v>
+        <v>304.0840757424177</v>
       </c>
       <c r="G23" t="n">
-        <v>23.91831007321958</v>
+        <v>316.9645916011758</v>
       </c>
       <c r="H23" t="n">
-        <v>42.89624510519388</v>
+        <v>329.0037</v>
       </c>
       <c r="I23" t="n">
-        <v>61.87418013716818</v>
+        <v>341.0428083988241</v>
       </c>
       <c r="J23" t="n">
-        <v>82.17847386457581</v>
+        <v>353.9233242575823</v>
       </c>
       <c r="K23" t="n">
-        <v>105.9411068564465</v>
+        <v>368.9977205998932</v>
       </c>
       <c r="L23" t="n">
-        <v>138.8957732229229</v>
+        <v>389.9033038451015</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop C</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45658</v>
+        <v>45635</v>
       </c>
       <c r="C24" t="n">
-        <v>42.89624510519388</v>
+        <v>329.0037</v>
       </c>
       <c r="D24" t="n">
-        <v>-87.12961562062114</v>
+        <v>254.4184657014062</v>
       </c>
       <c r="E24" t="n">
-        <v>-42.49440810191028</v>
+        <v>280.0220448061008</v>
       </c>
       <c r="F24" t="n">
-        <v>-10.30928314910304</v>
+        <v>298.4840266928936</v>
       </c>
       <c r="G24" t="n">
-        <v>17.19171940893328</v>
+        <v>314.2591094940193</v>
       </c>
       <c r="H24" t="n">
-        <v>42.89624510519388</v>
+        <v>329.0037</v>
       </c>
       <c r="I24" t="n">
-        <v>68.60077080145449</v>
+        <v>343.7482905059807</v>
       </c>
       <c r="J24" t="n">
-        <v>96.10177335949081</v>
+        <v>359.5233733071063</v>
       </c>
       <c r="K24" t="n">
-        <v>128.286898312298</v>
+        <v>377.9853551938992</v>
       </c>
       <c r="L24" t="n">
-        <v>172.9221058310089</v>
+        <v>403.5889342985937</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop C</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45659</v>
+        <v>45636</v>
       </c>
       <c r="C25" t="n">
-        <v>42.89624510519388</v>
+        <v>329.0037</v>
       </c>
       <c r="D25" t="n">
-        <v>-113.939782376222</v>
+        <v>242.880807559825</v>
       </c>
       <c r="E25" t="n">
-        <v>-60.10119523696849</v>
+        <v>272.4450277443381</v>
       </c>
       <c r="F25" t="n">
-        <v>-21.27978606948349</v>
+        <v>293.7629105025169</v>
       </c>
       <c r="G25" t="n">
-        <v>11.89167666017911</v>
+        <v>311.978255296866</v>
       </c>
       <c r="H25" t="n">
-        <v>42.89624510519388</v>
+        <v>329.0037</v>
       </c>
       <c r="I25" t="n">
-        <v>73.90081355020865</v>
+        <v>346.029144703134</v>
       </c>
       <c r="J25" t="n">
-        <v>107.0722762798713</v>
+        <v>364.2444894974831</v>
       </c>
       <c r="K25" t="n">
-        <v>145.8936854473563</v>
+        <v>385.5623722556619</v>
       </c>
       <c r="L25" t="n">
-        <v>199.7322725866098</v>
+        <v>415.1265924401749</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop C</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>45653</v>
+        <v>45637</v>
       </c>
       <c r="C26" t="n">
-        <v>376.00399881</v>
+        <v>329.0037</v>
       </c>
       <c r="D26" t="n">
-        <v>297.0629661435526</v>
+        <v>232.7158605333894</v>
       </c>
       <c r="E26" t="n">
-        <v>324.1618013686337</v>
+        <v>265.7694982646042</v>
       </c>
       <c r="F26" t="n">
-        <v>343.7019681176997</v>
+        <v>289.6034965736301</v>
       </c>
       <c r="G26" t="n">
-        <v>360.3983201293344</v>
+        <v>309.9687693331998</v>
       </c>
       <c r="H26" t="n">
-        <v>376.00399881</v>
+        <v>329.0037</v>
       </c>
       <c r="I26" t="n">
-        <v>391.6096774906655</v>
+        <v>348.0386306668002</v>
       </c>
       <c r="J26" t="n">
-        <v>408.3060295023003</v>
+        <v>368.4039034263699</v>
       </c>
       <c r="K26" t="n">
-        <v>427.8461962513662</v>
+        <v>392.2379017353958</v>
       </c>
       <c r="L26" t="n">
-        <v>454.9450314764474</v>
+        <v>425.2915394666106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop C</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>45654</v>
+        <v>45638</v>
       </c>
       <c r="C27" t="n">
-        <v>376.00399881</v>
+        <v>329.0037</v>
       </c>
       <c r="D27" t="n">
-        <v>264.3701016197675</v>
+        <v>223.526008254145</v>
       </c>
       <c r="E27" t="n">
-        <v>302.6917257904828</v>
+        <v>259.7343335318268</v>
       </c>
       <c r="F27" t="n">
-        <v>330.3243129541465</v>
+        <v>285.8430835114378</v>
       </c>
       <c r="G27" t="n">
-        <v>353.9353398302995</v>
+        <v>308.1520476999949</v>
       </c>
       <c r="H27" t="n">
-        <v>376.00399881</v>
+        <v>329.0037</v>
       </c>
       <c r="I27" t="n">
-        <v>398.0726577897005</v>
+        <v>349.8553523000051</v>
       </c>
       <c r="J27" t="n">
-        <v>421.6836846658535</v>
+        <v>372.1643164885622</v>
       </c>
       <c r="K27" t="n">
-        <v>449.3162718295171</v>
+        <v>398.2730664681732</v>
       </c>
       <c r="L27" t="n">
-        <v>487.6378960002324</v>
+        <v>434.4813917458549</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop C</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>45655</v>
+        <v>45639</v>
       </c>
       <c r="C28" t="n">
-        <v>376.00399881</v>
+        <v>329.0037</v>
       </c>
       <c r="D28" t="n">
-        <v>239.2832346031186</v>
+        <v>215.0750430127458</v>
       </c>
       <c r="E28" t="n">
-        <v>286.2166649870891</v>
+        <v>254.1844110920491</v>
       </c>
       <c r="F28" t="n">
-        <v>320.0589703183403</v>
+        <v>282.3850170359118</v>
       </c>
       <c r="G28" t="n">
-        <v>348.975972407015</v>
+        <v>306.4813950160352</v>
       </c>
       <c r="H28" t="n">
-        <v>376.00399881</v>
+        <v>329.0037</v>
       </c>
       <c r="I28" t="n">
-        <v>403.0320252129849</v>
+        <v>351.5260049839648</v>
       </c>
       <c r="J28" t="n">
-        <v>431.9490273016597</v>
+        <v>375.6223829640882</v>
       </c>
       <c r="K28" t="n">
-        <v>465.7913326329109</v>
+        <v>403.8229889079509</v>
       </c>
       <c r="L28" t="n">
-        <v>512.7247630168814</v>
+        <v>442.9323569872541</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Shop J</t>
+          <t>Shop C</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45658</v>
+        <v>45640</v>
       </c>
       <c r="C29" t="n">
-        <v>477.7351935800963</v>
+        <v>329.0037</v>
       </c>
       <c r="D29" t="n">
-        <v>410.4719176319381</v>
+        <v>207.2090600941107</v>
       </c>
       <c r="E29" t="n">
-        <v>433.5620188131586</v>
+        <v>249.0186585579855</v>
       </c>
       <c r="F29" t="n">
-        <v>450.2116062801602</v>
+        <v>279.1663205851513</v>
       </c>
       <c r="G29" t="n">
-        <v>464.4380648752921</v>
+        <v>304.9263861975605</v>
       </c>
       <c r="H29" t="n">
-        <v>477.7351935800963</v>
+        <v>329.0037</v>
       </c>
       <c r="I29" t="n">
-        <v>491.0323222849004</v>
+        <v>353.0810138024394</v>
       </c>
       <c r="J29" t="n">
-        <v>505.2587808800324</v>
+        <v>378.8410794148487</v>
       </c>
       <c r="K29" t="n">
-        <v>521.908368347034</v>
+        <v>408.9887414420145</v>
       </c>
       <c r="L29" t="n">
-        <v>544.9984695282544</v>
+        <v>450.7983399058893</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Shop J</t>
+          <t>Shop C</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>45659</v>
+        <v>45641</v>
       </c>
       <c r="C30" t="n">
-        <v>477.7351935800963</v>
+        <v>329.0037</v>
       </c>
       <c r="D30" t="n">
-        <v>385.2410413368301</v>
+        <v>199.8211557585621</v>
       </c>
       <c r="E30" t="n">
-        <v>416.9923841589412</v>
+        <v>244.166870048203</v>
       </c>
       <c r="F30" t="n">
-        <v>439.8873362149091</v>
+        <v>276.1432500154132</v>
       </c>
       <c r="G30" t="n">
-        <v>459.4502285752936</v>
+        <v>303.4658876799997</v>
       </c>
       <c r="H30" t="n">
-        <v>477.7351935800963</v>
+        <v>329.0037</v>
       </c>
       <c r="I30" t="n">
-        <v>496.020158584899</v>
+        <v>354.5415123200003</v>
       </c>
       <c r="J30" t="n">
-        <v>515.5830509452835</v>
+        <v>381.8641499845867</v>
       </c>
       <c r="K30" t="n">
-        <v>538.4780030012514</v>
+        <v>413.840529951797</v>
       </c>
       <c r="L30" t="n">
-        <v>570.2293458233625</v>
+        <v>458.1862442414379</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Shop J</t>
+          <t>Shop C</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>45660</v>
+        <v>45642</v>
       </c>
       <c r="C31" t="n">
-        <v>477.7351935800963</v>
+        <v>329.0037</v>
       </c>
       <c r="D31" t="n">
-        <v>365.5479032699951</v>
+        <v>192.8334934070125</v>
       </c>
       <c r="E31" t="n">
-        <v>404.0594959331848</v>
+        <v>239.5779286694743</v>
       </c>
       <c r="F31" t="n">
-        <v>431.8290637452485</v>
+        <v>273.2839552212735</v>
       </c>
       <c r="G31" t="n">
-        <v>455.5571355347761</v>
+        <v>302.0845121177109</v>
       </c>
       <c r="H31" t="n">
-        <v>477.7351935800963</v>
+        <v>329.0037</v>
       </c>
       <c r="I31" t="n">
-        <v>499.9132516254165</v>
+        <v>355.922887882289</v>
       </c>
       <c r="J31" t="n">
-        <v>523.6413234149441</v>
+        <v>384.7234447787264</v>
       </c>
       <c r="K31" t="n">
-        <v>551.4108912270077</v>
+        <v>418.4294713305257</v>
       </c>
       <c r="L31" t="n">
-        <v>589.9224838901974</v>
+        <v>465.1739065929875</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Shop K</t>
+          <t>Shop D</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>45635</v>
+        <v>45651</v>
       </c>
       <c r="C32" t="n">
-        <v>298.7870730378873</v>
+        <v>467.9825</v>
       </c>
       <c r="D32" t="n">
-        <v>238.7588930246509</v>
+        <v>429.0192577776508</v>
       </c>
       <c r="E32" t="n">
-        <v>259.3653343656647</v>
+        <v>442.3945386063135</v>
       </c>
       <c r="F32" t="n">
-        <v>274.2240283487766</v>
+        <v>452.039057108192</v>
       </c>
       <c r="G32" t="n">
-        <v>286.9202344948708</v>
+        <v>460.2799425600925</v>
       </c>
       <c r="H32" t="n">
-        <v>298.7870730378873</v>
+        <v>467.9825</v>
       </c>
       <c r="I32" t="n">
-        <v>310.6539115809038</v>
+        <v>475.6850574399075</v>
       </c>
       <c r="J32" t="n">
-        <v>323.350117726998</v>
+        <v>483.9259428918081</v>
       </c>
       <c r="K32" t="n">
-        <v>338.2088117101099</v>
+        <v>493.5704613936866</v>
       </c>
       <c r="L32" t="n">
-        <v>358.8152530511237</v>
+        <v>506.9457422223492</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Shop K</t>
+          <t>Shop D</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>45636</v>
+        <v>45652</v>
       </c>
       <c r="C33" t="n">
-        <v>298.7870730378873</v>
+        <v>467.9825</v>
       </c>
       <c r="D33" t="n">
-        <v>217.8484265815807</v>
+        <v>412.8829094635236</v>
       </c>
       <c r="E33" t="n">
-        <v>245.6330015937695</v>
+        <v>431.7974672604353</v>
       </c>
       <c r="F33" t="n">
-        <v>265.6676349748975</v>
+        <v>445.4361941749569</v>
       </c>
       <c r="G33" t="n">
-        <v>282.7864904918982</v>
+        <v>457.0899834429679</v>
       </c>
       <c r="H33" t="n">
-        <v>298.7870730378873</v>
+        <v>467.9825</v>
       </c>
       <c r="I33" t="n">
-        <v>314.7876555838764</v>
+        <v>478.8750165570322</v>
       </c>
       <c r="J33" t="n">
-        <v>331.9065111008771</v>
+        <v>490.5288058250431</v>
       </c>
       <c r="K33" t="n">
-        <v>351.9411444820051</v>
+        <v>504.1675327395647</v>
       </c>
       <c r="L33" t="n">
-        <v>379.7257194941939</v>
+        <v>523.0820905364764</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Shop K</t>
+          <t>Shop D</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>45637</v>
+        <v>45653</v>
       </c>
       <c r="C34" t="n">
-        <v>298.7870730378873</v>
+        <v>467.9825</v>
       </c>
       <c r="D34" t="n">
-        <v>201.3255596869421</v>
+        <v>400.5006838559656</v>
       </c>
       <c r="E34" t="n">
-        <v>234.7820955577588</v>
+        <v>423.6658053980564</v>
       </c>
       <c r="F34" t="n">
-        <v>258.9066117715329</v>
+        <v>440.3694878233395</v>
       </c>
       <c r="G34" t="n">
-        <v>279.5201213688764</v>
+        <v>454.6421685657603</v>
       </c>
       <c r="H34" t="n">
-        <v>298.7870730378873</v>
+        <v>467.9825</v>
       </c>
       <c r="I34" t="n">
-        <v>318.0540247068982</v>
+        <v>481.3228314342397</v>
       </c>
       <c r="J34" t="n">
-        <v>338.6675343042417</v>
+        <v>495.5955121766605</v>
       </c>
       <c r="K34" t="n">
-        <v>362.7920505180158</v>
+        <v>512.2991946019437</v>
       </c>
       <c r="L34" t="n">
-        <v>396.2485863888325</v>
+        <v>535.4643161440345</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Shop L</t>
+          <t>Shop D</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
         <v>45654</v>
       </c>
       <c r="C35" t="n">
-        <v>303.016</v>
+        <v>467.9825</v>
       </c>
       <c r="D35" t="n">
-        <v>218.7855075388185</v>
+        <v>390.0618599685734</v>
       </c>
       <c r="E35" t="n">
-        <v>247.700105676615</v>
+        <v>416.8104153588549</v>
       </c>
       <c r="F35" t="n">
-        <v>268.549565234635</v>
+        <v>436.0980057029216</v>
       </c>
       <c r="G35" t="n">
-        <v>286.3646596759188</v>
+        <v>452.5785404893576</v>
       </c>
       <c r="H35" t="n">
-        <v>303.016</v>
+        <v>467.9825</v>
       </c>
       <c r="I35" t="n">
-        <v>319.6673403240811</v>
+        <v>483.3864595106424</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4824347653649</v>
+        <v>499.8669942970785</v>
       </c>
       <c r="K35" t="n">
-        <v>358.3318943233849</v>
+        <v>519.1545846411451</v>
       </c>
       <c r="L35" t="n">
-        <v>387.2464924611814</v>
+        <v>545.9031400314266</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Shop L</t>
+          <t>Shop D</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
         <v>45655</v>
       </c>
       <c r="C36" t="n">
-        <v>303.016</v>
+        <v>467.9825</v>
       </c>
       <c r="D36" t="n">
-        <v>183.9020510423652</v>
+        <v>380.8650116539907</v>
       </c>
       <c r="E36" t="n">
-        <v>224.79142335968</v>
+        <v>410.7706561859864</v>
       </c>
       <c r="F36" t="n">
-        <v>254.2755375922162</v>
+        <v>432.3347299197768</v>
       </c>
       <c r="G36" t="n">
-        <v>279.4686260801231</v>
+        <v>450.7604358253532</v>
       </c>
       <c r="H36" t="n">
-        <v>303.016</v>
+        <v>467.9825</v>
       </c>
       <c r="I36" t="n">
-        <v>326.5633739198768</v>
+        <v>485.2045641746469</v>
       </c>
       <c r="J36" t="n">
-        <v>351.7564624077837</v>
+        <v>503.6302700802232</v>
       </c>
       <c r="K36" t="n">
-        <v>381.24057664032</v>
+        <v>525.1943438140137</v>
       </c>
       <c r="L36" t="n">
-        <v>422.1299489576347</v>
+        <v>555.0999883460092</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Shop L</t>
+          <t>Shop D</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
         <v>45656</v>
       </c>
       <c r="C37" t="n">
-        <v>303.016</v>
+        <v>467.9825</v>
       </c>
       <c r="D37" t="n">
-        <v>157.1342334480732</v>
+        <v>372.5503911030099</v>
       </c>
       <c r="E37" t="n">
-        <v>207.2124477886194</v>
+        <v>405.3102741046509</v>
       </c>
       <c r="F37" t="n">
-        <v>243.3223636053724</v>
+        <v>428.9324545863967</v>
       </c>
       <c r="G37" t="n">
-        <v>274.176955243687</v>
+        <v>449.1167368225985</v>
       </c>
       <c r="H37" t="n">
-        <v>303.016</v>
+        <v>467.9825</v>
       </c>
       <c r="I37" t="n">
-        <v>331.8550447563129</v>
+        <v>486.8482631774016</v>
       </c>
       <c r="J37" t="n">
-        <v>362.7096363946275</v>
+        <v>507.0325454136034</v>
       </c>
       <c r="K37" t="n">
-        <v>398.8195522113805</v>
+        <v>530.6547258953491</v>
       </c>
       <c r="L37" t="n">
-        <v>448.8977665519268</v>
+        <v>563.4146088969901</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Shop M</t>
+          <t>Shop D</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>45623</v>
+        <v>45657</v>
       </c>
       <c r="C38" t="n">
-        <v>141.0151</v>
+        <v>467.9825</v>
       </c>
       <c r="D38" t="n">
-        <v>44.46568836082309</v>
+        <v>364.9042867765605</v>
       </c>
       <c r="E38" t="n">
-        <v>77.609118446716</v>
+        <v>400.2889203579377</v>
       </c>
       <c r="F38" t="n">
-        <v>101.5078633608497</v>
+        <v>425.8037306732817</v>
       </c>
       <c r="G38" t="n">
-        <v>121.928459707179</v>
+        <v>447.6051953181746</v>
       </c>
       <c r="H38" t="n">
-        <v>141.0151</v>
+        <v>467.9825</v>
       </c>
       <c r="I38" t="n">
-        <v>160.1017402928209</v>
+        <v>488.3598046818254</v>
       </c>
       <c r="J38" t="n">
-        <v>180.5223366391503</v>
+        <v>510.1612693267184</v>
       </c>
       <c r="K38" t="n">
-        <v>204.421081553284</v>
+        <v>535.6760796420624</v>
       </c>
       <c r="L38" t="n">
-        <v>237.5645116391769</v>
+        <v>571.0607132234396</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Shop M</t>
+          <t>Shop D</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>45624</v>
+        <v>45658</v>
       </c>
       <c r="C39" t="n">
-        <v>141.0151</v>
+        <v>467.9825</v>
       </c>
       <c r="D39" t="n">
-        <v>4.480439524416823</v>
+        <v>357.7874516804554</v>
       </c>
       <c r="E39" t="n">
-        <v>51.3499843196273</v>
+        <v>395.6151485849122</v>
       </c>
       <c r="F39" t="n">
-        <v>85.14622364668068</v>
+        <v>422.8915794391095</v>
       </c>
       <c r="G39" t="n">
-        <v>114.0238640332915</v>
+        <v>446.1982838808441</v>
       </c>
       <c r="H39" t="n">
-        <v>141.0151</v>
+        <v>467.9825</v>
       </c>
       <c r="I39" t="n">
-        <v>168.0063359667085</v>
+        <v>489.7667161191559</v>
       </c>
       <c r="J39" t="n">
-        <v>196.8839763533193</v>
+        <v>513.0734205608906</v>
       </c>
       <c r="K39" t="n">
-        <v>230.6802156803727</v>
+        <v>540.3498514150879</v>
       </c>
       <c r="L39" t="n">
-        <v>277.5497604755832</v>
+        <v>578.1775483195446</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>Shop D</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="C40" t="n">
+        <v>467.9825</v>
+      </c>
+      <c r="D40" t="n">
+        <v>351.1031634731499</v>
+      </c>
+      <c r="E40" t="n">
+        <v>391.2254392374006</v>
+      </c>
+      <c r="F40" t="n">
+        <v>420.1564228857251</v>
+      </c>
+      <c r="G40" t="n">
+        <v>444.8768816841826</v>
+      </c>
+      <c r="H40" t="n">
+        <v>467.9825</v>
+      </c>
+      <c r="I40" t="n">
+        <v>491.0881183158174</v>
+      </c>
+      <c r="J40" t="n">
+        <v>515.808577114275</v>
+      </c>
+      <c r="K40" t="n">
+        <v>544.7395607625995</v>
+      </c>
+      <c r="L40" t="n">
+        <v>584.8618365268501</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Shop D</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="C41" t="n">
+        <v>467.9825</v>
+      </c>
+      <c r="D41" t="n">
+        <v>344.7809986302254</v>
+      </c>
+      <c r="E41" t="n">
+        <v>387.0735437405601</v>
+      </c>
+      <c r="F41" t="n">
+        <v>417.5694442777707</v>
+      </c>
+      <c r="G41" t="n">
+        <v>443.6270668569335</v>
+      </c>
+      <c r="H41" t="n">
+        <v>467.9825</v>
+      </c>
+      <c r="I41" t="n">
+        <v>492.3379331430665</v>
+      </c>
+      <c r="J41" t="n">
+        <v>518.3955557222293</v>
+      </c>
+      <c r="K41" t="n">
+        <v>548.8914562594399</v>
+      </c>
+      <c r="L41" t="n">
+        <v>591.1840013697746</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Shop E</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>45655</v>
+      </c>
+      <c r="C42" t="n">
+        <v>33.0444</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-66.46106465691005</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-32.30288228138562</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-7.672429573034819</v>
+      </c>
+      <c r="G42" t="n">
+        <v>13.3733841042822</v>
+      </c>
+      <c r="H42" t="n">
+        <v>33.0444</v>
+      </c>
+      <c r="I42" t="n">
+        <v>52.7154158957178</v>
+      </c>
+      <c r="J42" t="n">
+        <v>73.76122957303481</v>
+      </c>
+      <c r="K42" t="n">
+        <v>98.39168228138561</v>
+      </c>
+      <c r="L42" t="n">
+        <v>132.54986465691</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Shop E</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="C43" t="n">
+        <v>33.0444</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-107.6705417250677</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-59.3659922314398</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-24.53501355637127</v>
+      </c>
+      <c r="G43" t="n">
+        <v>5.226773450716905</v>
+      </c>
+      <c r="H43" t="n">
+        <v>33.0444</v>
+      </c>
+      <c r="I43" t="n">
+        <v>60.86202654928309</v>
+      </c>
+      <c r="J43" t="n">
+        <v>90.62381355637126</v>
+      </c>
+      <c r="K43" t="n">
+        <v>125.4547922314398</v>
+      </c>
+      <c r="L43" t="n">
+        <v>173.7593417250677</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Shop E</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="C44" t="n">
+        <v>33.0444</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-139.2926307066674</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-80.13286751947143</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-37.47451604748119</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-1.02452759247312</v>
+      </c>
+      <c r="H44" t="n">
+        <v>33.0444</v>
+      </c>
+      <c r="I44" t="n">
+        <v>67.11332759247311</v>
+      </c>
+      <c r="J44" t="n">
+        <v>103.5633160474812</v>
+      </c>
+      <c r="K44" t="n">
+        <v>146.2216675194714</v>
+      </c>
+      <c r="L44" t="n">
+        <v>205.3814307066674</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Shop E</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="C45" t="n">
+        <v>33.0444</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-165.9516036807083</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-97.64036259296438</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-48.38315169798346</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-6.294681175937171</v>
+      </c>
+      <c r="H45" t="n">
+        <v>33.0444</v>
+      </c>
+      <c r="I45" t="n">
+        <v>72.38348117593716</v>
+      </c>
+      <c r="J45" t="n">
+        <v>114.4719516979835</v>
+      </c>
+      <c r="K45" t="n">
+        <v>163.7291625929644</v>
+      </c>
+      <c r="L45" t="n">
+        <v>232.0404036807083</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Shop E</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="C46" t="n">
+        <v>33.0444</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-189.4387832049202</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-113.0648757657258</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-57.9939151785216</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-10.93780990619697</v>
+      </c>
+      <c r="H46" t="n">
+        <v>33.0444</v>
+      </c>
+      <c r="I46" t="n">
+        <v>77.02660990619697</v>
+      </c>
+      <c r="J46" t="n">
+        <v>124.0827151785216</v>
+      </c>
+      <c r="K46" t="n">
+        <v>179.1536757657258</v>
+      </c>
+      <c r="L46" t="n">
+        <v>255.5275832049202</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Shop E</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="C47" t="n">
+        <v>33.0444</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-210.6729037293326</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-127.0097588200393</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-66.68274517903292</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-15.13553637084392</v>
+      </c>
+      <c r="H47" t="n">
+        <v>33.0444</v>
+      </c>
+      <c r="I47" t="n">
+        <v>81.2243363708439</v>
+      </c>
+      <c r="J47" t="n">
+        <v>132.7715451790329</v>
+      </c>
+      <c r="K47" t="n">
+        <v>193.0985588200393</v>
+      </c>
+      <c r="L47" t="n">
+        <v>276.7617037293326</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Shop E</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>45661</v>
+      </c>
+      <c r="C48" t="n">
+        <v>33.0444</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-230.1997480170023</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-139.8334385056796</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-74.67297158219179</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-18.99575516084061</v>
+      </c>
+      <c r="H48" t="n">
+        <v>33.0444</v>
+      </c>
+      <c r="I48" t="n">
+        <v>85.08455516084061</v>
+      </c>
+      <c r="J48" t="n">
+        <v>140.7617715821918</v>
+      </c>
+      <c r="K48" t="n">
+        <v>205.9222385056796</v>
+      </c>
+      <c r="L48" t="n">
+        <v>296.2885480170023</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Shop E</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>45662</v>
+      </c>
+      <c r="C49" t="n">
+        <v>33.0444</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-248.3749291039175</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-151.7694532069533</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-82.11010835982083</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-22.58876663313497</v>
+      </c>
+      <c r="H49" t="n">
+        <v>33.0444</v>
+      </c>
+      <c r="I49" t="n">
+        <v>88.67756663313497</v>
+      </c>
+      <c r="J49" t="n">
+        <v>148.1989083598208</v>
+      </c>
+      <c r="K49" t="n">
+        <v>217.8582532069533</v>
+      </c>
+      <c r="L49" t="n">
+        <v>314.4637291039174</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Shop E</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="C50" t="n">
+        <v>33.0444</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-265.4454593275836</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-162.9800209990345</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-89.09523095821156</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-25.96340211205938</v>
+      </c>
+      <c r="H50" t="n">
+        <v>33.0444</v>
+      </c>
+      <c r="I50" t="n">
+        <v>92.05220211205938</v>
+      </c>
+      <c r="J50" t="n">
+        <v>155.1840309582116</v>
+      </c>
+      <c r="K50" t="n">
+        <v>229.0688209990345</v>
+      </c>
+      <c r="L50" t="n">
+        <v>331.5342593275836</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Shop E</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="C51" t="n">
+        <v>33.0444</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-281.591188339117</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-173.5832528415599</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-95.70193239678784</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-29.15521567856956</v>
+      </c>
+      <c r="H51" t="n">
+        <v>33.0444</v>
+      </c>
+      <c r="I51" t="n">
+        <v>95.24401567856955</v>
+      </c>
+      <c r="J51" t="n">
+        <v>161.7907323967878</v>
+      </c>
+      <c r="K51" t="n">
+        <v>239.6720528415599</v>
+      </c>
+      <c r="L51" t="n">
+        <v>347.679988339117</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Shop F</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="C52" t="n">
+        <v>71.02840000000003</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-6.803102260139951</v>
+      </c>
+      <c r="E52" t="n">
+        <v>19.9148539639686</v>
+      </c>
+      <c r="F52" t="n">
+        <v>39.18038015640522</v>
+      </c>
+      <c r="G52" t="n">
+        <v>55.64206193881206</v>
+      </c>
+      <c r="H52" t="n">
+        <v>71.02840000000003</v>
+      </c>
+      <c r="I52" t="n">
+        <v>86.414738061188</v>
+      </c>
+      <c r="J52" t="n">
+        <v>102.8764198435948</v>
+      </c>
+      <c r="K52" t="n">
+        <v>122.1419460360315</v>
+      </c>
+      <c r="L52" t="n">
+        <v>148.85990226014</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Shop F</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="C53" t="n">
+        <v>71.02840000000003</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-39.03646269545317</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-1.253455841997265</v>
+      </c>
+      <c r="F53" t="n">
+        <v>25.99075034123797</v>
+      </c>
+      <c r="G53" t="n">
+        <v>49.2699199898079</v>
+      </c>
+      <c r="H53" t="n">
+        <v>71.02840000000003</v>
+      </c>
+      <c r="I53" t="n">
+        <v>92.78688001019216</v>
+      </c>
+      <c r="J53" t="n">
+        <v>116.0660496587621</v>
+      </c>
+      <c r="K53" t="n">
+        <v>143.3102558419973</v>
+      </c>
+      <c r="L53" t="n">
+        <v>181.0932626954532</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Shop F</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="C54" t="n">
+        <v>71.02840000000003</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-63.77072928601484</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-17.49695670387919</v>
+      </c>
+      <c r="F54" t="n">
+        <v>15.86968894170235</v>
+      </c>
+      <c r="G54" t="n">
+        <v>44.38025736726296</v>
+      </c>
+      <c r="H54" t="n">
+        <v>71.02840000000003</v>
+      </c>
+      <c r="I54" t="n">
+        <v>97.67654263273711</v>
+      </c>
+      <c r="J54" t="n">
+        <v>126.1871110582977</v>
+      </c>
+      <c r="K54" t="n">
+        <v>159.5537567038793</v>
+      </c>
+      <c r="L54" t="n">
+        <v>205.8275292860149</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Shop F</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="C55" t="n">
+        <v>71.02840000000003</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-84.62292994088591</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-31.19102513600251</v>
+      </c>
+      <c r="F55" t="n">
+        <v>7.337137456067431</v>
+      </c>
+      <c r="G55" t="n">
+        <v>40.25803179948173</v>
+      </c>
+      <c r="H55" t="n">
+        <v>71.02840000000003</v>
+      </c>
+      <c r="I55" t="n">
+        <v>101.7987682005183</v>
+      </c>
+      <c r="J55" t="n">
+        <v>134.7196625439326</v>
+      </c>
+      <c r="K55" t="n">
+        <v>173.2478251360026</v>
+      </c>
+      <c r="L55" t="n">
+        <v>226.679729940886</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Shop F</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>45640</v>
+      </c>
+      <c r="C56" t="n">
+        <v>71.02840000000003</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-102.9942070614543</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-43.25582012999254</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.1802402290306873</v>
+      </c>
+      <c r="G56" t="n">
+        <v>36.62625453469167</v>
+      </c>
+      <c r="H56" t="n">
+        <v>71.02840000000003</v>
+      </c>
+      <c r="I56" t="n">
+        <v>105.4305454653084</v>
+      </c>
+      <c r="J56" t="n">
+        <v>142.2370402290308</v>
+      </c>
+      <c r="K56" t="n">
+        <v>185.3126201299926</v>
+      </c>
+      <c r="L56" t="n">
+        <v>245.0510070614543</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Shop F</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>45641</v>
+      </c>
+      <c r="C57" t="n">
+        <v>71.02840000000003</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-119.6031792951527</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-54.1632733105935</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-6.97649703919177</v>
+      </c>
+      <c r="G57" t="n">
+        <v>33.3428634370558</v>
+      </c>
+      <c r="H57" t="n">
+        <v>71.02840000000003</v>
+      </c>
+      <c r="I57" t="n">
+        <v>108.7139365629443</v>
+      </c>
+      <c r="J57" t="n">
+        <v>149.0332970391918</v>
+      </c>
+      <c r="K57" t="n">
+        <v>196.2200733105936</v>
+      </c>
+      <c r="L57" t="n">
+        <v>261.6599792951528</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Shop F</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="C58" t="n">
+        <v>71.02840000000003</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-134.8767487473368</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-64.193740058099</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-13.22631785557347</v>
+      </c>
+      <c r="G58" t="n">
+        <v>30.3234651706974</v>
+      </c>
+      <c r="H58" t="n">
+        <v>71.02840000000003</v>
+      </c>
+      <c r="I58" t="n">
+        <v>111.7333348293027</v>
+      </c>
+      <c r="J58" t="n">
+        <v>155.2831178555736</v>
+      </c>
+      <c r="K58" t="n">
+        <v>206.2505400580991</v>
+      </c>
+      <c r="L58" t="n">
+        <v>276.9335487473369</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Shop F</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="C59" t="n">
+        <v>71.02840000000003</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-149.0930699586609</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-73.5298901720891</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-19.04352126156559</v>
+      </c>
+      <c r="G59" t="n">
+        <v>27.51307197781291</v>
+      </c>
+      <c r="H59" t="n">
+        <v>71.02840000000003</v>
+      </c>
+      <c r="I59" t="n">
+        <v>114.5437280221872</v>
+      </c>
+      <c r="J59" t="n">
+        <v>161.1003212615657</v>
+      </c>
+      <c r="K59" t="n">
+        <v>215.5866901720892</v>
+      </c>
+      <c r="L59" t="n">
+        <v>291.149869958661</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Shop F</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="C60" t="n">
+        <v>71.02840000000003</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-162.4453518284667</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-82.29860790488181</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-24.50716677267923</v>
+      </c>
+      <c r="G60" t="n">
+        <v>24.87348881712251</v>
+      </c>
+      <c r="H60" t="n">
+        <v>71.02840000000003</v>
+      </c>
+      <c r="I60" t="n">
+        <v>117.1833111828776</v>
+      </c>
+      <c r="J60" t="n">
+        <v>166.5639667726793</v>
+      </c>
+      <c r="K60" t="n">
+        <v>224.3554079048819</v>
+      </c>
+      <c r="L60" t="n">
+        <v>304.5021518284668</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Shop F</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="C61" t="n">
+        <v>71.02840000000003</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-175.0742697314746</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-90.59227766424402</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-29.67481761197322</v>
+      </c>
+      <c r="G61" t="n">
+        <v>22.37690588399079</v>
+      </c>
+      <c r="H61" t="n">
+        <v>71.02840000000003</v>
+      </c>
+      <c r="I61" t="n">
+        <v>119.6798941160093</v>
+      </c>
+      <c r="J61" t="n">
+        <v>171.7316176119733</v>
+      </c>
+      <c r="K61" t="n">
+        <v>232.6490776642441</v>
+      </c>
+      <c r="L61" t="n">
+        <v>317.1310697314747</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Shop G</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>45606</v>
+      </c>
+      <c r="C62" t="n">
+        <v>14.00600000000001</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-34.26013937460687</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-17.69136501628511</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-5.744112999725971</v>
+      </c>
+      <c r="G62" t="n">
+        <v>4.4643733352087</v>
+      </c>
+      <c r="H62" t="n">
+        <v>14.00600000000001</v>
+      </c>
+      <c r="I62" t="n">
+        <v>23.54762666479133</v>
+      </c>
+      <c r="J62" t="n">
+        <v>33.756112999726</v>
+      </c>
+      <c r="K62" t="n">
+        <v>45.70336501628515</v>
+      </c>
+      <c r="L62" t="n">
+        <v>62.27213937460689</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Shop G</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="C63" t="n">
+        <v>14.00600000000001</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-54.24921606084129</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-30.81860221138237</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-13.92348115364585</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.5127768415749845</v>
+      </c>
+      <c r="H63" t="n">
+        <v>14.00600000000001</v>
+      </c>
+      <c r="I63" t="n">
+        <v>27.49922315842505</v>
+      </c>
+      <c r="J63" t="n">
+        <v>41.93548115364588</v>
+      </c>
+      <c r="K63" t="n">
+        <v>58.8306022113824</v>
+      </c>
+      <c r="L63" t="n">
+        <v>82.26121606084132</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Shop G</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="C64" t="n">
+        <v>14.00600000000001</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-69.5878324812021</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-40.89178663882284</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-20.19991866215221</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-2.519480416491923</v>
+      </c>
+      <c r="H64" t="n">
+        <v>14.00600000000001</v>
+      </c>
+      <c r="I64" t="n">
+        <v>30.53148041649195</v>
+      </c>
+      <c r="J64" t="n">
+        <v>48.21191866215224</v>
+      </c>
+      <c r="K64" t="n">
+        <v>68.90378663882288</v>
+      </c>
+      <c r="L64" t="n">
+        <v>97.59983248120213</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Shop G</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="C65" t="n">
+        <v>14.00600000000001</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-82.51903891881335</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-49.38397548725482</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-25.49126351953623</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-5.075822103474788</v>
+      </c>
+      <c r="H65" t="n">
+        <v>14.00600000000001</v>
+      </c>
+      <c r="I65" t="n">
+        <v>33.08782210347482</v>
+      </c>
+      <c r="J65" t="n">
+        <v>53.50326351953626</v>
+      </c>
+      <c r="K65" t="n">
+        <v>77.39597548725484</v>
+      </c>
+      <c r="L65" t="n">
+        <v>110.5310389188134</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Shop G</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="C66" t="n">
+        <v>14.00600000000001</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-93.9117346299559</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-56.86579274371303</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-30.15306225840401</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-7.328018997400836</v>
+      </c>
+      <c r="H66" t="n">
+        <v>14.00600000000001</v>
+      </c>
+      <c r="I66" t="n">
+        <v>35.34001899740086</v>
+      </c>
+      <c r="J66" t="n">
+        <v>58.16506225840404</v>
+      </c>
+      <c r="K66" t="n">
+        <v>84.87779274371306</v>
+      </c>
+      <c r="L66" t="n">
+        <v>121.9237346299559</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Shop G</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="C67" t="n">
+        <v>14.00600000000001</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-104.2115611195085</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-63.62990033702749</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-34.3676677703016</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-9.36416898471769</v>
+      </c>
+      <c r="H67" t="n">
+        <v>14.00600000000001</v>
+      </c>
+      <c r="I67" t="n">
+        <v>37.37616898471772</v>
+      </c>
+      <c r="J67" t="n">
+        <v>62.37966777030163</v>
+      </c>
+      <c r="K67" t="n">
+        <v>91.64190033702752</v>
+      </c>
+      <c r="L67" t="n">
+        <v>132.2235611195086</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Shop G</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>45612</v>
+      </c>
+      <c r="C68" t="n">
+        <v>14.00600000000001</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-113.6832558770231</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-69.85015681376007</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-38.24340849006265</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-11.23660743598137</v>
+      </c>
+      <c r="H68" t="n">
+        <v>14.00600000000001</v>
+      </c>
+      <c r="I68" t="n">
+        <v>39.2486074359814</v>
+      </c>
+      <c r="J68" t="n">
+        <v>66.25540849006268</v>
+      </c>
+      <c r="K68" t="n">
+        <v>97.86215681376009</v>
+      </c>
+      <c r="L68" t="n">
+        <v>141.6952558770232</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Shop G</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C69" t="n">
+        <v>14.00600000000001</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-122.4993126285239</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-75.63984234646338</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-41.85086745218841</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-12.97943425553612</v>
+      </c>
+      <c r="H69" t="n">
+        <v>14.00600000000001</v>
+      </c>
+      <c r="I69" t="n">
+        <v>40.99143425553615</v>
+      </c>
+      <c r="J69" t="n">
+        <v>69.86286745218844</v>
+      </c>
+      <c r="K69" t="n">
+        <v>103.6518423464634</v>
+      </c>
+      <c r="L69" t="n">
+        <v>150.5113126285239</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Shop G</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="C70" t="n">
+        <v>14.00600000000001</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-130.7795472248325</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-81.07764246514758</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-45.23907233164002</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-14.61633557473365</v>
+      </c>
+      <c r="H70" t="n">
+        <v>14.00600000000001</v>
+      </c>
+      <c r="I70" t="n">
+        <v>42.62833557473368</v>
+      </c>
+      <c r="J70" t="n">
+        <v>73.25107233164005</v>
+      </c>
+      <c r="K70" t="n">
+        <v>109.0896424651476</v>
+      </c>
+      <c r="L70" t="n">
+        <v>158.7915472248325</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Shop G</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="C71" t="n">
+        <v>14.00600000000001</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-138.611197571497</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-86.22084809407642</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-48.44372017224076</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-16.16455726275974</v>
+      </c>
+      <c r="H71" t="n">
+        <v>14.00600000000001</v>
+      </c>
+      <c r="I71" t="n">
+        <v>44.17655726275977</v>
+      </c>
+      <c r="J71" t="n">
+        <v>76.45572017224079</v>
+      </c>
+      <c r="K71" t="n">
+        <v>114.2328480940764</v>
+      </c>
+      <c r="L71" t="n">
+        <v>166.623197571497</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Shop H</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="C72" t="n">
+        <v>42.89624510519388</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-53.10328301253507</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-20.14861664605876</v>
+      </c>
+      <c r="F72" t="n">
+        <v>3.614016345811962</v>
+      </c>
+      <c r="G72" t="n">
+        <v>23.91831007321958</v>
+      </c>
+      <c r="H72" t="n">
+        <v>42.89624510519388</v>
+      </c>
+      <c r="I72" t="n">
+        <v>61.87418013716818</v>
+      </c>
+      <c r="J72" t="n">
+        <v>82.17847386457581</v>
+      </c>
+      <c r="K72" t="n">
+        <v>105.9411068564465</v>
+      </c>
+      <c r="L72" t="n">
+        <v>138.8957732229229</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Shop H</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="C73" t="n">
+        <v>42.89624510519388</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-87.12961562062114</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-42.49440810191028</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-10.30928314910304</v>
+      </c>
+      <c r="G73" t="n">
+        <v>17.19171940893328</v>
+      </c>
+      <c r="H73" t="n">
+        <v>42.89624510519388</v>
+      </c>
+      <c r="I73" t="n">
+        <v>68.60077080145449</v>
+      </c>
+      <c r="J73" t="n">
+        <v>96.10177335949081</v>
+      </c>
+      <c r="K73" t="n">
+        <v>128.286898312298</v>
+      </c>
+      <c r="L73" t="n">
+        <v>172.9221058310089</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Shop H</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="C74" t="n">
+        <v>42.89624510519388</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-113.939782376222</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-60.10119523696849</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-21.27978606948349</v>
+      </c>
+      <c r="G74" t="n">
+        <v>11.89167666017911</v>
+      </c>
+      <c r="H74" t="n">
+        <v>42.89624510519388</v>
+      </c>
+      <c r="I74" t="n">
+        <v>73.90081355020865</v>
+      </c>
+      <c r="J74" t="n">
+        <v>107.0722762798713</v>
+      </c>
+      <c r="K74" t="n">
+        <v>145.8936854473563</v>
+      </c>
+      <c r="L74" t="n">
+        <v>199.7322725866098</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Shop H</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="C75" t="n">
+        <v>42.89624510519388</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-136.79336109064</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-75.1096097450578</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-30.63128523445195</v>
+      </c>
+      <c r="G75" t="n">
+        <v>7.373803076900131</v>
+      </c>
+      <c r="H75" t="n">
+        <v>42.89624510519388</v>
+      </c>
+      <c r="I75" t="n">
+        <v>78.41868713348764</v>
+      </c>
+      <c r="J75" t="n">
+        <v>116.4237754448397</v>
+      </c>
+      <c r="K75" t="n">
+        <v>160.9020999554456</v>
+      </c>
+      <c r="L75" t="n">
+        <v>222.5858513010278</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Shop H</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>45661</v>
+      </c>
+      <c r="C76" t="n">
+        <v>42.89624510519388</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-157.0516721969783</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-88.41365871336825</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-38.92082193073642</v>
+      </c>
+      <c r="G76" t="n">
+        <v>3.368982224425444</v>
+      </c>
+      <c r="H76" t="n">
+        <v>42.89624510519388</v>
+      </c>
+      <c r="I76" t="n">
+        <v>82.42350798596232</v>
+      </c>
+      <c r="J76" t="n">
+        <v>124.7133121411242</v>
+      </c>
+      <c r="K76" t="n">
+        <v>174.206148923756</v>
+      </c>
+      <c r="L76" t="n">
+        <v>242.844162407366</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Shop H</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>45662</v>
+      </c>
+      <c r="C77" t="n">
+        <v>42.89624510519388</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-175.4383254330942</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-100.4885515182327</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-46.44449139768194</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-0.2658347107424532</v>
+      </c>
+      <c r="H77" t="n">
+        <v>42.89624510519388</v>
+      </c>
+      <c r="I77" t="n">
+        <v>86.05832492113022</v>
+      </c>
+      <c r="J77" t="n">
+        <v>132.2369816080697</v>
+      </c>
+      <c r="K77" t="n">
+        <v>186.2810417286205</v>
+      </c>
+      <c r="L77" t="n">
+        <v>261.2308156434819</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Shop H</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="C78" t="n">
+        <v>42.89624510519388</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-192.3925131277508</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-111.6227147820729</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-53.38200757624328</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-3.617470691645472</v>
+      </c>
+      <c r="H78" t="n">
+        <v>42.89624510519388</v>
+      </c>
+      <c r="I78" t="n">
+        <v>89.40996090203325</v>
+      </c>
+      <c r="J78" t="n">
+        <v>139.174497786631</v>
+      </c>
+      <c r="K78" t="n">
+        <v>197.4152049924607</v>
+      </c>
+      <c r="L78" t="n">
+        <v>278.1850033381386</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Shop H</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="C79" t="n">
+        <v>42.89624510519388</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-208.2045609657216</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-122.0068113447826</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-59.85216938332773</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-6.743319562730306</v>
+      </c>
+      <c r="H79" t="n">
+        <v>42.89624510519388</v>
+      </c>
+      <c r="I79" t="n">
+        <v>92.53580977311807</v>
+      </c>
+      <c r="J79" t="n">
+        <v>145.6446595937155</v>
+      </c>
+      <c r="K79" t="n">
+        <v>207.7993015551704</v>
+      </c>
+      <c r="L79" t="n">
+        <v>293.9970511761094</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Shop H</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="C80" t="n">
+        <v>42.89624510519388</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-223.0782459049892</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-131.7746657198359</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-65.93836069838045</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-9.683665541486675</v>
+      </c>
+      <c r="H80" t="n">
+        <v>42.89624510519388</v>
+      </c>
+      <c r="I80" t="n">
+        <v>95.47615575187444</v>
+      </c>
+      <c r="J80" t="n">
+        <v>151.7308509087682</v>
+      </c>
+      <c r="K80" t="n">
+        <v>217.5671559302237</v>
+      </c>
+      <c r="L80" t="n">
+        <v>308.8707361153769</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Shop H</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="C81" t="n">
+        <v>42.89624510519388</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-237.1631145434141</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-141.0244882294329</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-71.70177477706146</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-12.46807216509128</v>
+      </c>
+      <c r="H81" t="n">
+        <v>42.89624510519388</v>
+      </c>
+      <c r="I81" t="n">
+        <v>98.26056237547905</v>
+      </c>
+      <c r="J81" t="n">
+        <v>157.4942649874492</v>
+      </c>
+      <c r="K81" t="n">
+        <v>226.8169784398206</v>
+      </c>
+      <c r="L81" t="n">
+        <v>322.9556047538018</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Shop I</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="C82" t="n">
+        <v>376.00399881</v>
+      </c>
+      <c r="D82" t="n">
+        <v>297.0629661435526</v>
+      </c>
+      <c r="E82" t="n">
+        <v>324.1618013686337</v>
+      </c>
+      <c r="F82" t="n">
+        <v>343.7019681176997</v>
+      </c>
+      <c r="G82" t="n">
+        <v>360.3983201293344</v>
+      </c>
+      <c r="H82" t="n">
+        <v>376.00399881</v>
+      </c>
+      <c r="I82" t="n">
+        <v>391.6096774906655</v>
+      </c>
+      <c r="J82" t="n">
+        <v>408.3060295023003</v>
+      </c>
+      <c r="K82" t="n">
+        <v>427.8461962513662</v>
+      </c>
+      <c r="L82" t="n">
+        <v>454.9450314764474</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Shop I</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>45654</v>
+      </c>
+      <c r="C83" t="n">
+        <v>376.00399881</v>
+      </c>
+      <c r="D83" t="n">
+        <v>264.3701016197675</v>
+      </c>
+      <c r="E83" t="n">
+        <v>302.6917257904828</v>
+      </c>
+      <c r="F83" t="n">
+        <v>330.3243129541465</v>
+      </c>
+      <c r="G83" t="n">
+        <v>353.9353398302995</v>
+      </c>
+      <c r="H83" t="n">
+        <v>376.00399881</v>
+      </c>
+      <c r="I83" t="n">
+        <v>398.0726577897005</v>
+      </c>
+      <c r="J83" t="n">
+        <v>421.6836846658535</v>
+      </c>
+      <c r="K83" t="n">
+        <v>449.3162718295171</v>
+      </c>
+      <c r="L83" t="n">
+        <v>487.6378960002324</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Shop I</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>45655</v>
+      </c>
+      <c r="C84" t="n">
+        <v>376.00399881</v>
+      </c>
+      <c r="D84" t="n">
+        <v>239.2832346031186</v>
+      </c>
+      <c r="E84" t="n">
+        <v>286.2166649870891</v>
+      </c>
+      <c r="F84" t="n">
+        <v>320.0589703183403</v>
+      </c>
+      <c r="G84" t="n">
+        <v>348.975972407015</v>
+      </c>
+      <c r="H84" t="n">
+        <v>376.00399881</v>
+      </c>
+      <c r="I84" t="n">
+        <v>403.0320252129849</v>
+      </c>
+      <c r="J84" t="n">
+        <v>431.9490273016597</v>
+      </c>
+      <c r="K84" t="n">
+        <v>465.7913326329109</v>
+      </c>
+      <c r="L84" t="n">
+        <v>512.7247630168814</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Shop I</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="C85" t="n">
+        <v>376.00399881</v>
+      </c>
+      <c r="D85" t="n">
+        <v>218.1337744839797</v>
+      </c>
+      <c r="E85" t="n">
+        <v>272.3273801596724</v>
+      </c>
+      <c r="F85" t="n">
+        <v>311.4047826694324</v>
+      </c>
+      <c r="G85" t="n">
+        <v>344.7949822712081</v>
+      </c>
+      <c r="H85" t="n">
+        <v>376.00399881</v>
+      </c>
+      <c r="I85" t="n">
+        <v>407.2130153487919</v>
+      </c>
+      <c r="J85" t="n">
+        <v>440.6032149505676</v>
+      </c>
+      <c r="K85" t="n">
+        <v>479.6806174603276</v>
+      </c>
+      <c r="L85" t="n">
+        <v>533.8742231360202</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Shop I</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="C86" t="n">
+        <v>376.00399881</v>
+      </c>
+      <c r="D86" t="n">
+        <v>199.5006048137874</v>
+      </c>
+      <c r="E86" t="n">
+        <v>260.0905949496005</v>
+      </c>
+      <c r="F86" t="n">
+        <v>303.7802406758589</v>
+      </c>
+      <c r="G86" t="n">
+        <v>341.1114320457632</v>
+      </c>
+      <c r="H86" t="n">
+        <v>376.00399881</v>
+      </c>
+      <c r="I86" t="n">
+        <v>410.8965655742368</v>
+      </c>
+      <c r="J86" t="n">
+        <v>448.2277569441411</v>
+      </c>
+      <c r="K86" t="n">
+        <v>491.9174026703995</v>
+      </c>
+      <c r="L86" t="n">
+        <v>552.5073928062125</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Shop I</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="C87" t="n">
+        <v>376.00399881</v>
+      </c>
+      <c r="D87" t="n">
+        <v>182.6548626453496</v>
+      </c>
+      <c r="E87" t="n">
+        <v>249.0276500900801</v>
+      </c>
+      <c r="F87" t="n">
+        <v>296.8870995275959</v>
+      </c>
+      <c r="G87" t="n">
+        <v>337.781234421813</v>
+      </c>
+      <c r="H87" t="n">
+        <v>376.00399881</v>
+      </c>
+      <c r="I87" t="n">
+        <v>414.226763198187</v>
+      </c>
+      <c r="J87" t="n">
+        <v>455.120898092404</v>
+      </c>
+      <c r="K87" t="n">
+        <v>502.9803475299199</v>
+      </c>
+      <c r="L87" t="n">
+        <v>569.3531349746504</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Shop I</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="C88" t="n">
+        <v>376.00399881</v>
+      </c>
+      <c r="D88" t="n">
+        <v>167.1635601515572</v>
+      </c>
+      <c r="E88" t="n">
+        <v>238.8541935823537</v>
+      </c>
+      <c r="F88" t="n">
+        <v>290.5481841154736</v>
+      </c>
+      <c r="G88" t="n">
+        <v>334.7187929905664</v>
+      </c>
+      <c r="H88" t="n">
+        <v>376.00399881</v>
+      </c>
+      <c r="I88" t="n">
+        <v>417.2892046294336</v>
+      </c>
+      <c r="J88" t="n">
+        <v>461.4598135045263</v>
+      </c>
+      <c r="K88" t="n">
+        <v>513.1538040376463</v>
+      </c>
+      <c r="L88" t="n">
+        <v>584.8444374684427</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Shop I</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="C89" t="n">
+        <v>376.00399881</v>
+      </c>
+      <c r="D89" t="n">
+        <v>152.7445775474582</v>
+      </c>
+      <c r="E89" t="n">
+        <v>229.3849515694728</v>
+      </c>
+      <c r="F89" t="n">
+        <v>284.6480533102769</v>
+      </c>
+      <c r="G89" t="n">
+        <v>331.8683361138183</v>
+      </c>
+      <c r="H89" t="n">
+        <v>376.00399881</v>
+      </c>
+      <c r="I89" t="n">
+        <v>420.1396615061817</v>
+      </c>
+      <c r="J89" t="n">
+        <v>467.3599443097231</v>
+      </c>
+      <c r="K89" t="n">
+        <v>522.6230460505271</v>
+      </c>
+      <c r="L89" t="n">
+        <v>599.2634200725417</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Shop I</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>45661</v>
+      </c>
+      <c r="C90" t="n">
+        <v>376.00399881</v>
+      </c>
+      <c r="D90" t="n">
+        <v>139.2019516357423</v>
+      </c>
+      <c r="E90" t="n">
+        <v>220.4912309950757</v>
+      </c>
+      <c r="F90" t="n">
+        <v>279.1065205600913</v>
+      </c>
+      <c r="G90" t="n">
+        <v>329.1911242591965</v>
+      </c>
+      <c r="H90" t="n">
+        <v>376.00399881</v>
+      </c>
+      <c r="I90" t="n">
+        <v>422.8168733608035</v>
+      </c>
+      <c r="J90" t="n">
+        <v>472.9014770599087</v>
+      </c>
+      <c r="K90" t="n">
+        <v>531.5167666249243</v>
+      </c>
+      <c r="L90" t="n">
+        <v>612.8060459842577</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Shop I</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>45662</v>
+      </c>
+      <c r="C91" t="n">
+        <v>376.00399881</v>
+      </c>
+      <c r="D91" t="n">
+        <v>126.3930016376926</v>
+      </c>
+      <c r="E91" t="n">
+        <v>212.079330461404</v>
+      </c>
+      <c r="F91" t="n">
+        <v>273.865202046798</v>
+      </c>
+      <c r="G91" t="n">
+        <v>326.6589511781717</v>
+      </c>
+      <c r="H91" t="n">
+        <v>376.00399881</v>
+      </c>
+      <c r="I91" t="n">
+        <v>425.3490464418282</v>
+      </c>
+      <c r="J91" t="n">
+        <v>478.142795573202</v>
+      </c>
+      <c r="K91" t="n">
+        <v>539.928667158596</v>
+      </c>
+      <c r="L91" t="n">
+        <v>625.6149959823074</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Shop J</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="C92" t="n">
+        <v>477.7351935800963</v>
+      </c>
+      <c r="D92" t="n">
+        <v>410.4719176319381</v>
+      </c>
+      <c r="E92" t="n">
+        <v>433.5620188131586</v>
+      </c>
+      <c r="F92" t="n">
+        <v>450.2116062801602</v>
+      </c>
+      <c r="G92" t="n">
+        <v>464.4380648752921</v>
+      </c>
+      <c r="H92" t="n">
+        <v>477.7351935800963</v>
+      </c>
+      <c r="I92" t="n">
+        <v>491.0323222849004</v>
+      </c>
+      <c r="J92" t="n">
+        <v>505.2587808800324</v>
+      </c>
+      <c r="K92" t="n">
+        <v>521.908368347034</v>
+      </c>
+      <c r="L92" t="n">
+        <v>544.9984695282544</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Shop J</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="C93" t="n">
+        <v>477.7351935800963</v>
+      </c>
+      <c r="D93" t="n">
+        <v>385.2410413368301</v>
+      </c>
+      <c r="E93" t="n">
+        <v>416.9923841589412</v>
+      </c>
+      <c r="F93" t="n">
+        <v>439.8873362149091</v>
+      </c>
+      <c r="G93" t="n">
+        <v>459.4502285752936</v>
+      </c>
+      <c r="H93" t="n">
+        <v>477.7351935800963</v>
+      </c>
+      <c r="I93" t="n">
+        <v>496.020158584899</v>
+      </c>
+      <c r="J93" t="n">
+        <v>515.5830509452835</v>
+      </c>
+      <c r="K93" t="n">
+        <v>538.4780030012514</v>
+      </c>
+      <c r="L93" t="n">
+        <v>570.2293458233625</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Shop J</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="C94" t="n">
+        <v>477.7351935800963</v>
+      </c>
+      <c r="D94" t="n">
+        <v>365.5479032699951</v>
+      </c>
+      <c r="E94" t="n">
+        <v>404.0594959331848</v>
+      </c>
+      <c r="F94" t="n">
+        <v>431.8290637452485</v>
+      </c>
+      <c r="G94" t="n">
+        <v>455.5571355347761</v>
+      </c>
+      <c r="H94" t="n">
+        <v>477.7351935800963</v>
+      </c>
+      <c r="I94" t="n">
+        <v>499.9132516254165</v>
+      </c>
+      <c r="J94" t="n">
+        <v>523.6413234149441</v>
+      </c>
+      <c r="K94" t="n">
+        <v>551.4108912270077</v>
+      </c>
+      <c r="L94" t="n">
+        <v>589.9224838901974</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Shop J</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>45661</v>
+      </c>
+      <c r="C95" t="n">
+        <v>477.7351935800963</v>
+      </c>
+      <c r="D95" t="n">
+        <v>348.8289950672034</v>
+      </c>
+      <c r="E95" t="n">
+        <v>393.0798455438177</v>
+      </c>
+      <c r="F95" t="n">
+        <v>424.9878220276459</v>
+      </c>
+      <c r="G95" t="n">
+        <v>452.252011437822</v>
+      </c>
+      <c r="H95" t="n">
+        <v>477.7351935800963</v>
+      </c>
+      <c r="I95" t="n">
+        <v>503.2183757223705</v>
+      </c>
+      <c r="J95" t="n">
+        <v>530.4825651325466</v>
+      </c>
+      <c r="K95" t="n">
+        <v>562.3905416163749</v>
+      </c>
+      <c r="L95" t="n">
+        <v>606.6413920929891</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Shop J</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>45662</v>
+      </c>
+      <c r="C96" t="n">
+        <v>477.7351935800963</v>
+      </c>
+      <c r="D96" t="n">
+        <v>334.0423686967091</v>
+      </c>
+      <c r="E96" t="n">
+        <v>383.3691643188848</v>
+      </c>
+      <c r="F96" t="n">
+        <v>418.9372543732618</v>
+      </c>
+      <c r="G96" t="n">
+        <v>449.3288758755599</v>
+      </c>
+      <c r="H96" t="n">
+        <v>477.7351935800963</v>
+      </c>
+      <c r="I96" t="n">
+        <v>506.1415112846327</v>
+      </c>
+      <c r="J96" t="n">
+        <v>536.5331327869308</v>
+      </c>
+      <c r="K96" t="n">
+        <v>572.1012228413077</v>
+      </c>
+      <c r="L96" t="n">
+        <v>621.4280184634835</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Shop J</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="C97" t="n">
+        <v>477.7351935800963</v>
+      </c>
+      <c r="D97" t="n">
+        <v>320.6414386727474</v>
+      </c>
+      <c r="E97" t="n">
+        <v>374.5684983441232</v>
+      </c>
+      <c r="F97" t="n">
+        <v>413.4537024317964</v>
+      </c>
+      <c r="G97" t="n">
+        <v>446.679675568545</v>
+      </c>
+      <c r="H97" t="n">
+        <v>477.7351935800963</v>
+      </c>
+      <c r="I97" t="n">
+        <v>508.7907115916476</v>
+      </c>
+      <c r="J97" t="n">
+        <v>542.0166847283961</v>
+      </c>
+      <c r="K97" t="n">
+        <v>580.9018888160695</v>
+      </c>
+      <c r="L97" t="n">
+        <v>634.8289484874451</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Shop J</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="C98" t="n">
+        <v>477.7351935800963</v>
+      </c>
+      <c r="D98" t="n">
+        <v>308.2970994607023</v>
+      </c>
+      <c r="E98" t="n">
+        <v>366.4617172557875</v>
+      </c>
+      <c r="F98" t="n">
+        <v>408.402498886126</v>
+      </c>
+      <c r="G98" t="n">
+        <v>444.2393503693257</v>
+      </c>
+      <c r="H98" t="n">
+        <v>477.7351935800963</v>
+      </c>
+      <c r="I98" t="n">
+        <v>511.2310367908668</v>
+      </c>
+      <c r="J98" t="n">
+        <v>547.0678882740666</v>
+      </c>
+      <c r="K98" t="n">
+        <v>589.0086699044051</v>
+      </c>
+      <c r="L98" t="n">
+        <v>647.1732876994903</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Shop J</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="C99" t="n">
+        <v>477.7351935800963</v>
+      </c>
+      <c r="D99" t="n">
+        <v>296.7929717336322</v>
+      </c>
+      <c r="E99" t="n">
+        <v>358.9067203058812</v>
+      </c>
+      <c r="F99" t="n">
+        <v>403.6951030695786</v>
+      </c>
+      <c r="G99" t="n">
+        <v>441.9651247258817</v>
+      </c>
+      <c r="H99" t="n">
+        <v>477.7351935800963</v>
+      </c>
+      <c r="I99" t="n">
+        <v>513.5052624343109</v>
+      </c>
+      <c r="J99" t="n">
+        <v>551.7752840906139</v>
+      </c>
+      <c r="K99" t="n">
+        <v>596.5636668543114</v>
+      </c>
+      <c r="L99" t="n">
+        <v>658.6774154265604</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Shop J</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="C100" t="n">
+        <v>477.7351935800963</v>
+      </c>
+      <c r="D100" t="n">
+        <v>285.9777750673892</v>
+      </c>
+      <c r="E100" t="n">
+        <v>351.8041585328721</v>
+      </c>
+      <c r="F100" t="n">
+        <v>399.2696122588316</v>
+      </c>
+      <c r="G100" t="n">
+        <v>439.8270923447404</v>
+      </c>
+      <c r="H100" t="n">
+        <v>477.7351935800963</v>
+      </c>
+      <c r="I100" t="n">
+        <v>515.6432948154521</v>
+      </c>
+      <c r="J100" t="n">
+        <v>556.200774901361</v>
+      </c>
+      <c r="K100" t="n">
+        <v>603.6662286273205</v>
+      </c>
+      <c r="L100" t="n">
+        <v>669.4926120928033</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Shop J</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="C101" t="n">
+        <v>477.7351935800963</v>
+      </c>
+      <c r="D101" t="n">
+        <v>275.7408187510434</v>
+      </c>
+      <c r="E101" t="n">
+        <v>345.0813390735289</v>
+      </c>
+      <c r="F101" t="n">
+        <v>395.0807327122015</v>
+      </c>
+      <c r="G101" t="n">
+        <v>437.8033710233344</v>
+      </c>
+      <c r="H101" t="n">
+        <v>477.7351935800963</v>
+      </c>
+      <c r="I101" t="n">
+        <v>517.6670161368583</v>
+      </c>
+      <c r="J101" t="n">
+        <v>560.389654447991</v>
+      </c>
+      <c r="K101" t="n">
+        <v>610.3890480866637</v>
+      </c>
+      <c r="L101" t="n">
+        <v>679.7295684091491</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Shop K</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="C102" t="n">
+        <v>298.7870730378873</v>
+      </c>
+      <c r="D102" t="n">
+        <v>238.7588930246509</v>
+      </c>
+      <c r="E102" t="n">
+        <v>259.3653343656647</v>
+      </c>
+      <c r="F102" t="n">
+        <v>274.2240283487766</v>
+      </c>
+      <c r="G102" t="n">
+        <v>286.9202344948708</v>
+      </c>
+      <c r="H102" t="n">
+        <v>298.7870730378873</v>
+      </c>
+      <c r="I102" t="n">
+        <v>310.6539115809038</v>
+      </c>
+      <c r="J102" t="n">
+        <v>323.350117726998</v>
+      </c>
+      <c r="K102" t="n">
+        <v>338.2088117101099</v>
+      </c>
+      <c r="L102" t="n">
+        <v>358.8152530511237</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Shop K</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="C103" t="n">
+        <v>298.7870730378873</v>
+      </c>
+      <c r="D103" t="n">
+        <v>217.8484265815807</v>
+      </c>
+      <c r="E103" t="n">
+        <v>245.6330015937695</v>
+      </c>
+      <c r="F103" t="n">
+        <v>265.6676349748975</v>
+      </c>
+      <c r="G103" t="n">
+        <v>282.7864904918982</v>
+      </c>
+      <c r="H103" t="n">
+        <v>298.7870730378873</v>
+      </c>
+      <c r="I103" t="n">
+        <v>314.7876555838764</v>
+      </c>
+      <c r="J103" t="n">
+        <v>331.9065111008771</v>
+      </c>
+      <c r="K103" t="n">
+        <v>351.9411444820051</v>
+      </c>
+      <c r="L103" t="n">
+        <v>379.7257194941939</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Shop K</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="C104" t="n">
+        <v>298.7870730378873</v>
+      </c>
+      <c r="D104" t="n">
+        <v>201.3255596869421</v>
+      </c>
+      <c r="E104" t="n">
+        <v>234.7820955577588</v>
+      </c>
+      <c r="F104" t="n">
+        <v>258.9066117715329</v>
+      </c>
+      <c r="G104" t="n">
+        <v>279.5201213688764</v>
+      </c>
+      <c r="H104" t="n">
+        <v>298.7870730378873</v>
+      </c>
+      <c r="I104" t="n">
+        <v>318.0540247068982</v>
+      </c>
+      <c r="J104" t="n">
+        <v>338.6675343042417</v>
+      </c>
+      <c r="K104" t="n">
+        <v>362.7920505180158</v>
+      </c>
+      <c r="L104" t="n">
+        <v>396.2485863888325</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Shop K</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="C105" t="n">
+        <v>298.7870730378873</v>
+      </c>
+      <c r="D105" t="n">
+        <v>187.2235096350722</v>
+      </c>
+      <c r="E105" t="n">
+        <v>225.520989661081</v>
+      </c>
+      <c r="F105" t="n">
+        <v>253.1361671977382</v>
+      </c>
+      <c r="G105" t="n">
+        <v>276.7323181895334</v>
+      </c>
+      <c r="H105" t="n">
+        <v>298.7870730378873</v>
+      </c>
+      <c r="I105" t="n">
+        <v>320.8418278862412</v>
+      </c>
+      <c r="J105" t="n">
+        <v>344.4379788780364</v>
+      </c>
+      <c r="K105" t="n">
+        <v>372.0531564146935</v>
+      </c>
+      <c r="L105" t="n">
+        <v>410.3506364407024</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Shop K</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="C106" t="n">
+        <v>298.7870730378873</v>
+      </c>
+      <c r="D106" t="n">
+        <v>174.7140672162686</v>
+      </c>
+      <c r="E106" t="n">
+        <v>217.3057819059808</v>
+      </c>
+      <c r="F106" t="n">
+        <v>248.0174047581444</v>
+      </c>
+      <c r="G106" t="n">
+        <v>274.2593541014273</v>
+      </c>
+      <c r="H106" t="n">
+        <v>298.7870730378873</v>
+      </c>
+      <c r="I106" t="n">
+        <v>323.3147919743473</v>
+      </c>
+      <c r="J106" t="n">
+        <v>349.5567413176302</v>
+      </c>
+      <c r="K106" t="n">
+        <v>380.2683641697938</v>
+      </c>
+      <c r="L106" t="n">
+        <v>422.860078859506</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Shop K</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>45640</v>
+      </c>
+      <c r="C107" t="n">
+        <v>298.7870730378873</v>
+      </c>
+      <c r="D107" t="n">
+        <v>163.3551976610437</v>
+      </c>
+      <c r="E107" t="n">
+        <v>209.8461789808346</v>
+      </c>
+      <c r="F107" t="n">
+        <v>243.3694474080924</v>
+      </c>
+      <c r="G107" t="n">
+        <v>272.013844225677</v>
+      </c>
+      <c r="H107" t="n">
+        <v>298.7870730378873</v>
+      </c>
+      <c r="I107" t="n">
+        <v>325.5603018500976</v>
+      </c>
+      <c r="J107" t="n">
+        <v>354.2046986676822</v>
+      </c>
+      <c r="K107" t="n">
+        <v>387.72796709494</v>
+      </c>
+      <c r="L107" t="n">
+        <v>434.2189484147309</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Shop K</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>45641</v>
+      </c>
+      <c r="C108" t="n">
+        <v>298.7870730378873</v>
+      </c>
+      <c r="D108" t="n">
+        <v>152.8779404842107</v>
+      </c>
+      <c r="E108" t="n">
+        <v>202.9655490111153</v>
+      </c>
+      <c r="F108" t="n">
+        <v>239.0822386971651</v>
+      </c>
+      <c r="G108" t="n">
+        <v>269.9426183570312</v>
+      </c>
+      <c r="H108" t="n">
+        <v>298.7870730378873</v>
+      </c>
+      <c r="I108" t="n">
+        <v>327.6315277187434</v>
+      </c>
+      <c r="J108" t="n">
+        <v>358.4919073786094</v>
+      </c>
+      <c r="K108" t="n">
+        <v>394.6085970646593</v>
+      </c>
+      <c r="L108" t="n">
+        <v>444.696205591564</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Shop K</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="C109" t="n">
+        <v>298.7870730378873</v>
+      </c>
+      <c r="D109" t="n">
+        <v>143.1041996797563</v>
+      </c>
+      <c r="E109" t="n">
+        <v>196.5469326919419</v>
+      </c>
+      <c r="F109" t="n">
+        <v>235.0829031833005</v>
+      </c>
+      <c r="G109" t="n">
+        <v>268.0104690887679</v>
+      </c>
+      <c r="H109" t="n">
+        <v>298.7870730378873</v>
+      </c>
+      <c r="I109" t="n">
+        <v>329.5636769870067</v>
+      </c>
+      <c r="J109" t="n">
+        <v>362.4912428924741</v>
+      </c>
+      <c r="K109" t="n">
+        <v>401.0272133838327</v>
+      </c>
+      <c r="L109" t="n">
+        <v>454.4699463960183</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Shop K</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="C110" t="n">
+        <v>298.7870730378873</v>
+      </c>
+      <c r="D110" t="n">
+        <v>133.9088174930116</v>
+      </c>
+      <c r="E110" t="n">
+        <v>190.5081363553359</v>
+      </c>
+      <c r="F110" t="n">
+        <v>231.320227327783</v>
+      </c>
+      <c r="G110" t="n">
+        <v>266.1926542603429</v>
+      </c>
+      <c r="H110" t="n">
+        <v>298.7870730378873</v>
+      </c>
+      <c r="I110" t="n">
+        <v>331.3814918154317</v>
+      </c>
+      <c r="J110" t="n">
+        <v>366.2539187479916</v>
+      </c>
+      <c r="K110" t="n">
+        <v>407.0660097204387</v>
+      </c>
+      <c r="L110" t="n">
+        <v>463.665328582763</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Shop K</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="C111" t="n">
+        <v>298.7870730378873</v>
+      </c>
+      <c r="D111" t="n">
+        <v>125.199857938391</v>
+      </c>
+      <c r="E111" t="n">
+        <v>184.7887837513837</v>
+      </c>
+      <c r="F111" t="n">
+        <v>227.7565916705195</v>
+      </c>
+      <c r="G111" t="n">
+        <v>264.4709992494871</v>
+      </c>
+      <c r="H111" t="n">
+        <v>298.7870730378873</v>
+      </c>
+      <c r="I111" t="n">
+        <v>333.1031468262875</v>
+      </c>
+      <c r="J111" t="n">
+        <v>369.8175544052551</v>
+      </c>
+      <c r="K111" t="n">
+        <v>412.7853623243909</v>
+      </c>
+      <c r="L111" t="n">
+        <v>472.3742881373836</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Shop L</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>45654</v>
+      </c>
+      <c r="C112" t="n">
+        <v>303.016</v>
+      </c>
+      <c r="D112" t="n">
+        <v>218.7855075388185</v>
+      </c>
+      <c r="E112" t="n">
+        <v>247.700105676615</v>
+      </c>
+      <c r="F112" t="n">
+        <v>268.549565234635</v>
+      </c>
+      <c r="G112" t="n">
+        <v>286.3646596759188</v>
+      </c>
+      <c r="H112" t="n">
+        <v>303.016</v>
+      </c>
+      <c r="I112" t="n">
+        <v>319.6673403240811</v>
+      </c>
+      <c r="J112" t="n">
+        <v>337.4824347653649</v>
+      </c>
+      <c r="K112" t="n">
+        <v>358.3318943233849</v>
+      </c>
+      <c r="L112" t="n">
+        <v>387.2464924611814</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Shop L</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>45655</v>
+      </c>
+      <c r="C113" t="n">
+        <v>303.016</v>
+      </c>
+      <c r="D113" t="n">
+        <v>183.9020510423652</v>
+      </c>
+      <c r="E113" t="n">
+        <v>224.79142335968</v>
+      </c>
+      <c r="F113" t="n">
+        <v>254.2755375922162</v>
+      </c>
+      <c r="G113" t="n">
+        <v>279.4686260801231</v>
+      </c>
+      <c r="H113" t="n">
+        <v>303.016</v>
+      </c>
+      <c r="I113" t="n">
+        <v>326.5633739198768</v>
+      </c>
+      <c r="J113" t="n">
+        <v>351.7564624077837</v>
+      </c>
+      <c r="K113" t="n">
+        <v>381.24057664032</v>
+      </c>
+      <c r="L113" t="n">
+        <v>422.1299489576347</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Shop L</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="C114" t="n">
+        <v>303.016</v>
+      </c>
+      <c r="D114" t="n">
+        <v>157.1342334480732</v>
+      </c>
+      <c r="E114" t="n">
+        <v>207.2124477886194</v>
+      </c>
+      <c r="F114" t="n">
+        <v>243.3223636053724</v>
+      </c>
+      <c r="G114" t="n">
+        <v>274.176955243687</v>
+      </c>
+      <c r="H114" t="n">
+        <v>303.016</v>
+      </c>
+      <c r="I114" t="n">
+        <v>331.8550447563129</v>
+      </c>
+      <c r="J114" t="n">
+        <v>362.7096363946275</v>
+      </c>
+      <c r="K114" t="n">
+        <v>398.8195522113805</v>
+      </c>
+      <c r="L114" t="n">
+        <v>448.8977665519268</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Shop L</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="C115" t="n">
+        <v>303.016</v>
+      </c>
+      <c r="D115" t="n">
+        <v>134.5676494935622</v>
+      </c>
+      <c r="E115" t="n">
+        <v>192.3925086336536</v>
+      </c>
+      <c r="F115" t="n">
+        <v>234.0883003698554</v>
+      </c>
+      <c r="G115" t="n">
+        <v>269.7158170216626</v>
+      </c>
+      <c r="H115" t="n">
+        <v>303.016</v>
+      </c>
+      <c r="I115" t="n">
+        <v>336.3161829783373</v>
+      </c>
+      <c r="J115" t="n">
+        <v>371.9436996301445</v>
+      </c>
+      <c r="K115" t="n">
+        <v>413.6394913663464</v>
+      </c>
+      <c r="L115" t="n">
+        <v>471.4643505064378</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Shop L</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="C116" t="n">
+        <v>303.016</v>
+      </c>
+      <c r="D116" t="n">
+        <v>114.6859605363802</v>
+      </c>
+      <c r="E116" t="n">
+        <v>179.335795165752</v>
+      </c>
+      <c r="F116" t="n">
+        <v>225.9528744042077</v>
+      </c>
+      <c r="G116" t="n">
+        <v>265.7854497713924</v>
+      </c>
+      <c r="H116" t="n">
+        <v>303.016</v>
+      </c>
+      <c r="I116" t="n">
+        <v>340.2465502286075</v>
+      </c>
+      <c r="J116" t="n">
+        <v>380.0791255957922</v>
+      </c>
+      <c r="K116" t="n">
+        <v>426.6962048342479</v>
+      </c>
+      <c r="L116" t="n">
+        <v>491.3460394636197</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Shop L</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="C117" t="n">
+        <v>303.016</v>
+      </c>
+      <c r="D117" t="n">
+        <v>96.71146602074529</v>
+      </c>
+      <c r="E117" t="n">
+        <v>167.5315754575348</v>
+      </c>
+      <c r="F117" t="n">
+        <v>218.5978569448351</v>
+      </c>
+      <c r="G117" t="n">
+        <v>262.232111584855</v>
+      </c>
+      <c r="H117" t="n">
+        <v>303.016</v>
+      </c>
+      <c r="I117" t="n">
+        <v>343.7998884151449</v>
+      </c>
+      <c r="J117" t="n">
+        <v>387.4341430551648</v>
+      </c>
+      <c r="K117" t="n">
+        <v>438.5004245424651</v>
+      </c>
+      <c r="L117" t="n">
+        <v>509.3205339792546</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Shop L</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="C118" t="n">
+        <v>303.016</v>
+      </c>
+      <c r="D118" t="n">
+        <v>80.18216568297728</v>
+      </c>
+      <c r="E118" t="n">
+        <v>156.6764444472911</v>
+      </c>
+      <c r="F118" t="n">
+        <v>211.8342012286898</v>
+      </c>
+      <c r="G118" t="n">
+        <v>258.9644706486469</v>
+      </c>
+      <c r="H118" t="n">
+        <v>303.016</v>
+      </c>
+      <c r="I118" t="n">
+        <v>347.0675293513531</v>
+      </c>
+      <c r="J118" t="n">
+        <v>394.1977987713101</v>
+      </c>
+      <c r="K118" t="n">
+        <v>449.3555555527088</v>
+      </c>
+      <c r="L118" t="n">
+        <v>525.8498343170227</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Shop L</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>45661</v>
+      </c>
+      <c r="C119" t="n">
+        <v>303.016</v>
+      </c>
+      <c r="D119" t="n">
+        <v>64.79703624510665</v>
+      </c>
+      <c r="E119" t="n">
+        <v>146.5727139659685</v>
+      </c>
+      <c r="F119" t="n">
+        <v>205.5387309704404</v>
+      </c>
+      <c r="G119" t="n">
+        <v>255.9230183347109</v>
+      </c>
+      <c r="H119" t="n">
+        <v>303.016</v>
+      </c>
+      <c r="I119" t="n">
+        <v>350.108981665289</v>
+      </c>
+      <c r="J119" t="n">
+        <v>400.4932690295595</v>
+      </c>
+      <c r="K119" t="n">
+        <v>459.4592860340314</v>
+      </c>
+      <c r="L119" t="n">
+        <v>541.2349637548932</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Shop L</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>45662</v>
+      </c>
+      <c r="C120" t="n">
+        <v>303.016</v>
+      </c>
+      <c r="D120" t="n">
+        <v>50.34698395631477</v>
+      </c>
+      <c r="E120" t="n">
+        <v>137.0830678530413</v>
+      </c>
+      <c r="F120" t="n">
+        <v>199.6258867021099</v>
+      </c>
+      <c r="G120" t="n">
+        <v>253.0664193605054</v>
+      </c>
+      <c r="H120" t="n">
+        <v>303.016</v>
+      </c>
+      <c r="I120" t="n">
+        <v>352.9655806394945</v>
+      </c>
+      <c r="J120" t="n">
+        <v>406.40611329789</v>
+      </c>
+      <c r="K120" t="n">
+        <v>468.9489321469586</v>
+      </c>
+      <c r="L120" t="n">
+        <v>555.6850160436852</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Shop L</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="C121" t="n">
+        <v>303.016</v>
+      </c>
+      <c r="D121" t="n">
+        <v>36.67976768356709</v>
+      </c>
+      <c r="E121" t="n">
+        <v>128.1075262297203</v>
+      </c>
+      <c r="F121" t="n">
+        <v>194.0333725860861</v>
+      </c>
+      <c r="G121" t="n">
+        <v>250.3645775121365</v>
+      </c>
+      <c r="H121" t="n">
+        <v>303.016</v>
+      </c>
+      <c r="I121" t="n">
+        <v>355.6674224878635</v>
+      </c>
+      <c r="J121" t="n">
+        <v>411.9986274139138</v>
+      </c>
+      <c r="K121" t="n">
+        <v>477.9244737702796</v>
+      </c>
+      <c r="L121" t="n">
+        <v>569.3522323164328</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
           <t>Shop M</t>
         </is>
       </c>
-      <c r="B40" s="2" t="n">
+      <c r="B122" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="C122" t="n">
+        <v>141.0151</v>
+      </c>
+      <c r="D122" t="n">
+        <v>44.46568836082309</v>
+      </c>
+      <c r="E122" t="n">
+        <v>77.609118446716</v>
+      </c>
+      <c r="F122" t="n">
+        <v>101.5078633608497</v>
+      </c>
+      <c r="G122" t="n">
+        <v>121.928459707179</v>
+      </c>
+      <c r="H122" t="n">
+        <v>141.0151</v>
+      </c>
+      <c r="I122" t="n">
+        <v>160.1017402928209</v>
+      </c>
+      <c r="J122" t="n">
+        <v>180.5223366391503</v>
+      </c>
+      <c r="K122" t="n">
+        <v>204.421081553284</v>
+      </c>
+      <c r="L122" t="n">
+        <v>237.5645116391769</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Shop M</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="C123" t="n">
+        <v>141.0151</v>
+      </c>
+      <c r="D123" t="n">
+        <v>4.480439524416823</v>
+      </c>
+      <c r="E123" t="n">
+        <v>51.3499843196273</v>
+      </c>
+      <c r="F123" t="n">
+        <v>85.14622364668068</v>
+      </c>
+      <c r="G123" t="n">
+        <v>114.0238640332915</v>
+      </c>
+      <c r="H123" t="n">
+        <v>141.0151</v>
+      </c>
+      <c r="I123" t="n">
+        <v>168.0063359667085</v>
+      </c>
+      <c r="J123" t="n">
+        <v>196.8839763533193</v>
+      </c>
+      <c r="K123" t="n">
+        <v>230.6802156803727</v>
+      </c>
+      <c r="L123" t="n">
+        <v>277.5497604755832</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Shop M</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="n">
         <v>45625</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C124" t="n">
         <v>141.0151</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D124" t="n">
         <v>-26.20223801999816</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E124" t="n">
         <v>31.2000398160077</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F124" t="n">
         <v>72.59112070104993</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G124" t="n">
         <v>107.9582731656903</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H124" t="n">
         <v>141.0151</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I124" t="n">
         <v>174.0719268343097</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J124" t="n">
         <v>209.43907929895</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K124" t="n">
         <v>250.8301601839923</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L124" t="n">
         <v>308.2324380199981</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Shop M</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>45626</v>
+      </c>
+      <c r="C125" t="n">
+        <v>141.0151</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-52.06924104765167</v>
+      </c>
+      <c r="E125" t="n">
+        <v>14.21264767176986</v>
+      </c>
+      <c r="F125" t="n">
+        <v>62.00655273311368</v>
+      </c>
+      <c r="G125" t="n">
+        <v>102.8446823746119</v>
+      </c>
+      <c r="H125" t="n">
+        <v>141.0151</v>
+      </c>
+      <c r="I125" t="n">
+        <v>179.1855176253881</v>
+      </c>
+      <c r="J125" t="n">
+        <v>220.0236472668863</v>
+      </c>
+      <c r="K125" t="n">
+        <v>267.8175523282301</v>
+      </c>
+      <c r="L125" t="n">
+        <v>334.0994410476517</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Shop M</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="C126" t="n">
+        <v>141.0151</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-74.85867650172659</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-0.7536426398791889</v>
+      </c>
+      <c r="F126" t="n">
+        <v>52.68130047034956</v>
+      </c>
+      <c r="G126" t="n">
+        <v>98.33948913103245</v>
+      </c>
+      <c r="H126" t="n">
+        <v>141.0151</v>
+      </c>
+      <c r="I126" t="n">
+        <v>183.6907108689675</v>
+      </c>
+      <c r="J126" t="n">
+        <v>229.3488995296504</v>
+      </c>
+      <c r="K126" t="n">
+        <v>282.7838426398791</v>
+      </c>
+      <c r="L126" t="n">
+        <v>356.8888765017266</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Shop M</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="C127" t="n">
+        <v>141.0151</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-95.46198558003869</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-14.28425886194614</v>
+      </c>
+      <c r="F127" t="n">
+        <v>44.25059340039429</v>
+      </c>
+      <c r="G127" t="n">
+        <v>94.26646639020835</v>
+      </c>
+      <c r="H127" t="n">
+        <v>141.0151</v>
+      </c>
+      <c r="I127" t="n">
+        <v>187.7637336097916</v>
+      </c>
+      <c r="J127" t="n">
+        <v>237.7796065996057</v>
+      </c>
+      <c r="K127" t="n">
+        <v>296.3144588619462</v>
+      </c>
+      <c r="L127" t="n">
+        <v>377.4921855800387</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Shop M</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="C128" t="n">
+        <v>141.0151</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-114.4087372347822</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-26.7269798016132</v>
+      </c>
+      <c r="F128" t="n">
+        <v>36.49773620055372</v>
+      </c>
+      <c r="G128" t="n">
+        <v>90.52092483369449</v>
+      </c>
+      <c r="H128" t="n">
+        <v>141.0151</v>
+      </c>
+      <c r="I128" t="n">
+        <v>191.5092751663055</v>
+      </c>
+      <c r="J128" t="n">
+        <v>245.5324637994462</v>
+      </c>
+      <c r="K128" t="n">
+        <v>308.7571798016132</v>
+      </c>
+      <c r="L128" t="n">
+        <v>396.4389372347822</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Shop M</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="C129" t="n">
+        <v>141.0151</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-132.0439801475974</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-38.30840601471627</v>
+      </c>
+      <c r="F129" t="n">
+        <v>29.28153774717256</v>
+      </c>
+      <c r="G129" t="n">
+        <v>87.03465254845933</v>
+      </c>
+      <c r="H129" t="n">
+        <v>141.0151</v>
+      </c>
+      <c r="I129" t="n">
+        <v>194.9955474515406</v>
+      </c>
+      <c r="J129" t="n">
+        <v>252.7486622528274</v>
+      </c>
+      <c r="K129" t="n">
+        <v>320.3386060147162</v>
+      </c>
+      <c r="L129" t="n">
+        <v>414.0741801475974</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Shop M</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="C130" t="n">
+        <v>141.0151</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-148.6073885508092</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-49.1859364920476</v>
+      </c>
+      <c r="F130" t="n">
+        <v>22.50392528711848</v>
+      </c>
+      <c r="G130" t="n">
+        <v>83.76026886400288</v>
+      </c>
+      <c r="H130" t="n">
+        <v>141.0151</v>
+      </c>
+      <c r="I130" t="n">
+        <v>198.2699311359971</v>
+      </c>
+      <c r="J130" t="n">
+        <v>259.5262747128815</v>
+      </c>
+      <c r="K130" t="n">
+        <v>331.2161364920476</v>
+      </c>
+      <c r="L130" t="n">
+        <v>430.6375885508091</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Shop M</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="C131" t="n">
+        <v>141.0151</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-164.273469222097</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-59.47417341852594</v>
+      </c>
+      <c r="F131" t="n">
+        <v>16.09349206147003</v>
+      </c>
+      <c r="G131" t="n">
+        <v>80.66327592023796</v>
+      </c>
+      <c r="H131" t="n">
+        <v>141.0151</v>
+      </c>
+      <c r="I131" t="n">
+        <v>201.366924079762</v>
+      </c>
+      <c r="J131" t="n">
+        <v>265.9367079385299</v>
+      </c>
+      <c r="K131" t="n">
+        <v>341.5043734185259</v>
+      </c>
+      <c r="L131" t="n">
+        <v>446.303669222097</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>item_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Shop F</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Shop H</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Shop L</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Manchester</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Shop I</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Montreal</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Shop A</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Shop E</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Shop G</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Shop K</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Shop D</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Shop M</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Edinburgh</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Shop B</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Shop J</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Shop C</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>item_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>russian_holiday</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Shop I</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Montreal</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Shop E</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Shop H</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Shop C</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Shop K</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Shop F</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Shop L</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Manchester</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Shop A</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Shop M</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Edinburgh</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Shop B</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Shop G</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Shop J</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Shop D</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1345,19 +1345,19 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-0.2643513408132673</v>
+        <v>-0.2459353878981204</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>-0.2586556667233124</v>
+        <v>-0.2458374652789888</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>1.383258819580078</v>
+        <v>2.609650373458862</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>1.104408979415894</v>
+        <v>2.836987257003784</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>0.2436130046844482</v>
+        <v>0.5963144302368164</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>12</v>
@@ -1370,19 +1370,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2959284882023608</v>
+        <v>-0.3282513906872788</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2879361717436518</v>
+        <v>-0.3335968374473891</v>
       </c>
       <c r="D3" t="n">
-        <v>1.357237339019775</v>
+        <v>1.368481159210205</v>
       </c>
       <c r="E3" t="n">
-        <v>1.095410585403442</v>
+        <v>1.149967670440674</v>
       </c>
       <c r="F3" t="n">
-        <v>0.007001876831054688</v>
+        <v>0.008002042770385742</v>
       </c>
       <c r="G3" t="n">
         <v>4</v>
@@ -1395,19 +1395,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.3692293552013767</v>
+        <v>-0.3541752100289556</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3692293552013767</v>
+        <v>-0.3541752100289556</v>
       </c>
       <c r="D4" t="n">
-        <v>1.147050380706787</v>
+        <v>1.136845350265503</v>
       </c>
       <c r="E4" t="n">
-        <v>1.368196249008179</v>
+        <v>1.445263147354126</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01000046730041504</v>
+        <v>0.01250529289245605</v>
       </c>
       <c r="G4" t="n">
         <v>6</v>
@@ -1420,19 +1420,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4190642458211192</v>
+        <v>-0.3650153282017539</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4190642458211192</v>
+        <v>-0.3650153282017539</v>
       </c>
       <c r="D5" t="n">
-        <v>1.140031814575195</v>
+        <v>1.214161157608032</v>
       </c>
       <c r="E5" t="n">
-        <v>1.562343835830688</v>
+        <v>1.67802095413208</v>
       </c>
       <c r="F5" t="n">
-        <v>0.006000280380249023</v>
+        <v>0.006999731063842773</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -1441,26 +1441,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DirectTabular</t>
+          <t>ChronosFineTuned[bolt_small]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4673696407668384</v>
+        <v>-0.3705424732674863</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.4673696407668384</v>
+        <v>-0.3705424732674863</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04601430892944336</v>
+        <v>0.2960512638092041</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04352903366088867</v>
+        <v>0.02650880813598633</v>
       </c>
       <c r="F6" t="n">
-        <v>0.714977502822876</v>
+        <v>7.940534353256226</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1470,19 +1470,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.4693171482512109</v>
+        <v>-0.4010029241055191</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4693171482512109</v>
+        <v>-0.4010029241055191</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02501487731933594</v>
+        <v>0.02600789070129395</v>
       </c>
       <c r="E7" t="n">
-        <v>0.008998394012451172</v>
+        <v>0.008998632431030273</v>
       </c>
       <c r="F7" t="n">
-        <v>8.888912439346313</v>
+        <v>8.307055711746216</v>
       </c>
       <c r="G7" t="n">
         <v>11</v>
@@ -1491,26 +1491,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ChronosFineTuned[bolt_small]</t>
+          <t>TemporalFusionTransformer</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.4733955109195863</v>
+        <v>-0.4157021480876935</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.4733955109195863</v>
+        <v>-0.4157021480876935</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3199343681335449</v>
+        <v>0.03202390670776367</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02500033378601074</v>
+        <v>0.01051068305969238</v>
       </c>
       <c r="F8" t="n">
-        <v>8.269473791122437</v>
+        <v>7.655582189559937</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1520,19 +1520,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.5361846994168316</v>
+        <v>-0.4452357851104173</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.5361846994168316</v>
+        <v>-0.4452357851104173</v>
       </c>
       <c r="D9" t="n">
-        <v>2.420247554779053</v>
+        <v>2.000672101974487</v>
       </c>
       <c r="E9" t="n">
-        <v>1.751584053039551</v>
+        <v>2.054503202438354</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005998134613037109</v>
+        <v>0.007003307342529297</v>
       </c>
       <c r="G9" t="n">
         <v>5</v>
@@ -1541,26 +1541,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TemporalFusionTransformer</t>
+          <t>DirectTabular</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.5567967446821459</v>
+        <v>-0.4588130971848443</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.5567967446821459</v>
+        <v>-0.4588130971848443</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03051495552062988</v>
+        <v>0.0480198860168457</v>
       </c>
       <c r="E10" t="n">
-        <v>0.009999752044677734</v>
+        <v>0.05801010131835938</v>
       </c>
       <c r="F10" t="n">
-        <v>8.157732963562012</v>
+        <v>3.244688272476196</v>
       </c>
       <c r="G10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1570,19 +1570,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.6119642523190928</v>
+        <v>-0.4902596939063016</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.6119642523190928</v>
+        <v>-0.4902596939063016</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01703453063964844</v>
+        <v>0.0130007266998291</v>
       </c>
       <c r="E11" t="n">
-        <v>0.006999731063842773</v>
+        <v>0.007000207901000977</v>
       </c>
       <c r="F11" t="n">
-        <v>8.484258890151978</v>
+        <v>7.932926177978516</v>
       </c>
       <c r="G11" t="n">
         <v>10</v>
@@ -1591,58 +1591,58 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RecursiveTabular</t>
+          <t>DeepAR</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.6171117433917868</v>
+        <v>-0.5569922556719956</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.6171117433917868</v>
+        <v>-0.5697749847126919</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1090476512908936</v>
+        <v>0.0380089282989502</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1040401458740234</v>
+        <v>0.02600908279418945</v>
       </c>
       <c r="F12" t="n">
-        <v>0.494624137878418</v>
+        <v>7.742785692214966</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DeepAR</t>
+          <t>RecursiveTabular</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.7242935228903415</v>
+        <v>-0.5663705350555703</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.7080314763393492</v>
+        <v>-0.5663705350555703</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03701472282409668</v>
+        <v>0.1160790920257568</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02800369262695312</v>
+        <v>0.1100413799285889</v>
       </c>
       <c r="F13" t="n">
-        <v>8.263907670974731</v>
+        <v>0.5322892665863037</v>
       </c>
       <c r="G13" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Лучшая модель (из обучения): WeightedEnsemble
-score_val=-0.2587 (запомнено при обучении)</t>
+          <t>Лучшая модель: WeightedEnsemble
+Причина: минимальный score_val = -0.2458</t>
         </is>
       </c>
     </row>
@@ -1737,34 +1737,34 @@
         <v>45657</v>
       </c>
       <c r="C2" t="n">
-        <v>38556.04062801912</v>
+        <v>36581.90900549808</v>
       </c>
       <c r="D2" t="n">
-        <v>23114.2828794308</v>
+        <v>29383.55355746053</v>
       </c>
       <c r="E2" t="n">
-        <v>28569.01682973144</v>
+        <v>32951.3811956988</v>
       </c>
       <c r="F2" t="n">
-        <v>28922.1528532947</v>
+        <v>33313.56625522681</v>
       </c>
       <c r="G2" t="n">
-        <v>32661.34010435972</v>
+        <v>35669.50692814239</v>
       </c>
       <c r="H2" t="n">
-        <v>38556.04062801912</v>
+        <v>35928.80130824463</v>
       </c>
       <c r="I2" t="n">
-        <v>38831.72636541258</v>
+        <v>39566.08730554579</v>
       </c>
       <c r="J2" t="n">
-        <v>39128.60849323356</v>
+        <v>39852.61582442593</v>
       </c>
       <c r="K2" t="n">
-        <v>43138.30797725765</v>
+        <v>42413.01925448919</v>
       </c>
       <c r="L2" t="n">
-        <v>43647.63902967615</v>
+        <v>43007.81353056539</v>
       </c>
     </row>
     <row r="3">
@@ -1777,34 +1777,34 @@
         <v>45688</v>
       </c>
       <c r="C3" t="n">
-        <v>33097.61874523322</v>
+        <v>38806.19984865923</v>
       </c>
       <c r="D3" t="n">
-        <v>24332.8722986806</v>
+        <v>33785.11867428987</v>
       </c>
       <c r="E3" t="n">
-        <v>24818.12571438035</v>
+        <v>36413.87342957238</v>
       </c>
       <c r="F3" t="n">
-        <v>28730.40315634469</v>
+        <v>36713.2498953504</v>
       </c>
       <c r="G3" t="n">
-        <v>29017.29651463442</v>
+        <v>37544.03094285219</v>
       </c>
       <c r="H3" t="n">
-        <v>33097.61874523322</v>
+        <v>37761.64172920443</v>
       </c>
       <c r="I3" t="n">
-        <v>33364.47538106419</v>
+        <v>39680.378738533</v>
       </c>
       <c r="J3" t="n">
-        <v>33651.36922763516</v>
+        <v>39919.74319491313</v>
       </c>
       <c r="K3" t="n">
-        <v>38383.93234972531</v>
+        <v>42859.89969483319</v>
       </c>
       <c r="L3" t="n">
-        <v>38869.18576542505</v>
+        <v>43341.00451778439</v>
       </c>
     </row>
     <row r="4">
@@ -1817,34 +1817,34 @@
         <v>45716</v>
       </c>
       <c r="C4" t="n">
-        <v>30977.82804823654</v>
+        <v>35704.4360844717</v>
       </c>
       <c r="D4" t="n">
-        <v>23865.30039246031</v>
+        <v>30292.62698808334</v>
       </c>
       <c r="E4" t="n">
-        <v>24389.63950151944</v>
+        <v>33939.8543124188</v>
       </c>
       <c r="F4" t="n">
-        <v>30394.3002220846</v>
+        <v>34750.77785921642</v>
       </c>
       <c r="G4" t="n">
-        <v>30697.02707646808</v>
+        <v>35064.90208122155</v>
       </c>
       <c r="H4" t="n">
-        <v>30977.82804823654</v>
+        <v>36292.27652141422</v>
       </c>
       <c r="I4" t="n">
-        <v>32828.77393132763</v>
+        <v>36575.72519839146</v>
       </c>
       <c r="J4" t="n">
-        <v>33131.50029742985</v>
+        <v>36889.84746727159</v>
       </c>
       <c r="K4" t="n">
-        <v>35540.26709769486</v>
+        <v>38520.59293883435</v>
       </c>
       <c r="L4" t="n">
-        <v>36064.60645089461</v>
+        <v>39186.25244928555</v>
       </c>
     </row>
     <row r="5">
@@ -1857,34 +1857,34 @@
         <v>45747</v>
       </c>
       <c r="C5" t="n">
-        <v>37237.04943436639</v>
+        <v>37148.24426249847</v>
       </c>
       <c r="D5" t="n">
-        <v>26365.67160646002</v>
+        <v>30884.03911109962</v>
       </c>
       <c r="E5" t="n">
-        <v>26857.57492450351</v>
+        <v>34935.82526904761</v>
       </c>
       <c r="F5" t="n">
-        <v>36001.06618892851</v>
+        <v>37004.83050790361</v>
       </c>
       <c r="G5" t="n">
-        <v>36291.06867807762</v>
+        <v>37258.87269865874</v>
       </c>
       <c r="H5" t="n">
-        <v>37237.04943436639</v>
+        <v>37896.27184021688</v>
       </c>
       <c r="I5" t="n">
-        <v>37506.70221277547</v>
+        <v>38127.08184531912</v>
       </c>
       <c r="J5" t="n">
-        <v>40375.66915147255</v>
+        <v>38381.12598919925</v>
       </c>
       <c r="K5" t="n">
-        <v>40719.48437425457</v>
+        <v>40249.6981105865</v>
       </c>
       <c r="L5" t="n">
-        <v>41211.38769229806</v>
+        <v>40762.20527728769</v>
       </c>
     </row>
     <row r="6">
@@ -1897,34 +1897,34 @@
         <v>45777</v>
       </c>
       <c r="C6" t="n">
-        <v>39503.67752466837</v>
+        <v>38224.05555868179</v>
       </c>
       <c r="D6" t="n">
-        <v>25527.45341546694</v>
+        <v>31508.92480824407</v>
       </c>
       <c r="E6" t="n">
-        <v>30887.31968353007</v>
+        <v>34957.6087995972</v>
       </c>
       <c r="F6" t="n">
-        <v>35475.84492896212</v>
+        <v>35279.30167162522</v>
       </c>
       <c r="G6" t="n">
-        <v>35766.19238881435</v>
+        <v>38086.32157895924</v>
       </c>
       <c r="H6" t="n">
-        <v>39503.67752466837</v>
+        <v>38318.16869343648</v>
       </c>
       <c r="I6" t="n">
-        <v>39773.54978549932</v>
+        <v>40634.64479144863</v>
       </c>
       <c r="J6" t="n">
-        <v>40063.89724535155</v>
+        <v>41231.25776079825</v>
       </c>
       <c r="K6" t="n">
-        <v>40975.58757337879</v>
+        <v>41552.95258595127</v>
       </c>
       <c r="L6" t="n">
-        <v>41469.84440704728</v>
+        <v>42076.57108077746</v>
       </c>
     </row>
     <row r="7">
@@ -1937,34 +1937,34 @@
         <v>45808</v>
       </c>
       <c r="C7" t="n">
-        <v>33522.36541110418</v>
+        <v>36000.46579010736</v>
       </c>
       <c r="D7" t="n">
-        <v>24185.80993965566</v>
+        <v>30118.89390194949</v>
       </c>
       <c r="E7" t="n">
-        <v>30603.74292486781</v>
+        <v>34211.10384824045</v>
       </c>
       <c r="F7" t="n">
-        <v>30949.6038019467</v>
+        <v>35747.55423152025</v>
       </c>
       <c r="G7" t="n">
-        <v>33251.48143152323</v>
+        <v>36008.38353165038</v>
       </c>
       <c r="H7" t="n">
-        <v>33522.36541110418</v>
+        <v>36245.00994300262</v>
       </c>
       <c r="I7" t="n">
-        <v>34217.50278782839</v>
+        <v>36736.68162841212</v>
       </c>
       <c r="J7" t="n">
-        <v>34508.94302111812</v>
+        <v>36997.51288166724</v>
       </c>
       <c r="K7" t="n">
-        <v>34854.80414233764</v>
+        <v>39277.03550274972</v>
       </c>
       <c r="L7" t="n">
-        <v>38597.35039581791</v>
+        <v>39809.18915382592</v>
       </c>
     </row>
     <row r="8">
@@ -1977,34 +1977,34 @@
         <v>45838</v>
       </c>
       <c r="C8" t="n">
-        <v>32468.16987537083</v>
+        <v>36949.11405066965</v>
       </c>
       <c r="D8" t="n">
-        <v>24580.43426116354</v>
+        <v>32027.76422895095</v>
       </c>
       <c r="E8" t="n">
-        <v>25079.81658311328</v>
+        <v>36459.0452026223</v>
       </c>
       <c r="F8" t="n">
-        <v>31887.88787612393</v>
+        <v>36806.60806189357</v>
       </c>
       <c r="G8" t="n">
-        <v>32195.42847391488</v>
+        <v>37076.90611202369</v>
       </c>
       <c r="H8" t="n">
-        <v>32468.16987537083</v>
+        <v>37322.30010150094</v>
       </c>
       <c r="I8" t="n">
-        <v>32829.15290695406</v>
+        <v>37620.74270347621</v>
       </c>
       <c r="J8" t="n">
-        <v>33122.59851133754</v>
+        <v>37891.04270673134</v>
       </c>
       <c r="K8" t="n">
-        <v>35895.46502499664</v>
+        <v>39687.74452996612</v>
       </c>
       <c r="L8" t="n">
-        <v>36394.84637038388</v>
+        <v>40235.56029041731</v>
       </c>
     </row>
     <row r="9">
@@ -2017,34 +2017,34 @@
         <v>45869</v>
       </c>
       <c r="C9" t="n">
-        <v>34479.53028659467</v>
+        <v>36156.94789492933</v>
       </c>
       <c r="D9" t="n">
-        <v>26357.26513472934</v>
+        <v>31206.42772723862</v>
       </c>
       <c r="E9" t="n">
-        <v>33321.28969871459</v>
+        <v>31716.84309706481</v>
       </c>
       <c r="F9" t="n">
-        <v>33665.47528282473</v>
+        <v>35927.88290928183</v>
       </c>
       <c r="G9" t="n">
-        <v>34209.32111170123</v>
+        <v>36336.67264675559</v>
       </c>
       <c r="H9" t="n">
-        <v>34479.53028659467</v>
+        <v>36570.11155810783</v>
       </c>
       <c r="I9" t="n">
-        <v>35377.81280599887</v>
+        <v>37181.13002074695</v>
       </c>
       <c r="J9" t="n">
-        <v>35668.3360471011</v>
+        <v>37437.63119587707</v>
       </c>
       <c r="K9" t="n">
-        <v>38588.05353341024</v>
+        <v>37757.55258353009</v>
       </c>
       <c r="L9" t="n">
-        <v>39079.51398035998</v>
+        <v>39816.30318565683</v>
       </c>
     </row>
     <row r="10">
@@ -2057,34 +2057,34 @@
         <v>45900</v>
       </c>
       <c r="C10" t="n">
-        <v>34087.0396738</v>
+        <v>35038.74287656788</v>
       </c>
       <c r="D10" t="n">
-        <v>28241.98872798431</v>
+        <v>31078.46991372536</v>
       </c>
       <c r="E10" t="n">
-        <v>30497.83366866142</v>
+        <v>33868.06492090144</v>
       </c>
       <c r="F10" t="n">
-        <v>32902.72557308865</v>
+        <v>34164.77146480445</v>
       </c>
       <c r="G10" t="n">
-        <v>33820.98308679718</v>
+        <v>34780.57458207883</v>
       </c>
       <c r="H10" t="n">
-        <v>34087.0396738</v>
+        <v>34994.40411843108</v>
       </c>
       <c r="I10" t="n">
-        <v>35268.62679758304</v>
+        <v>35758.62611928431</v>
       </c>
       <c r="J10" t="n">
-        <v>35554.76283165402</v>
+        <v>35994.41440378944</v>
       </c>
       <c r="K10" t="n">
-        <v>37837.83026465838</v>
+        <v>36291.12094769246</v>
       </c>
       <c r="L10" t="n">
-        <v>38323.63324090499</v>
+        <v>37943.37884523303</v>
       </c>
     </row>
     <row r="11">
@@ -2097,34 +2097,34 @@
         <v>45930</v>
       </c>
       <c r="C11" t="n">
-        <v>34541.13238705451</v>
+        <v>34070.97466889922</v>
       </c>
       <c r="D11" t="n">
-        <v>27784.88122606322</v>
+        <v>29917.08477907304</v>
       </c>
       <c r="E11" t="n">
-        <v>29958.16807518445</v>
+        <v>31536.02852251985</v>
       </c>
       <c r="F11" t="n">
-        <v>33948.89671334386</v>
+        <v>34099.15709880898</v>
       </c>
       <c r="G11" t="n">
-        <v>34248.44461264921</v>
+        <v>34407.05492692313</v>
       </c>
       <c r="H11" t="n">
-        <v>34541.13238705451</v>
+        <v>34677.64422890038</v>
       </c>
       <c r="I11" t="n">
-        <v>34819.20948186984</v>
+        <v>34948.23353087761</v>
       </c>
       <c r="J11" t="n">
-        <v>35869.56334143774</v>
+        <v>35698.71069493286</v>
       </c>
       <c r="K11" t="n">
-        <v>36226.12832007913</v>
+        <v>36077.08325446088</v>
       </c>
       <c r="L11" t="n">
-        <v>37265.44699059414</v>
+        <v>37014.32086928804</v>
       </c>
     </row>
   </sheetData>
